--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2803000</v>
+        <v>2387400</v>
       </c>
       <c r="E8" s="3">
-        <v>2661300</v>
+        <v>2266600</v>
       </c>
       <c r="F8" s="3">
-        <v>2749100</v>
+        <v>2341400</v>
       </c>
       <c r="G8" s="3">
-        <v>2504500</v>
+        <v>2133100</v>
       </c>
       <c r="H8" s="3">
-        <v>2198200</v>
+        <v>1872200</v>
       </c>
       <c r="I8" s="3">
-        <v>2099400</v>
+        <v>1788100</v>
       </c>
       <c r="J8" s="3">
-        <v>2156800</v>
+        <v>1837000</v>
       </c>
       <c r="K8" s="3">
         <v>2267200</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>546500</v>
+        <v>465500</v>
       </c>
       <c r="E9" s="3">
-        <v>890600</v>
+        <v>758600</v>
       </c>
       <c r="F9" s="3">
-        <v>611700</v>
+        <v>521000</v>
       </c>
       <c r="G9" s="3">
-        <v>523600</v>
+        <v>446000</v>
       </c>
       <c r="H9" s="3">
-        <v>414600</v>
+        <v>353100</v>
       </c>
       <c r="I9" s="3">
-        <v>410700</v>
+        <v>349800</v>
       </c>
       <c r="J9" s="3">
-        <v>403200</v>
+        <v>343400</v>
       </c>
       <c r="K9" s="3">
         <v>375900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2256500</v>
+        <v>1921900</v>
       </c>
       <c r="E10" s="3">
-        <v>1770600</v>
+        <v>1508100</v>
       </c>
       <c r="F10" s="3">
-        <v>2137400</v>
+        <v>1820500</v>
       </c>
       <c r="G10" s="3">
-        <v>1980900</v>
+        <v>1687100</v>
       </c>
       <c r="H10" s="3">
-        <v>1783600</v>
+        <v>1519100</v>
       </c>
       <c r="I10" s="3">
-        <v>1688700</v>
+        <v>1438300</v>
       </c>
       <c r="J10" s="3">
-        <v>1753600</v>
+        <v>1493600</v>
       </c>
       <c r="K10" s="3">
         <v>1891400</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18100</v>
+        <v>15400</v>
       </c>
       <c r="E14" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>9600</v>
+        <v>8200</v>
       </c>
       <c r="G14" s="3">
-        <v>11400</v>
+        <v>9700</v>
       </c>
       <c r="H14" s="3">
-        <v>14800</v>
+        <v>12600</v>
       </c>
       <c r="I14" s="3">
-        <v>42400</v>
+        <v>36100</v>
       </c>
       <c r="J14" s="3">
-        <v>825900</v>
+        <v>703500</v>
       </c>
       <c r="K14" s="3">
         <v>55900</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>372000</v>
+        <v>316800</v>
       </c>
       <c r="E15" s="3">
-        <v>371600</v>
+        <v>316500</v>
       </c>
       <c r="F15" s="3">
-        <v>370300</v>
+        <v>315400</v>
       </c>
       <c r="G15" s="3">
-        <v>357500</v>
+        <v>304500</v>
       </c>
       <c r="H15" s="3">
-        <v>354600</v>
+        <v>302000</v>
       </c>
       <c r="I15" s="3">
-        <v>352900</v>
+        <v>300600</v>
       </c>
       <c r="J15" s="3">
-        <v>743100</v>
+        <v>632900</v>
       </c>
       <c r="K15" s="3">
         <v>364300</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2483200</v>
+        <v>2115000</v>
       </c>
       <c r="E17" s="3">
-        <v>2336700</v>
+        <v>1990200</v>
       </c>
       <c r="F17" s="3">
-        <v>2399200</v>
+        <v>2043500</v>
       </c>
       <c r="G17" s="3">
-        <v>2284600</v>
+        <v>1945800</v>
       </c>
       <c r="H17" s="3">
-        <v>1974400</v>
+        <v>1681600</v>
       </c>
       <c r="I17" s="3">
-        <v>1825900</v>
+        <v>1555200</v>
       </c>
       <c r="J17" s="3">
-        <v>2904600</v>
+        <v>2473900</v>
       </c>
       <c r="K17" s="3">
         <v>2102200</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>319900</v>
+        <v>272400</v>
       </c>
       <c r="E18" s="3">
-        <v>324600</v>
+        <v>276400</v>
       </c>
       <c r="F18" s="3">
-        <v>349900</v>
+        <v>298000</v>
       </c>
       <c r="G18" s="3">
-        <v>220000</v>
+        <v>187300</v>
       </c>
       <c r="H18" s="3">
-        <v>223800</v>
+        <v>190700</v>
       </c>
       <c r="I18" s="3">
-        <v>273500</v>
+        <v>232900</v>
       </c>
       <c r="J18" s="3">
-        <v>-747800</v>
+        <v>-636900</v>
       </c>
       <c r="K18" s="3">
         <v>165000</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>7100</v>
       </c>
       <c r="E20" s="3">
-        <v>10600</v>
+        <v>9000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3400</v>
+        <v>-2900</v>
       </c>
       <c r="G20" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
-        <v>-12100</v>
+        <v>-10300</v>
       </c>
       <c r="I20" s="3">
-        <v>-8700</v>
+        <v>-7400</v>
       </c>
       <c r="J20" s="3">
-        <v>48000</v>
+        <v>40900</v>
       </c>
       <c r="K20" s="3">
         <v>-59600</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>721900</v>
+        <v>614200</v>
       </c>
       <c r="E21" s="3">
-        <v>713300</v>
+        <v>606900</v>
       </c>
       <c r="F21" s="3">
-        <v>729700</v>
+        <v>620900</v>
       </c>
       <c r="G21" s="3">
-        <v>601000</v>
+        <v>511200</v>
       </c>
       <c r="H21" s="3">
-        <v>584500</v>
+        <v>497200</v>
       </c>
       <c r="I21" s="3">
-        <v>666800</v>
+        <v>567200</v>
       </c>
       <c r="J21" s="3">
-        <v>538600</v>
+        <v>456700</v>
       </c>
       <c r="K21" s="3">
         <v>526200</v>
@@ -1083,16 +1083,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59400</v>
+        <v>50600</v>
       </c>
       <c r="E22" s="3">
-        <v>59300</v>
+        <v>50500</v>
       </c>
       <c r="F22" s="3">
-        <v>41500</v>
+        <v>35300</v>
       </c>
       <c r="G22" s="3">
-        <v>35000</v>
+        <v>29800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1101,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>44300</v>
+        <v>37700</v>
       </c>
       <c r="K22" s="3">
         <v>52400</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>268900</v>
+        <v>229000</v>
       </c>
       <c r="E23" s="3">
-        <v>275800</v>
+        <v>234900</v>
       </c>
       <c r="F23" s="3">
-        <v>305000</v>
+        <v>259700</v>
       </c>
       <c r="G23" s="3">
-        <v>191800</v>
+        <v>163400</v>
       </c>
       <c r="H23" s="3">
-        <v>211800</v>
+        <v>180400</v>
       </c>
       <c r="I23" s="3">
-        <v>264800</v>
+        <v>225600</v>
       </c>
       <c r="J23" s="3">
-        <v>-744100</v>
+        <v>-633800</v>
       </c>
       <c r="K23" s="3">
         <v>53000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78900</v>
+        <v>67200</v>
       </c>
       <c r="E24" s="3">
-        <v>74700</v>
+        <v>63600</v>
       </c>
       <c r="F24" s="3">
-        <v>46400</v>
+        <v>39500</v>
       </c>
       <c r="G24" s="3">
-        <v>36100</v>
+        <v>30700</v>
       </c>
       <c r="H24" s="3">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="I24" s="3">
-        <v>24000</v>
+        <v>20400</v>
       </c>
       <c r="J24" s="3">
-        <v>29700</v>
+        <v>25300</v>
       </c>
       <c r="K24" s="3">
         <v>40800</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>190000</v>
+        <v>161800</v>
       </c>
       <c r="E26" s="3">
-        <v>201200</v>
+        <v>171300</v>
       </c>
       <c r="F26" s="3">
-        <v>258600</v>
+        <v>220300</v>
       </c>
       <c r="G26" s="3">
-        <v>155700</v>
+        <v>132600</v>
       </c>
       <c r="H26" s="3">
-        <v>213600</v>
+        <v>182000</v>
       </c>
       <c r="I26" s="3">
-        <v>240900</v>
+        <v>205200</v>
       </c>
       <c r="J26" s="3">
-        <v>-773800</v>
+        <v>-659100</v>
       </c>
       <c r="K26" s="3">
         <v>12300</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>187500</v>
+        <v>159700</v>
       </c>
       <c r="E27" s="3">
-        <v>195700</v>
+        <v>166700</v>
       </c>
       <c r="F27" s="3">
-        <v>254800</v>
+        <v>217000</v>
       </c>
       <c r="G27" s="3">
-        <v>148300</v>
+        <v>126300</v>
       </c>
       <c r="H27" s="3">
-        <v>206600</v>
+        <v>176000</v>
       </c>
       <c r="I27" s="3">
-        <v>232800</v>
+        <v>198300</v>
       </c>
       <c r="J27" s="3">
-        <v>-782100</v>
+        <v>-666100</v>
       </c>
       <c r="K27" s="3">
         <v>3600</v>
@@ -1305,13 +1305,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>24600</v>
+        <v>21000</v>
       </c>
       <c r="I29" s="3">
-        <v>23700</v>
+        <v>20200</v>
       </c>
       <c r="J29" s="3">
-        <v>-7000</v>
+        <v>-5900</v>
       </c>
       <c r="K29" s="3">
         <v>-18400</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>-7100</v>
       </c>
       <c r="E32" s="3">
-        <v>-10600</v>
+        <v>-9000</v>
       </c>
       <c r="F32" s="3">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6800</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
-        <v>12100</v>
+        <v>10300</v>
       </c>
       <c r="I32" s="3">
-        <v>8700</v>
+        <v>7400</v>
       </c>
       <c r="J32" s="3">
-        <v>-48000</v>
+        <v>-40900</v>
       </c>
       <c r="K32" s="3">
         <v>59600</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>187500</v>
+        <v>159700</v>
       </c>
       <c r="E33" s="3">
-        <v>195700</v>
+        <v>166700</v>
       </c>
       <c r="F33" s="3">
-        <v>254800</v>
+        <v>217000</v>
       </c>
       <c r="G33" s="3">
-        <v>148300</v>
+        <v>126300</v>
       </c>
       <c r="H33" s="3">
-        <v>231200</v>
+        <v>196900</v>
       </c>
       <c r="I33" s="3">
-        <v>256500</v>
+        <v>218400</v>
       </c>
       <c r="J33" s="3">
-        <v>-789000</v>
+        <v>-672000</v>
       </c>
       <c r="K33" s="3">
         <v>-14800</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>187500</v>
+        <v>159700</v>
       </c>
       <c r="E35" s="3">
-        <v>195700</v>
+        <v>166700</v>
       </c>
       <c r="F35" s="3">
-        <v>254800</v>
+        <v>217000</v>
       </c>
       <c r="G35" s="3">
-        <v>148300</v>
+        <v>126300</v>
       </c>
       <c r="H35" s="3">
-        <v>231200</v>
+        <v>196900</v>
       </c>
       <c r="I35" s="3">
-        <v>256500</v>
+        <v>218400</v>
       </c>
       <c r="J35" s="3">
-        <v>-789000</v>
+        <v>-672000</v>
       </c>
       <c r="K35" s="3">
         <v>-14800</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87800</v>
+        <v>74600</v>
       </c>
       <c r="E41" s="3">
-        <v>100500</v>
+        <v>85400</v>
       </c>
       <c r="F41" s="3">
-        <v>162400</v>
+        <v>138000</v>
       </c>
       <c r="G41" s="3">
-        <v>28000</v>
+        <v>23800</v>
       </c>
       <c r="H41" s="3">
-        <v>10900</v>
+        <v>9200</v>
       </c>
       <c r="I41" s="3">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="J41" s="3">
-        <v>15500</v>
+        <v>13200</v>
       </c>
       <c r="K41" s="3">
         <v>48900</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>139600</v>
+        <v>118600</v>
       </c>
       <c r="E42" s="3">
-        <v>183300</v>
+        <v>155700</v>
       </c>
       <c r="F42" s="3">
-        <v>212900</v>
+        <v>180900</v>
       </c>
       <c r="G42" s="3">
-        <v>142900</v>
+        <v>121400</v>
       </c>
       <c r="H42" s="3">
-        <v>233600</v>
+        <v>198500</v>
       </c>
       <c r="I42" s="3">
-        <v>110600</v>
+        <v>94000</v>
       </c>
       <c r="J42" s="3">
-        <v>563700</v>
+        <v>478900</v>
       </c>
       <c r="K42" s="3">
         <v>181600</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>633400</v>
+        <v>538200</v>
       </c>
       <c r="E43" s="3">
-        <v>973000</v>
+        <v>826700</v>
       </c>
       <c r="F43" s="3">
-        <v>1063300</v>
+        <v>903400</v>
       </c>
       <c r="G43" s="3">
-        <v>401600</v>
+        <v>341200</v>
       </c>
       <c r="H43" s="3">
-        <v>305200</v>
+        <v>259300</v>
       </c>
       <c r="I43" s="3">
-        <v>295700</v>
+        <v>251200</v>
       </c>
       <c r="J43" s="3">
-        <v>1007700</v>
+        <v>856200</v>
       </c>
       <c r="K43" s="3">
         <v>328900</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>85000</v>
+        <v>72200</v>
       </c>
       <c r="E44" s="3">
-        <v>186300</v>
+        <v>158300</v>
       </c>
       <c r="F44" s="3">
-        <v>177900</v>
+        <v>151200</v>
       </c>
       <c r="G44" s="3">
-        <v>130300</v>
+        <v>110700</v>
       </c>
       <c r="H44" s="3">
-        <v>42800</v>
+        <v>36400</v>
       </c>
       <c r="I44" s="3">
-        <v>43300</v>
+        <v>36800</v>
       </c>
       <c r="J44" s="3">
-        <v>102000</v>
+        <v>86700</v>
       </c>
       <c r="K44" s="3">
         <v>68100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46100</v>
+        <v>39200</v>
       </c>
       <c r="E45" s="3">
-        <v>35400</v>
+        <v>30000</v>
       </c>
       <c r="F45" s="3">
-        <v>48600</v>
+        <v>41300</v>
       </c>
       <c r="G45" s="3">
-        <v>225500</v>
+        <v>191600</v>
       </c>
       <c r="H45" s="3">
-        <v>154100</v>
+        <v>131000</v>
       </c>
       <c r="I45" s="3">
-        <v>98700</v>
+        <v>83900</v>
       </c>
       <c r="J45" s="3">
-        <v>180400</v>
+        <v>153200</v>
       </c>
       <c r="K45" s="3">
         <v>72100</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>991900</v>
+        <v>842800</v>
       </c>
       <c r="E46" s="3">
-        <v>924500</v>
+        <v>785500</v>
       </c>
       <c r="F46" s="3">
-        <v>908500</v>
+        <v>771900</v>
       </c>
       <c r="G46" s="3">
-        <v>863200</v>
+        <v>733400</v>
       </c>
       <c r="H46" s="3">
-        <v>746600</v>
+        <v>634400</v>
       </c>
       <c r="I46" s="3">
-        <v>561400</v>
+        <v>476900</v>
       </c>
       <c r="J46" s="3">
-        <v>753000</v>
+        <v>639800</v>
       </c>
       <c r="K46" s="3">
         <v>699500</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28200</v>
+        <v>24000</v>
       </c>
       <c r="E47" s="3">
-        <v>28300</v>
+        <v>24100</v>
       </c>
       <c r="F47" s="3">
-        <v>45900</v>
+        <v>39000</v>
       </c>
       <c r="G47" s="3">
-        <v>178100</v>
+        <v>151300</v>
       </c>
       <c r="H47" s="3">
-        <v>181200</v>
+        <v>153900</v>
       </c>
       <c r="I47" s="3">
-        <v>203600</v>
+        <v>173000</v>
       </c>
       <c r="J47" s="3">
-        <v>193500</v>
+        <v>164400</v>
       </c>
       <c r="K47" s="3">
         <v>174900</v>
@@ -1776,22 +1776,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2149500</v>
+        <v>1826300</v>
       </c>
       <c r="E48" s="3">
-        <v>4073000</v>
+        <v>3460600</v>
       </c>
       <c r="F48" s="3">
-        <v>3742900</v>
+        <v>3180100</v>
       </c>
       <c r="G48" s="3">
-        <v>1885400</v>
+        <v>1601900</v>
       </c>
       <c r="H48" s="3">
-        <v>1642500</v>
+        <v>1395500</v>
       </c>
       <c r="I48" s="3">
-        <v>1685800</v>
+        <v>1432300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>303400</v>
+        <v>257700</v>
       </c>
       <c r="E49" s="3">
-        <v>602800</v>
+        <v>512200</v>
       </c>
       <c r="F49" s="3">
-        <v>633400</v>
+        <v>538100</v>
       </c>
       <c r="G49" s="3">
-        <v>295600</v>
+        <v>251100</v>
       </c>
       <c r="H49" s="3">
-        <v>200100</v>
+        <v>170000</v>
       </c>
       <c r="I49" s="3">
-        <v>190100</v>
+        <v>161500</v>
       </c>
       <c r="J49" s="3">
-        <v>519600</v>
+        <v>441400</v>
       </c>
       <c r="K49" s="3">
         <v>243700</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79400</v>
+        <v>67500</v>
       </c>
       <c r="E52" s="3">
-        <v>88900</v>
+        <v>75500</v>
       </c>
       <c r="F52" s="3">
-        <v>72800</v>
+        <v>61900</v>
       </c>
       <c r="G52" s="3">
-        <v>85900</v>
+        <v>73000</v>
       </c>
       <c r="H52" s="3">
-        <v>110000</v>
+        <v>93400</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="K52" s="3">
         <v>6900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3552500</v>
+        <v>3018300</v>
       </c>
       <c r="E54" s="3">
-        <v>3377900</v>
+        <v>2869900</v>
       </c>
       <c r="F54" s="3">
-        <v>3213400</v>
+        <v>2730200</v>
       </c>
       <c r="G54" s="3">
-        <v>3123700</v>
+        <v>2654000</v>
       </c>
       <c r="H54" s="3">
-        <v>2817000</v>
+        <v>2393400</v>
       </c>
       <c r="I54" s="3">
-        <v>2644100</v>
+        <v>2246500</v>
       </c>
       <c r="J54" s="3">
-        <v>2789700</v>
+        <v>2370200</v>
       </c>
       <c r="K54" s="3">
         <v>3603000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>490000</v>
+        <v>416300</v>
       </c>
       <c r="E57" s="3">
-        <v>457900</v>
+        <v>389000</v>
       </c>
       <c r="F57" s="3">
-        <v>760600</v>
+        <v>646200</v>
       </c>
       <c r="G57" s="3">
-        <v>478700</v>
+        <v>406700</v>
       </c>
       <c r="H57" s="3">
-        <v>378100</v>
+        <v>321300</v>
       </c>
       <c r="I57" s="3">
-        <v>343500</v>
+        <v>291800</v>
       </c>
       <c r="J57" s="3">
-        <v>312600</v>
+        <v>265600</v>
       </c>
       <c r="K57" s="3">
         <v>194600</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>362400</v>
+        <v>307900</v>
       </c>
       <c r="E58" s="3">
-        <v>152200</v>
+        <v>129400</v>
       </c>
       <c r="F58" s="3">
-        <v>212600</v>
+        <v>180700</v>
       </c>
       <c r="G58" s="3">
-        <v>47600</v>
+        <v>40400</v>
       </c>
       <c r="H58" s="3">
-        <v>108200</v>
+        <v>92000</v>
       </c>
       <c r="I58" s="3">
-        <v>21600</v>
+        <v>18400</v>
       </c>
       <c r="J58" s="3">
-        <v>370300</v>
+        <v>314600</v>
       </c>
       <c r="K58" s="3">
         <v>88600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>250500</v>
+        <v>212800</v>
       </c>
       <c r="E59" s="3">
-        <v>493900</v>
+        <v>419600</v>
       </c>
       <c r="F59" s="3">
-        <v>511300</v>
+        <v>434400</v>
       </c>
       <c r="G59" s="3">
-        <v>351700</v>
+        <v>298800</v>
       </c>
       <c r="H59" s="3">
-        <v>296600</v>
+        <v>252000</v>
       </c>
       <c r="I59" s="3">
-        <v>312700</v>
+        <v>265700</v>
       </c>
       <c r="J59" s="3">
-        <v>511000</v>
+        <v>434200</v>
       </c>
       <c r="K59" s="3">
         <v>382300</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1102900</v>
+        <v>937000</v>
       </c>
       <c r="E60" s="3">
-        <v>867100</v>
+        <v>736700</v>
       </c>
       <c r="F60" s="3">
-        <v>876800</v>
+        <v>744900</v>
       </c>
       <c r="G60" s="3">
-        <v>877900</v>
+        <v>745900</v>
       </c>
       <c r="H60" s="3">
-        <v>770500</v>
+        <v>654600</v>
       </c>
       <c r="I60" s="3">
-        <v>677800</v>
+        <v>575900</v>
       </c>
       <c r="J60" s="3">
-        <v>880900</v>
+        <v>748400</v>
       </c>
       <c r="K60" s="3">
         <v>665500</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>324800</v>
+        <v>275900</v>
       </c>
       <c r="E61" s="3">
-        <v>480300</v>
+        <v>408100</v>
       </c>
       <c r="F61" s="3">
-        <v>317600</v>
+        <v>269800</v>
       </c>
       <c r="G61" s="3">
-        <v>306400</v>
+        <v>260300</v>
       </c>
       <c r="H61" s="3">
-        <v>217700</v>
+        <v>184900</v>
       </c>
       <c r="I61" s="3">
-        <v>253300</v>
+        <v>215200</v>
       </c>
       <c r="J61" s="3">
-        <v>261600</v>
+        <v>222300</v>
       </c>
       <c r="K61" s="3">
         <v>404200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127500</v>
+        <v>108300</v>
       </c>
       <c r="E62" s="3">
-        <v>208700</v>
+        <v>177300</v>
       </c>
       <c r="F62" s="3">
-        <v>151500</v>
+        <v>128700</v>
       </c>
       <c r="G62" s="3">
-        <v>170300</v>
+        <v>144700</v>
       </c>
       <c r="H62" s="3">
-        <v>136100</v>
+        <v>115600</v>
       </c>
       <c r="I62" s="3">
-        <v>159800</v>
+        <v>135700</v>
       </c>
       <c r="J62" s="3">
-        <v>773900</v>
+        <v>657500</v>
       </c>
       <c r="K62" s="3">
         <v>467500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1568200</v>
+        <v>1332400</v>
       </c>
       <c r="E66" s="3">
-        <v>1569100</v>
+        <v>1333100</v>
       </c>
       <c r="F66" s="3">
-        <v>1359100</v>
+        <v>1154700</v>
       </c>
       <c r="G66" s="3">
-        <v>1380800</v>
+        <v>1173200</v>
       </c>
       <c r="H66" s="3">
-        <v>1148600</v>
+        <v>975900</v>
       </c>
       <c r="I66" s="3">
-        <v>1116100</v>
+        <v>948300</v>
       </c>
       <c r="J66" s="3">
-        <v>1595400</v>
+        <v>1355500</v>
       </c>
       <c r="K66" s="3">
         <v>1566900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1645500</v>
+        <v>1398100</v>
       </c>
       <c r="E72" s="3">
-        <v>1470000</v>
+        <v>1248900</v>
       </c>
       <c r="F72" s="3">
-        <v>1504900</v>
+        <v>1278600</v>
       </c>
       <c r="G72" s="3">
-        <v>1393500</v>
+        <v>1183900</v>
       </c>
       <c r="H72" s="3">
-        <v>1318900</v>
+        <v>1120600</v>
       </c>
       <c r="I72" s="3">
-        <v>1230200</v>
+        <v>1045200</v>
       </c>
       <c r="J72" s="3">
-        <v>1041700</v>
+        <v>885100</v>
       </c>
       <c r="K72" s="3">
         <v>1732000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1984300</v>
+        <v>1686000</v>
       </c>
       <c r="E76" s="3">
-        <v>1808800</v>
+        <v>1536800</v>
       </c>
       <c r="F76" s="3">
-        <v>1854300</v>
+        <v>1575500</v>
       </c>
       <c r="G76" s="3">
-        <v>1742900</v>
+        <v>1480800</v>
       </c>
       <c r="H76" s="3">
-        <v>1668400</v>
+        <v>1417500</v>
       </c>
       <c r="I76" s="3">
-        <v>1527900</v>
+        <v>1298200</v>
       </c>
       <c r="J76" s="3">
-        <v>1194200</v>
+        <v>1014700</v>
       </c>
       <c r="K76" s="3">
         <v>2036100</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>187500</v>
+        <v>159700</v>
       </c>
       <c r="E81" s="3">
-        <v>195700</v>
+        <v>166700</v>
       </c>
       <c r="F81" s="3">
-        <v>254800</v>
+        <v>217000</v>
       </c>
       <c r="G81" s="3">
-        <v>148300</v>
+        <v>126300</v>
       </c>
       <c r="H81" s="3">
-        <v>231200</v>
+        <v>196900</v>
       </c>
       <c r="I81" s="3">
-        <v>256500</v>
+        <v>218400</v>
       </c>
       <c r="J81" s="3">
-        <v>-789000</v>
+        <v>-672000</v>
       </c>
       <c r="K81" s="3">
         <v>-14800</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>390100</v>
+        <v>332300</v>
       </c>
       <c r="E83" s="3">
-        <v>374800</v>
+        <v>319200</v>
       </c>
       <c r="F83" s="3">
-        <v>379900</v>
+        <v>323500</v>
       </c>
       <c r="G83" s="3">
-        <v>370900</v>
+        <v>315900</v>
       </c>
       <c r="H83" s="3">
-        <v>369400</v>
+        <v>314600</v>
       </c>
       <c r="I83" s="3">
-        <v>398400</v>
+        <v>339300</v>
       </c>
       <c r="J83" s="3">
-        <v>1227500</v>
+        <v>1045400</v>
       </c>
       <c r="K83" s="3">
         <v>420700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>382900</v>
+        <v>326100</v>
       </c>
       <c r="E89" s="3">
-        <v>405200</v>
+        <v>345100</v>
       </c>
       <c r="F89" s="3">
-        <v>371900</v>
+        <v>316700</v>
       </c>
       <c r="G89" s="3">
-        <v>449600</v>
+        <v>383000</v>
       </c>
       <c r="H89" s="3">
-        <v>421500</v>
+        <v>359000</v>
       </c>
       <c r="I89" s="3">
-        <v>427200</v>
+        <v>363800</v>
       </c>
       <c r="J89" s="3">
-        <v>501400</v>
+        <v>427000</v>
       </c>
       <c r="K89" s="3">
         <v>403800</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-508900</v>
+        <v>-433400</v>
       </c>
       <c r="E91" s="3">
-        <v>-520400</v>
+        <v>-443300</v>
       </c>
       <c r="F91" s="3">
-        <v>-568900</v>
+        <v>-484600</v>
       </c>
       <c r="G91" s="3">
-        <v>-395300</v>
+        <v>-336700</v>
       </c>
       <c r="H91" s="3">
-        <v>-340200</v>
+        <v>-289800</v>
       </c>
       <c r="I91" s="3">
-        <v>-427400</v>
+        <v>-364000</v>
       </c>
       <c r="J91" s="3">
-        <v>-377600</v>
+        <v>-321600</v>
       </c>
       <c r="K91" s="3">
         <v>-320400</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-504700</v>
+        <v>-429900</v>
       </c>
       <c r="E94" s="3">
-        <v>-444000</v>
+        <v>-378200</v>
       </c>
       <c r="F94" s="3">
-        <v>-445300</v>
+        <v>-379300</v>
       </c>
       <c r="G94" s="3">
-        <v>-551200</v>
+        <v>-469500</v>
       </c>
       <c r="H94" s="3">
-        <v>-346800</v>
+        <v>-295400</v>
       </c>
       <c r="I94" s="3">
-        <v>-290700</v>
+        <v>-247600</v>
       </c>
       <c r="J94" s="3">
-        <v>-370300</v>
+        <v>-315400</v>
       </c>
       <c r="K94" s="3">
         <v>-336300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48100</v>
+        <v>41000</v>
       </c>
       <c r="E100" s="3">
-        <v>116200</v>
+        <v>98900</v>
       </c>
       <c r="F100" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="G100" s="3">
-        <v>27600</v>
+        <v>23500</v>
       </c>
       <c r="H100" s="3">
-        <v>46000</v>
+        <v>39100</v>
       </c>
       <c r="I100" s="3">
-        <v>-173300</v>
+        <v>-147600</v>
       </c>
       <c r="J100" s="3">
-        <v>-49100</v>
+        <v>-41800</v>
       </c>
       <c r="K100" s="3">
         <v>-108700</v>
@@ -3230,7 +3230,7 @@
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-73700</v>
+        <v>-62800</v>
       </c>
       <c r="E102" s="3">
-        <v>77400</v>
+        <v>65900</v>
       </c>
       <c r="F102" s="3">
-        <v>-68600</v>
+        <v>-58500</v>
       </c>
       <c r="G102" s="3">
-        <v>-73800</v>
+        <v>-62900</v>
       </c>
       <c r="H102" s="3">
-        <v>120800</v>
+        <v>102900</v>
       </c>
       <c r="I102" s="3">
-        <v>-36200</v>
+        <v>-30900</v>
       </c>
       <c r="J102" s="3">
-        <v>81700</v>
+        <v>69600</v>
       </c>
       <c r="K102" s="3">
         <v>-41700</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2387400</v>
+        <v>2551600</v>
       </c>
       <c r="E8" s="3">
-        <v>2266600</v>
+        <v>2476400</v>
       </c>
       <c r="F8" s="3">
-        <v>2341400</v>
+        <v>2351100</v>
       </c>
       <c r="G8" s="3">
-        <v>2133100</v>
+        <v>2428700</v>
       </c>
       <c r="H8" s="3">
-        <v>1872200</v>
+        <v>2212600</v>
       </c>
       <c r="I8" s="3">
-        <v>1788100</v>
+        <v>1942000</v>
       </c>
       <c r="J8" s="3">
+        <v>1854800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1837000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2267200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>465500</v>
+        <v>551800</v>
       </c>
       <c r="E9" s="3">
-        <v>758600</v>
+        <v>482800</v>
       </c>
       <c r="F9" s="3">
-        <v>521000</v>
+        <v>786800</v>
       </c>
       <c r="G9" s="3">
-        <v>446000</v>
+        <v>540400</v>
       </c>
       <c r="H9" s="3">
-        <v>353100</v>
+        <v>462600</v>
       </c>
       <c r="I9" s="3">
-        <v>349800</v>
+        <v>366300</v>
       </c>
       <c r="J9" s="3">
+        <v>362900</v>
+      </c>
+      <c r="K9" s="3">
         <v>343400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>375900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1921900</v>
+        <v>1999800</v>
       </c>
       <c r="E10" s="3">
-        <v>1508100</v>
+        <v>1993500</v>
       </c>
       <c r="F10" s="3">
-        <v>1820500</v>
+        <v>1564300</v>
       </c>
       <c r="G10" s="3">
-        <v>1687100</v>
+        <v>1888300</v>
       </c>
       <c r="H10" s="3">
-        <v>1519100</v>
+        <v>1750000</v>
       </c>
       <c r="I10" s="3">
-        <v>1438300</v>
+        <v>1575700</v>
       </c>
       <c r="J10" s="3">
+        <v>1491900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1493600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1891400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15400</v>
+        <v>24500</v>
       </c>
       <c r="E14" s="3">
-        <v>2700</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="3">
-        <v>8200</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="3">
-        <v>9700</v>
+        <v>8500</v>
       </c>
       <c r="H14" s="3">
-        <v>12600</v>
+        <v>10100</v>
       </c>
       <c r="I14" s="3">
-        <v>36100</v>
+        <v>13000</v>
       </c>
       <c r="J14" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K14" s="3">
         <v>703500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>316800</v>
+        <v>385400</v>
       </c>
       <c r="E15" s="3">
-        <v>316500</v>
+        <v>328600</v>
       </c>
       <c r="F15" s="3">
-        <v>315400</v>
+        <v>328300</v>
       </c>
       <c r="G15" s="3">
-        <v>304500</v>
+        <v>327100</v>
       </c>
       <c r="H15" s="3">
-        <v>302000</v>
+        <v>315800</v>
       </c>
       <c r="I15" s="3">
-        <v>300600</v>
+        <v>313300</v>
       </c>
       <c r="J15" s="3">
+        <v>311800</v>
+      </c>
+      <c r="K15" s="3">
         <v>632900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>364300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2115000</v>
+        <v>2392300</v>
       </c>
       <c r="E17" s="3">
-        <v>1990200</v>
+        <v>2193800</v>
       </c>
       <c r="F17" s="3">
-        <v>2043500</v>
+        <v>2064400</v>
       </c>
       <c r="G17" s="3">
-        <v>1945800</v>
+        <v>2119600</v>
       </c>
       <c r="H17" s="3">
-        <v>1681600</v>
+        <v>2018300</v>
       </c>
       <c r="I17" s="3">
-        <v>1555200</v>
+        <v>1744300</v>
       </c>
       <c r="J17" s="3">
+        <v>1613100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2473900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2102200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>272400</v>
+        <v>159300</v>
       </c>
       <c r="E18" s="3">
-        <v>276400</v>
+        <v>282600</v>
       </c>
       <c r="F18" s="3">
-        <v>298000</v>
+        <v>286700</v>
       </c>
       <c r="G18" s="3">
-        <v>187300</v>
+        <v>309100</v>
       </c>
       <c r="H18" s="3">
-        <v>190700</v>
+        <v>194300</v>
       </c>
       <c r="I18" s="3">
-        <v>232900</v>
+        <v>197800</v>
       </c>
       <c r="J18" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-636900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>165000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7100</v>
+        <v>-8500</v>
       </c>
       <c r="E20" s="3">
-        <v>9000</v>
+        <v>7400</v>
       </c>
       <c r="F20" s="3">
-        <v>-2900</v>
+        <v>9400</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>-3000</v>
       </c>
       <c r="H20" s="3">
-        <v>-10300</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>-7400</v>
+        <v>-10700</v>
       </c>
       <c r="J20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K20" s="3">
         <v>40900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>614200</v>
+        <v>561400</v>
       </c>
       <c r="E21" s="3">
-        <v>606900</v>
+        <v>635200</v>
       </c>
       <c r="F21" s="3">
-        <v>620900</v>
+        <v>627700</v>
       </c>
       <c r="G21" s="3">
-        <v>511200</v>
+        <v>642200</v>
       </c>
       <c r="H21" s="3">
-        <v>497200</v>
+        <v>528500</v>
       </c>
       <c r="I21" s="3">
-        <v>567200</v>
+        <v>513900</v>
       </c>
       <c r="J21" s="3">
+        <v>586500</v>
+      </c>
+      <c r="K21" s="3">
         <v>456700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>526200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50600</v>
+        <v>93100</v>
       </c>
       <c r="E22" s="3">
-        <v>50500</v>
+        <v>52500</v>
       </c>
       <c r="F22" s="3">
-        <v>35300</v>
+        <v>52400</v>
       </c>
       <c r="G22" s="3">
-        <v>29800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>36600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>30900</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>37700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52400</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>229000</v>
+        <v>57700</v>
       </c>
       <c r="E23" s="3">
-        <v>234900</v>
+        <v>237500</v>
       </c>
       <c r="F23" s="3">
-        <v>259700</v>
+        <v>243700</v>
       </c>
       <c r="G23" s="3">
-        <v>163400</v>
+        <v>269400</v>
       </c>
       <c r="H23" s="3">
-        <v>180400</v>
+        <v>169500</v>
       </c>
       <c r="I23" s="3">
-        <v>225600</v>
+        <v>187100</v>
       </c>
       <c r="J23" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-633800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67200</v>
+        <v>21700</v>
       </c>
       <c r="E24" s="3">
-        <v>63600</v>
+        <v>69700</v>
       </c>
       <c r="F24" s="3">
-        <v>39500</v>
+        <v>66000</v>
       </c>
       <c r="G24" s="3">
-        <v>30700</v>
+        <v>41000</v>
       </c>
       <c r="H24" s="3">
-        <v>-1600</v>
+        <v>31900</v>
       </c>
       <c r="I24" s="3">
-        <v>20400</v>
+        <v>-1700</v>
       </c>
       <c r="J24" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K24" s="3">
         <v>25300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161800</v>
+        <v>36000</v>
       </c>
       <c r="E26" s="3">
-        <v>171300</v>
+        <v>167800</v>
       </c>
       <c r="F26" s="3">
-        <v>220300</v>
+        <v>177700</v>
       </c>
       <c r="G26" s="3">
-        <v>132600</v>
+        <v>228500</v>
       </c>
       <c r="H26" s="3">
-        <v>182000</v>
+        <v>137600</v>
       </c>
       <c r="I26" s="3">
-        <v>205200</v>
+        <v>188700</v>
       </c>
       <c r="J26" s="3">
+        <v>212800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-659100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159700</v>
+        <v>35700</v>
       </c>
       <c r="E27" s="3">
-        <v>166700</v>
+        <v>165700</v>
       </c>
       <c r="F27" s="3">
-        <v>217000</v>
+        <v>172900</v>
       </c>
       <c r="G27" s="3">
-        <v>126300</v>
+        <v>225100</v>
       </c>
       <c r="H27" s="3">
-        <v>176000</v>
+        <v>131000</v>
       </c>
       <c r="I27" s="3">
-        <v>198300</v>
+        <v>182500</v>
       </c>
       <c r="J27" s="3">
+        <v>205600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-666100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>21000</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>20200</v>
+        <v>21800</v>
       </c>
       <c r="J29" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-5900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-18400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7100</v>
+        <v>8500</v>
       </c>
       <c r="E32" s="3">
-        <v>-9000</v>
+        <v>-7400</v>
       </c>
       <c r="F32" s="3">
-        <v>2900</v>
+        <v>-9400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>3000</v>
       </c>
       <c r="H32" s="3">
-        <v>10300</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>7400</v>
+        <v>10700</v>
       </c>
       <c r="J32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-40900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159700</v>
+        <v>35700</v>
       </c>
       <c r="E33" s="3">
-        <v>166700</v>
+        <v>165700</v>
       </c>
       <c r="F33" s="3">
-        <v>217000</v>
+        <v>172900</v>
       </c>
       <c r="G33" s="3">
-        <v>126300</v>
+        <v>225100</v>
       </c>
       <c r="H33" s="3">
-        <v>196900</v>
+        <v>131000</v>
       </c>
       <c r="I33" s="3">
-        <v>218400</v>
+        <v>204300</v>
       </c>
       <c r="J33" s="3">
+        <v>226600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-672000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159700</v>
+        <v>35700</v>
       </c>
       <c r="E35" s="3">
-        <v>166700</v>
+        <v>165700</v>
       </c>
       <c r="F35" s="3">
-        <v>217000</v>
+        <v>172900</v>
       </c>
       <c r="G35" s="3">
-        <v>126300</v>
+        <v>225100</v>
       </c>
       <c r="H35" s="3">
-        <v>196900</v>
+        <v>131000</v>
       </c>
       <c r="I35" s="3">
-        <v>218400</v>
+        <v>204300</v>
       </c>
       <c r="J35" s="3">
+        <v>226600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-672000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74600</v>
+        <v>130900</v>
       </c>
       <c r="E41" s="3">
-        <v>85400</v>
+        <v>77500</v>
       </c>
       <c r="F41" s="3">
-        <v>138000</v>
+        <v>88800</v>
       </c>
       <c r="G41" s="3">
-        <v>23800</v>
+        <v>143500</v>
       </c>
       <c r="H41" s="3">
-        <v>9200</v>
+        <v>24800</v>
       </c>
       <c r="I41" s="3">
-        <v>11000</v>
+        <v>9600</v>
       </c>
       <c r="J41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K41" s="3">
         <v>13200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>118600</v>
+        <v>203900</v>
       </c>
       <c r="E42" s="3">
-        <v>155700</v>
+        <v>123400</v>
       </c>
       <c r="F42" s="3">
-        <v>180900</v>
+        <v>161900</v>
       </c>
       <c r="G42" s="3">
-        <v>121400</v>
+        <v>188100</v>
       </c>
       <c r="H42" s="3">
-        <v>198500</v>
+        <v>126300</v>
       </c>
       <c r="I42" s="3">
-        <v>94000</v>
+        <v>206400</v>
       </c>
       <c r="J42" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K42" s="3">
         <v>478900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>181600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>538200</v>
+        <v>509600</v>
       </c>
       <c r="E43" s="3">
-        <v>826700</v>
+        <v>559600</v>
       </c>
       <c r="F43" s="3">
-        <v>903400</v>
+        <v>859600</v>
       </c>
       <c r="G43" s="3">
-        <v>341200</v>
+        <v>939400</v>
       </c>
       <c r="H43" s="3">
-        <v>259300</v>
+        <v>354800</v>
       </c>
       <c r="I43" s="3">
-        <v>251200</v>
+        <v>269700</v>
       </c>
       <c r="J43" s="3">
+        <v>261200</v>
+      </c>
+      <c r="K43" s="3">
         <v>856200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>328900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>72200</v>
+        <v>67000</v>
       </c>
       <c r="E44" s="3">
-        <v>158300</v>
+        <v>75100</v>
       </c>
       <c r="F44" s="3">
-        <v>151200</v>
+        <v>164600</v>
       </c>
       <c r="G44" s="3">
-        <v>110700</v>
+        <v>157200</v>
       </c>
       <c r="H44" s="3">
-        <v>36400</v>
+        <v>115100</v>
       </c>
       <c r="I44" s="3">
-        <v>36800</v>
+        <v>37800</v>
       </c>
       <c r="J44" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K44" s="3">
         <v>86700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39200</v>
+        <v>55700</v>
       </c>
       <c r="E45" s="3">
-        <v>30000</v>
+        <v>40700</v>
       </c>
       <c r="F45" s="3">
-        <v>41300</v>
+        <v>31200</v>
       </c>
       <c r="G45" s="3">
-        <v>191600</v>
+        <v>43000</v>
       </c>
       <c r="H45" s="3">
-        <v>131000</v>
+        <v>199200</v>
       </c>
       <c r="I45" s="3">
-        <v>83900</v>
+        <v>136200</v>
       </c>
       <c r="J45" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K45" s="3">
         <v>153200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>842800</v>
+        <v>967200</v>
       </c>
       <c r="E46" s="3">
-        <v>785500</v>
+        <v>876300</v>
       </c>
       <c r="F46" s="3">
-        <v>771900</v>
+        <v>816800</v>
       </c>
       <c r="G46" s="3">
-        <v>733400</v>
+        <v>802600</v>
       </c>
       <c r="H46" s="3">
-        <v>634400</v>
+        <v>762600</v>
       </c>
       <c r="I46" s="3">
-        <v>476900</v>
+        <v>659600</v>
       </c>
       <c r="J46" s="3">
+        <v>495900</v>
+      </c>
+      <c r="K46" s="3">
         <v>639800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>699500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="E47" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="F47" s="3">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="G47" s="3">
-        <v>151300</v>
+        <v>40500</v>
       </c>
       <c r="H47" s="3">
-        <v>153900</v>
+        <v>157300</v>
       </c>
       <c r="I47" s="3">
-        <v>173000</v>
+        <v>160100</v>
       </c>
       <c r="J47" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K47" s="3">
         <v>164400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>174900</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1826300</v>
+        <v>2259200</v>
       </c>
       <c r="E48" s="3">
-        <v>3460600</v>
+        <v>1899000</v>
       </c>
       <c r="F48" s="3">
-        <v>3180100</v>
+        <v>3598400</v>
       </c>
       <c r="G48" s="3">
-        <v>1601900</v>
+        <v>3306700</v>
       </c>
       <c r="H48" s="3">
-        <v>1395500</v>
+        <v>1665700</v>
       </c>
       <c r="I48" s="3">
-        <v>1432300</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>1451100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1489300</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2478100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>257700</v>
+        <v>280900</v>
       </c>
       <c r="E49" s="3">
-        <v>512200</v>
+        <v>268000</v>
       </c>
       <c r="F49" s="3">
-        <v>538100</v>
+        <v>532600</v>
       </c>
       <c r="G49" s="3">
-        <v>251100</v>
+        <v>559500</v>
       </c>
       <c r="H49" s="3">
-        <v>170000</v>
+        <v>261100</v>
       </c>
       <c r="I49" s="3">
-        <v>161500</v>
+        <v>176800</v>
       </c>
       <c r="J49" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K49" s="3">
         <v>441400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>243700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67500</v>
+        <v>107900</v>
       </c>
       <c r="E52" s="3">
-        <v>75500</v>
+        <v>70200</v>
       </c>
       <c r="F52" s="3">
-        <v>61900</v>
+        <v>78500</v>
       </c>
       <c r="G52" s="3">
-        <v>73000</v>
+        <v>64300</v>
       </c>
       <c r="H52" s="3">
-        <v>93400</v>
+        <v>75900</v>
       </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>97200</v>
       </c>
       <c r="J52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K52" s="3">
         <v>5100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3018300</v>
+        <v>3639000</v>
       </c>
       <c r="E54" s="3">
-        <v>2869900</v>
+        <v>3138500</v>
       </c>
       <c r="F54" s="3">
-        <v>2730200</v>
+        <v>2984200</v>
       </c>
       <c r="G54" s="3">
-        <v>2654000</v>
+        <v>2838900</v>
       </c>
       <c r="H54" s="3">
-        <v>2393400</v>
+        <v>2759700</v>
       </c>
       <c r="I54" s="3">
-        <v>2246500</v>
+        <v>2488700</v>
       </c>
       <c r="J54" s="3">
+        <v>2335900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2370200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3603000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>416300</v>
+        <v>301400</v>
       </c>
       <c r="E57" s="3">
-        <v>389000</v>
+        <v>432900</v>
       </c>
       <c r="F57" s="3">
-        <v>646200</v>
+        <v>404500</v>
       </c>
       <c r="G57" s="3">
-        <v>406700</v>
+        <v>671900</v>
       </c>
       <c r="H57" s="3">
-        <v>321300</v>
+        <v>422900</v>
       </c>
       <c r="I57" s="3">
-        <v>291800</v>
+        <v>334000</v>
       </c>
       <c r="J57" s="3">
+        <v>303500</v>
+      </c>
+      <c r="K57" s="3">
         <v>265600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>194600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>307900</v>
+        <v>176000</v>
       </c>
       <c r="E58" s="3">
-        <v>129400</v>
+        <v>320200</v>
       </c>
       <c r="F58" s="3">
-        <v>180700</v>
+        <v>134500</v>
       </c>
       <c r="G58" s="3">
-        <v>40400</v>
+        <v>187900</v>
       </c>
       <c r="H58" s="3">
-        <v>92000</v>
+        <v>42000</v>
       </c>
       <c r="I58" s="3">
-        <v>18400</v>
+        <v>95600</v>
       </c>
       <c r="J58" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K58" s="3">
         <v>314600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>212800</v>
+        <v>538900</v>
       </c>
       <c r="E59" s="3">
-        <v>419600</v>
+        <v>221300</v>
       </c>
       <c r="F59" s="3">
-        <v>434400</v>
+        <v>436300</v>
       </c>
       <c r="G59" s="3">
-        <v>298800</v>
+        <v>451700</v>
       </c>
       <c r="H59" s="3">
-        <v>252000</v>
+        <v>310700</v>
       </c>
       <c r="I59" s="3">
-        <v>265700</v>
+        <v>262000</v>
       </c>
       <c r="J59" s="3">
+        <v>276200</v>
+      </c>
+      <c r="K59" s="3">
         <v>434200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>382300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>937000</v>
+        <v>1016300</v>
       </c>
       <c r="E60" s="3">
-        <v>736700</v>
+        <v>974300</v>
       </c>
       <c r="F60" s="3">
-        <v>744900</v>
+        <v>766000</v>
       </c>
       <c r="G60" s="3">
-        <v>745900</v>
+        <v>774600</v>
       </c>
       <c r="H60" s="3">
-        <v>654600</v>
+        <v>775600</v>
       </c>
       <c r="I60" s="3">
-        <v>575900</v>
+        <v>680700</v>
       </c>
       <c r="J60" s="3">
+        <v>598800</v>
+      </c>
+      <c r="K60" s="3">
         <v>748400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>665500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>275900</v>
+        <v>818800</v>
       </c>
       <c r="E61" s="3">
-        <v>408100</v>
+        <v>286900</v>
       </c>
       <c r="F61" s="3">
-        <v>269800</v>
+        <v>424300</v>
       </c>
       <c r="G61" s="3">
-        <v>260300</v>
+        <v>280600</v>
       </c>
       <c r="H61" s="3">
-        <v>184900</v>
+        <v>270700</v>
       </c>
       <c r="I61" s="3">
-        <v>215200</v>
+        <v>192300</v>
       </c>
       <c r="J61" s="3">
+        <v>223800</v>
+      </c>
+      <c r="K61" s="3">
         <v>222300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>404200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>108300</v>
+        <v>56600</v>
       </c>
       <c r="E62" s="3">
-        <v>177300</v>
+        <v>112600</v>
       </c>
       <c r="F62" s="3">
-        <v>128700</v>
+        <v>184400</v>
       </c>
       <c r="G62" s="3">
-        <v>144700</v>
+        <v>133900</v>
       </c>
       <c r="H62" s="3">
-        <v>115600</v>
+        <v>150500</v>
       </c>
       <c r="I62" s="3">
-        <v>135700</v>
+        <v>120200</v>
       </c>
       <c r="J62" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K62" s="3">
         <v>657500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>467500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1332400</v>
+        <v>1890000</v>
       </c>
       <c r="E66" s="3">
-        <v>1333100</v>
+        <v>1385400</v>
       </c>
       <c r="F66" s="3">
-        <v>1154700</v>
+        <v>1386200</v>
       </c>
       <c r="G66" s="3">
-        <v>1173200</v>
+        <v>1200700</v>
       </c>
       <c r="H66" s="3">
-        <v>975900</v>
+        <v>1219900</v>
       </c>
       <c r="I66" s="3">
-        <v>948300</v>
+        <v>1014800</v>
       </c>
       <c r="J66" s="3">
+        <v>986100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1355500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1566900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1398100</v>
+        <v>1449600</v>
       </c>
       <c r="E72" s="3">
-        <v>1248900</v>
+        <v>1453700</v>
       </c>
       <c r="F72" s="3">
-        <v>1278600</v>
+        <v>1298600</v>
       </c>
       <c r="G72" s="3">
-        <v>1183900</v>
+        <v>1329500</v>
       </c>
       <c r="H72" s="3">
-        <v>1120600</v>
+        <v>1231100</v>
       </c>
       <c r="I72" s="3">
-        <v>1045200</v>
+        <v>1165200</v>
       </c>
       <c r="J72" s="3">
+        <v>1086800</v>
+      </c>
+      <c r="K72" s="3">
         <v>885100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1732000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1686000</v>
+        <v>1749000</v>
       </c>
       <c r="E76" s="3">
-        <v>1536800</v>
+        <v>1753100</v>
       </c>
       <c r="F76" s="3">
-        <v>1575500</v>
+        <v>1598000</v>
       </c>
       <c r="G76" s="3">
-        <v>1480800</v>
+        <v>1638200</v>
       </c>
       <c r="H76" s="3">
-        <v>1417500</v>
+        <v>1539800</v>
       </c>
       <c r="I76" s="3">
-        <v>1298200</v>
+        <v>1473900</v>
       </c>
       <c r="J76" s="3">
+        <v>1349900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1014700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2036100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159700</v>
+        <v>35700</v>
       </c>
       <c r="E81" s="3">
-        <v>166700</v>
+        <v>165700</v>
       </c>
       <c r="F81" s="3">
-        <v>217000</v>
+        <v>172900</v>
       </c>
       <c r="G81" s="3">
-        <v>126300</v>
+        <v>225100</v>
       </c>
       <c r="H81" s="3">
-        <v>196900</v>
+        <v>131000</v>
       </c>
       <c r="I81" s="3">
-        <v>218400</v>
+        <v>204300</v>
       </c>
       <c r="J81" s="3">
+        <v>226600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-672000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332300</v>
+        <v>409900</v>
       </c>
       <c r="E83" s="3">
-        <v>319200</v>
+        <v>344700</v>
       </c>
       <c r="F83" s="3">
-        <v>323500</v>
+        <v>331100</v>
       </c>
       <c r="G83" s="3">
-        <v>315900</v>
+        <v>335600</v>
       </c>
       <c r="H83" s="3">
-        <v>314600</v>
+        <v>327600</v>
       </c>
       <c r="I83" s="3">
-        <v>339300</v>
+        <v>326300</v>
       </c>
       <c r="J83" s="3">
+        <v>351900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1045400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>420700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>326100</v>
+        <v>507600</v>
       </c>
       <c r="E89" s="3">
-        <v>345100</v>
+        <v>338300</v>
       </c>
       <c r="F89" s="3">
-        <v>316700</v>
+        <v>358000</v>
       </c>
       <c r="G89" s="3">
-        <v>383000</v>
+        <v>328500</v>
       </c>
       <c r="H89" s="3">
-        <v>359000</v>
+        <v>397200</v>
       </c>
       <c r="I89" s="3">
-        <v>363800</v>
+        <v>372300</v>
       </c>
       <c r="J89" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K89" s="3">
         <v>427000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>403800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433400</v>
+        <v>-457200</v>
       </c>
       <c r="E91" s="3">
-        <v>-443300</v>
+        <v>-449600</v>
       </c>
       <c r="F91" s="3">
-        <v>-484600</v>
+        <v>-459800</v>
       </c>
       <c r="G91" s="3">
-        <v>-336700</v>
+        <v>-502600</v>
       </c>
       <c r="H91" s="3">
-        <v>-289800</v>
+        <v>-349200</v>
       </c>
       <c r="I91" s="3">
-        <v>-364000</v>
+        <v>-300500</v>
       </c>
       <c r="J91" s="3">
+        <v>-377600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-321600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-320400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-429900</v>
+        <v>-353400</v>
       </c>
       <c r="E94" s="3">
-        <v>-378200</v>
+        <v>-445900</v>
       </c>
       <c r="F94" s="3">
-        <v>-379300</v>
+        <v>-392300</v>
       </c>
       <c r="G94" s="3">
-        <v>-469500</v>
+        <v>-393400</v>
       </c>
       <c r="H94" s="3">
-        <v>-295400</v>
+        <v>-487000</v>
       </c>
       <c r="I94" s="3">
-        <v>-247600</v>
+        <v>-306400</v>
       </c>
       <c r="J94" s="3">
+        <v>-256900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-315400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-336300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41000</v>
+        <v>41300</v>
       </c>
       <c r="E100" s="3">
-        <v>98900</v>
+        <v>42500</v>
       </c>
       <c r="F100" s="3">
-        <v>3900</v>
+        <v>102600</v>
       </c>
       <c r="G100" s="3">
-        <v>23500</v>
+        <v>4100</v>
       </c>
       <c r="H100" s="3">
-        <v>39100</v>
+        <v>24400</v>
       </c>
       <c r="I100" s="3">
-        <v>-147600</v>
+        <v>40600</v>
       </c>
       <c r="J100" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62800</v>
+        <v>195500</v>
       </c>
       <c r="E102" s="3">
-        <v>65900</v>
+        <v>-65100</v>
       </c>
       <c r="F102" s="3">
-        <v>-58500</v>
+        <v>68300</v>
       </c>
       <c r="G102" s="3">
-        <v>-62900</v>
+        <v>-60600</v>
       </c>
       <c r="H102" s="3">
-        <v>102900</v>
+        <v>-65200</v>
       </c>
       <c r="I102" s="3">
-        <v>-30900</v>
+        <v>106800</v>
       </c>
       <c r="J102" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K102" s="3">
         <v>69600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2551600</v>
+        <v>2821900</v>
       </c>
       <c r="E8" s="3">
-        <v>2476400</v>
+        <v>2738700</v>
       </c>
       <c r="F8" s="3">
-        <v>2351100</v>
+        <v>2600200</v>
       </c>
       <c r="G8" s="3">
-        <v>2428700</v>
+        <v>2686000</v>
       </c>
       <c r="H8" s="3">
-        <v>2212600</v>
+        <v>2447000</v>
       </c>
       <c r="I8" s="3">
-        <v>1942000</v>
+        <v>2147700</v>
       </c>
       <c r="J8" s="3">
-        <v>1854800</v>
+        <v>2051200</v>
       </c>
       <c r="K8" s="3">
         <v>1837000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>551800</v>
+        <v>610200</v>
       </c>
       <c r="E9" s="3">
-        <v>482800</v>
+        <v>534000</v>
       </c>
       <c r="F9" s="3">
-        <v>786800</v>
+        <v>870200</v>
       </c>
       <c r="G9" s="3">
-        <v>540400</v>
+        <v>597600</v>
       </c>
       <c r="H9" s="3">
-        <v>462600</v>
+        <v>511600</v>
       </c>
       <c r="I9" s="3">
-        <v>366300</v>
+        <v>405100</v>
       </c>
       <c r="J9" s="3">
-        <v>362900</v>
+        <v>401300</v>
       </c>
       <c r="K9" s="3">
         <v>343400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1999800</v>
+        <v>2211700</v>
       </c>
       <c r="E10" s="3">
-        <v>1993500</v>
+        <v>2204700</v>
       </c>
       <c r="F10" s="3">
-        <v>1564300</v>
+        <v>1730000</v>
       </c>
       <c r="G10" s="3">
-        <v>1888300</v>
+        <v>2088300</v>
       </c>
       <c r="H10" s="3">
-        <v>1750000</v>
+        <v>1935400</v>
       </c>
       <c r="I10" s="3">
-        <v>1575700</v>
+        <v>1742700</v>
       </c>
       <c r="J10" s="3">
-        <v>1491900</v>
+        <v>1649900</v>
       </c>
       <c r="K10" s="3">
         <v>1493600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24500</v>
+        <v>27100</v>
       </c>
       <c r="E14" s="3">
-        <v>16000</v>
+        <v>17700</v>
       </c>
       <c r="F14" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>8500</v>
+        <v>9400</v>
       </c>
       <c r="H14" s="3">
-        <v>10100</v>
+        <v>11100</v>
       </c>
       <c r="I14" s="3">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="J14" s="3">
-        <v>37500</v>
+        <v>41400</v>
       </c>
       <c r="K14" s="3">
         <v>703500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>385400</v>
+        <v>426200</v>
       </c>
       <c r="E15" s="3">
-        <v>328600</v>
+        <v>363500</v>
       </c>
       <c r="F15" s="3">
-        <v>328300</v>
+        <v>363100</v>
       </c>
       <c r="G15" s="3">
-        <v>327100</v>
+        <v>361800</v>
       </c>
       <c r="H15" s="3">
-        <v>315800</v>
+        <v>349300</v>
       </c>
       <c r="I15" s="3">
-        <v>313300</v>
+        <v>346500</v>
       </c>
       <c r="J15" s="3">
-        <v>311800</v>
+        <v>344800</v>
       </c>
       <c r="K15" s="3">
         <v>632900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2392300</v>
+        <v>2645700</v>
       </c>
       <c r="E17" s="3">
-        <v>2193800</v>
+        <v>2426200</v>
       </c>
       <c r="F17" s="3">
-        <v>2064400</v>
+        <v>2283100</v>
       </c>
       <c r="G17" s="3">
-        <v>2119600</v>
+        <v>2344200</v>
       </c>
       <c r="H17" s="3">
-        <v>2018300</v>
+        <v>2232100</v>
       </c>
       <c r="I17" s="3">
-        <v>1744300</v>
+        <v>1929000</v>
       </c>
       <c r="J17" s="3">
-        <v>1613100</v>
+        <v>1784000</v>
       </c>
       <c r="K17" s="3">
         <v>2473900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>159300</v>
+        <v>176200</v>
       </c>
       <c r="E18" s="3">
-        <v>282600</v>
+        <v>312500</v>
       </c>
       <c r="F18" s="3">
-        <v>286700</v>
+        <v>317100</v>
       </c>
       <c r="G18" s="3">
-        <v>309100</v>
+        <v>341800</v>
       </c>
       <c r="H18" s="3">
-        <v>194300</v>
+        <v>214900</v>
       </c>
       <c r="I18" s="3">
-        <v>197800</v>
+        <v>218700</v>
       </c>
       <c r="J18" s="3">
-        <v>241600</v>
+        <v>267200</v>
       </c>
       <c r="K18" s="3">
         <v>-636900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-8500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-7600</v>
       </c>
       <c r="K20" s="3">
         <v>40900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>561400</v>
+        <v>622400</v>
       </c>
       <c r="E21" s="3">
-        <v>635200</v>
+        <v>703800</v>
       </c>
       <c r="F21" s="3">
-        <v>627700</v>
+        <v>695500</v>
       </c>
       <c r="G21" s="3">
-        <v>642200</v>
+        <v>711500</v>
       </c>
       <c r="H21" s="3">
-        <v>528500</v>
+        <v>585800</v>
       </c>
       <c r="I21" s="3">
-        <v>513900</v>
+        <v>569600</v>
       </c>
       <c r="J21" s="3">
-        <v>586500</v>
+        <v>650000</v>
       </c>
       <c r="K21" s="3">
         <v>456700</v>
@@ -1122,19 +1122,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>93100</v>
+        <v>102900</v>
       </c>
       <c r="E22" s="3">
-        <v>52500</v>
+        <v>58000</v>
       </c>
       <c r="F22" s="3">
-        <v>52400</v>
+        <v>58000</v>
       </c>
       <c r="G22" s="3">
-        <v>36600</v>
+        <v>40500</v>
       </c>
       <c r="H22" s="3">
-        <v>30900</v>
+        <v>34200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>57700</v>
+        <v>63900</v>
       </c>
       <c r="E23" s="3">
-        <v>237500</v>
+        <v>262700</v>
       </c>
       <c r="F23" s="3">
-        <v>243700</v>
+        <v>269500</v>
       </c>
       <c r="G23" s="3">
-        <v>269400</v>
+        <v>298000</v>
       </c>
       <c r="H23" s="3">
-        <v>169500</v>
+        <v>187400</v>
       </c>
       <c r="I23" s="3">
-        <v>187100</v>
+        <v>206900</v>
       </c>
       <c r="J23" s="3">
-        <v>234000</v>
+        <v>258800</v>
       </c>
       <c r="K23" s="3">
         <v>-633800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21700</v>
+        <v>24000</v>
       </c>
       <c r="E24" s="3">
-        <v>69700</v>
+        <v>77100</v>
       </c>
       <c r="F24" s="3">
-        <v>66000</v>
+        <v>73000</v>
       </c>
       <c r="G24" s="3">
-        <v>41000</v>
+        <v>45300</v>
       </c>
       <c r="H24" s="3">
-        <v>31900</v>
+        <v>35300</v>
       </c>
       <c r="I24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="J24" s="3">
-        <v>21200</v>
+        <v>23400</v>
       </c>
       <c r="K24" s="3">
         <v>25300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>36000</v>
+        <v>39900</v>
       </c>
       <c r="E26" s="3">
-        <v>167800</v>
+        <v>185600</v>
       </c>
       <c r="F26" s="3">
-        <v>177700</v>
+        <v>196500</v>
       </c>
       <c r="G26" s="3">
-        <v>228500</v>
+        <v>252700</v>
       </c>
       <c r="H26" s="3">
-        <v>137600</v>
+        <v>152200</v>
       </c>
       <c r="I26" s="3">
-        <v>188700</v>
+        <v>208700</v>
       </c>
       <c r="J26" s="3">
-        <v>212800</v>
+        <v>235400</v>
       </c>
       <c r="K26" s="3">
         <v>-659100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35700</v>
+        <v>39500</v>
       </c>
       <c r="E27" s="3">
-        <v>165700</v>
+        <v>183200</v>
       </c>
       <c r="F27" s="3">
-        <v>172900</v>
+        <v>191200</v>
       </c>
       <c r="G27" s="3">
-        <v>225100</v>
+        <v>248900</v>
       </c>
       <c r="H27" s="3">
-        <v>131000</v>
+        <v>144900</v>
       </c>
       <c r="I27" s="3">
-        <v>182500</v>
+        <v>201900</v>
       </c>
       <c r="J27" s="3">
-        <v>205600</v>
+        <v>227400</v>
       </c>
       <c r="K27" s="3">
         <v>-666100</v>
@@ -1368,10 +1368,10 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>21800</v>
+        <v>24100</v>
       </c>
       <c r="J29" s="3">
-        <v>20900</v>
+        <v>23100</v>
       </c>
       <c r="K29" s="3">
         <v>-5900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J32" s="3">
         <v>8500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>7600</v>
       </c>
       <c r="K32" s="3">
         <v>-40900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35700</v>
+        <v>39500</v>
       </c>
       <c r="E33" s="3">
-        <v>165700</v>
+        <v>183200</v>
       </c>
       <c r="F33" s="3">
-        <v>172900</v>
+        <v>191200</v>
       </c>
       <c r="G33" s="3">
-        <v>225100</v>
+        <v>248900</v>
       </c>
       <c r="H33" s="3">
-        <v>131000</v>
+        <v>144900</v>
       </c>
       <c r="I33" s="3">
-        <v>204300</v>
+        <v>225900</v>
       </c>
       <c r="J33" s="3">
-        <v>226600</v>
+        <v>250600</v>
       </c>
       <c r="K33" s="3">
         <v>-672000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35700</v>
+        <v>39500</v>
       </c>
       <c r="E35" s="3">
-        <v>165700</v>
+        <v>183200</v>
       </c>
       <c r="F35" s="3">
-        <v>172900</v>
+        <v>191200</v>
       </c>
       <c r="G35" s="3">
-        <v>225100</v>
+        <v>248900</v>
       </c>
       <c r="H35" s="3">
-        <v>131000</v>
+        <v>144900</v>
       </c>
       <c r="I35" s="3">
-        <v>204300</v>
+        <v>225900</v>
       </c>
       <c r="J35" s="3">
-        <v>226600</v>
+        <v>250600</v>
       </c>
       <c r="K35" s="3">
         <v>-672000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130900</v>
+        <v>144800</v>
       </c>
       <c r="E41" s="3">
-        <v>77500</v>
+        <v>85800</v>
       </c>
       <c r="F41" s="3">
-        <v>88800</v>
+        <v>98200</v>
       </c>
       <c r="G41" s="3">
-        <v>143500</v>
+        <v>158700</v>
       </c>
       <c r="H41" s="3">
-        <v>24800</v>
+        <v>27400</v>
       </c>
       <c r="I41" s="3">
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="J41" s="3">
-        <v>11400</v>
+        <v>12700</v>
       </c>
       <c r="K41" s="3">
         <v>13200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>203900</v>
+        <v>225500</v>
       </c>
       <c r="E42" s="3">
-        <v>123400</v>
+        <v>136400</v>
       </c>
       <c r="F42" s="3">
-        <v>161900</v>
+        <v>179000</v>
       </c>
       <c r="G42" s="3">
-        <v>188100</v>
+        <v>208000</v>
       </c>
       <c r="H42" s="3">
-        <v>126300</v>
+        <v>139600</v>
       </c>
       <c r="I42" s="3">
-        <v>206400</v>
+        <v>228200</v>
       </c>
       <c r="J42" s="3">
-        <v>97800</v>
+        <v>108100</v>
       </c>
       <c r="K42" s="3">
         <v>478900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>509600</v>
+        <v>563600</v>
       </c>
       <c r="E43" s="3">
-        <v>559600</v>
+        <v>618900</v>
       </c>
       <c r="F43" s="3">
-        <v>859600</v>
+        <v>950700</v>
       </c>
       <c r="G43" s="3">
-        <v>939400</v>
+        <v>1038900</v>
       </c>
       <c r="H43" s="3">
-        <v>354800</v>
+        <v>392400</v>
       </c>
       <c r="I43" s="3">
-        <v>269700</v>
+        <v>298200</v>
       </c>
       <c r="J43" s="3">
-        <v>261200</v>
+        <v>288900</v>
       </c>
       <c r="K43" s="3">
         <v>856200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67000</v>
+        <v>74100</v>
       </c>
       <c r="E44" s="3">
-        <v>75100</v>
+        <v>83100</v>
       </c>
       <c r="F44" s="3">
-        <v>164600</v>
+        <v>182000</v>
       </c>
       <c r="G44" s="3">
-        <v>157200</v>
+        <v>173900</v>
       </c>
       <c r="H44" s="3">
-        <v>115100</v>
+        <v>127300</v>
       </c>
       <c r="I44" s="3">
-        <v>37800</v>
+        <v>41800</v>
       </c>
       <c r="J44" s="3">
-        <v>38300</v>
+        <v>42400</v>
       </c>
       <c r="K44" s="3">
         <v>86700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55700</v>
+        <v>61600</v>
       </c>
       <c r="E45" s="3">
-        <v>40700</v>
+        <v>45000</v>
       </c>
       <c r="F45" s="3">
-        <v>31200</v>
+        <v>34600</v>
       </c>
       <c r="G45" s="3">
-        <v>43000</v>
+        <v>47500</v>
       </c>
       <c r="H45" s="3">
-        <v>199200</v>
+        <v>220300</v>
       </c>
       <c r="I45" s="3">
-        <v>136200</v>
+        <v>150600</v>
       </c>
       <c r="J45" s="3">
-        <v>87200</v>
+        <v>96400</v>
       </c>
       <c r="K45" s="3">
         <v>153200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>967200</v>
+        <v>1069600</v>
       </c>
       <c r="E46" s="3">
-        <v>876300</v>
+        <v>969200</v>
       </c>
       <c r="F46" s="3">
-        <v>816800</v>
+        <v>903300</v>
       </c>
       <c r="G46" s="3">
-        <v>802600</v>
+        <v>887600</v>
       </c>
       <c r="H46" s="3">
-        <v>762600</v>
+        <v>843400</v>
       </c>
       <c r="I46" s="3">
-        <v>659600</v>
+        <v>729500</v>
       </c>
       <c r="J46" s="3">
-        <v>495900</v>
+        <v>548500</v>
       </c>
       <c r="K46" s="3">
         <v>639800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23800</v>
+        <v>26400</v>
       </c>
       <c r="E47" s="3">
-        <v>25000</v>
+        <v>27600</v>
       </c>
       <c r="F47" s="3">
-        <v>25000</v>
+        <v>27700</v>
       </c>
       <c r="G47" s="3">
-        <v>40500</v>
+        <v>44800</v>
       </c>
       <c r="H47" s="3">
-        <v>157300</v>
+        <v>174000</v>
       </c>
       <c r="I47" s="3">
-        <v>160100</v>
+        <v>177000</v>
       </c>
       <c r="J47" s="3">
-        <v>179900</v>
+        <v>199000</v>
       </c>
       <c r="K47" s="3">
         <v>164400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2259200</v>
+        <v>2498500</v>
       </c>
       <c r="E48" s="3">
-        <v>1899000</v>
+        <v>2100200</v>
       </c>
       <c r="F48" s="3">
-        <v>3598400</v>
+        <v>3979600</v>
       </c>
       <c r="G48" s="3">
-        <v>3306700</v>
+        <v>3657000</v>
       </c>
       <c r="H48" s="3">
-        <v>1665700</v>
+        <v>1842200</v>
       </c>
       <c r="I48" s="3">
-        <v>1451100</v>
+        <v>1604800</v>
       </c>
       <c r="J48" s="3">
-        <v>1489300</v>
+        <v>1647100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>280900</v>
+        <v>310700</v>
       </c>
       <c r="E49" s="3">
-        <v>268000</v>
+        <v>296400</v>
       </c>
       <c r="F49" s="3">
-        <v>532600</v>
+        <v>589000</v>
       </c>
       <c r="G49" s="3">
-        <v>559500</v>
+        <v>618800</v>
       </c>
       <c r="H49" s="3">
-        <v>261100</v>
+        <v>288800</v>
       </c>
       <c r="I49" s="3">
-        <v>176800</v>
+        <v>195500</v>
       </c>
       <c r="J49" s="3">
-        <v>167900</v>
+        <v>185700</v>
       </c>
       <c r="K49" s="3">
         <v>441400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107900</v>
+        <v>119300</v>
       </c>
       <c r="E52" s="3">
-        <v>70200</v>
+        <v>77600</v>
       </c>
       <c r="F52" s="3">
-        <v>78500</v>
+        <v>86900</v>
       </c>
       <c r="G52" s="3">
-        <v>64300</v>
+        <v>71100</v>
       </c>
       <c r="H52" s="3">
-        <v>75900</v>
+        <v>83900</v>
       </c>
       <c r="I52" s="3">
-        <v>97200</v>
+        <v>107500</v>
       </c>
       <c r="J52" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K52" s="3">
         <v>5100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3639000</v>
+        <v>4024500</v>
       </c>
       <c r="E54" s="3">
-        <v>3138500</v>
+        <v>3471000</v>
       </c>
       <c r="F54" s="3">
-        <v>2984200</v>
+        <v>3300400</v>
       </c>
       <c r="G54" s="3">
-        <v>2838900</v>
+        <v>3139700</v>
       </c>
       <c r="H54" s="3">
-        <v>2759700</v>
+        <v>3052000</v>
       </c>
       <c r="I54" s="3">
-        <v>2488700</v>
+        <v>2752300</v>
       </c>
       <c r="J54" s="3">
-        <v>2335900</v>
+        <v>2583400</v>
       </c>
       <c r="K54" s="3">
         <v>2370200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>301400</v>
+        <v>333300</v>
       </c>
       <c r="E57" s="3">
-        <v>432900</v>
+        <v>478700</v>
       </c>
       <c r="F57" s="3">
-        <v>404500</v>
+        <v>447400</v>
       </c>
       <c r="G57" s="3">
-        <v>671900</v>
+        <v>743100</v>
       </c>
       <c r="H57" s="3">
-        <v>422900</v>
+        <v>467700</v>
       </c>
       <c r="I57" s="3">
-        <v>334000</v>
+        <v>369400</v>
       </c>
       <c r="J57" s="3">
-        <v>303500</v>
+        <v>335600</v>
       </c>
       <c r="K57" s="3">
         <v>265600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>176000</v>
+        <v>194600</v>
       </c>
       <c r="E58" s="3">
-        <v>320200</v>
+        <v>354100</v>
       </c>
       <c r="F58" s="3">
-        <v>134500</v>
+        <v>148800</v>
       </c>
       <c r="G58" s="3">
-        <v>187900</v>
+        <v>207800</v>
       </c>
       <c r="H58" s="3">
-        <v>42000</v>
+        <v>46500</v>
       </c>
       <c r="I58" s="3">
-        <v>95600</v>
+        <v>105700</v>
       </c>
       <c r="J58" s="3">
-        <v>19100</v>
+        <v>21100</v>
       </c>
       <c r="K58" s="3">
         <v>314600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>538900</v>
+        <v>596000</v>
       </c>
       <c r="E59" s="3">
-        <v>221300</v>
+        <v>244700</v>
       </c>
       <c r="F59" s="3">
-        <v>436300</v>
+        <v>482500</v>
       </c>
       <c r="G59" s="3">
-        <v>451700</v>
+        <v>499600</v>
       </c>
       <c r="H59" s="3">
-        <v>310700</v>
+        <v>343600</v>
       </c>
       <c r="I59" s="3">
-        <v>262000</v>
+        <v>289800</v>
       </c>
       <c r="J59" s="3">
-        <v>276200</v>
+        <v>305500</v>
       </c>
       <c r="K59" s="3">
         <v>434200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1016300</v>
+        <v>1124000</v>
       </c>
       <c r="E60" s="3">
-        <v>974300</v>
+        <v>1077500</v>
       </c>
       <c r="F60" s="3">
-        <v>766000</v>
+        <v>847200</v>
       </c>
       <c r="G60" s="3">
-        <v>774600</v>
+        <v>856700</v>
       </c>
       <c r="H60" s="3">
-        <v>775600</v>
+        <v>857800</v>
       </c>
       <c r="I60" s="3">
-        <v>680700</v>
+        <v>752800</v>
       </c>
       <c r="J60" s="3">
-        <v>598800</v>
+        <v>662200</v>
       </c>
       <c r="K60" s="3">
         <v>748400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>818800</v>
+        <v>905600</v>
       </c>
       <c r="E61" s="3">
-        <v>286900</v>
+        <v>317300</v>
       </c>
       <c r="F61" s="3">
-        <v>424300</v>
+        <v>469300</v>
       </c>
       <c r="G61" s="3">
-        <v>280600</v>
+        <v>310300</v>
       </c>
       <c r="H61" s="3">
-        <v>270700</v>
+        <v>299300</v>
       </c>
       <c r="I61" s="3">
-        <v>192300</v>
+        <v>212700</v>
       </c>
       <c r="J61" s="3">
-        <v>223800</v>
+        <v>247500</v>
       </c>
       <c r="K61" s="3">
         <v>222300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56600</v>
+        <v>62500</v>
       </c>
       <c r="E62" s="3">
-        <v>112600</v>
+        <v>124600</v>
       </c>
       <c r="F62" s="3">
-        <v>184400</v>
+        <v>203900</v>
       </c>
       <c r="G62" s="3">
-        <v>133900</v>
+        <v>148000</v>
       </c>
       <c r="H62" s="3">
-        <v>150500</v>
+        <v>166400</v>
       </c>
       <c r="I62" s="3">
-        <v>120200</v>
+        <v>133000</v>
       </c>
       <c r="J62" s="3">
-        <v>141100</v>
+        <v>156100</v>
       </c>
       <c r="K62" s="3">
         <v>657500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1890000</v>
+        <v>2090200</v>
       </c>
       <c r="E66" s="3">
-        <v>1385400</v>
+        <v>1532200</v>
       </c>
       <c r="F66" s="3">
-        <v>1386200</v>
+        <v>1533100</v>
       </c>
       <c r="G66" s="3">
-        <v>1200700</v>
+        <v>1327900</v>
       </c>
       <c r="H66" s="3">
-        <v>1219900</v>
+        <v>1349100</v>
       </c>
       <c r="I66" s="3">
-        <v>1014800</v>
+        <v>1122300</v>
       </c>
       <c r="J66" s="3">
-        <v>986100</v>
+        <v>1090500</v>
       </c>
       <c r="K66" s="3">
         <v>1355500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1449600</v>
+        <v>1603200</v>
       </c>
       <c r="E72" s="3">
-        <v>1453700</v>
+        <v>1607700</v>
       </c>
       <c r="F72" s="3">
-        <v>1298600</v>
+        <v>1436200</v>
       </c>
       <c r="G72" s="3">
-        <v>1329500</v>
+        <v>1470300</v>
       </c>
       <c r="H72" s="3">
-        <v>1231100</v>
+        <v>1361500</v>
       </c>
       <c r="I72" s="3">
-        <v>1165200</v>
+        <v>1288600</v>
       </c>
       <c r="J72" s="3">
-        <v>1086800</v>
+        <v>1202000</v>
       </c>
       <c r="K72" s="3">
         <v>885100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1749000</v>
+        <v>1934300</v>
       </c>
       <c r="E76" s="3">
-        <v>1753100</v>
+        <v>1938800</v>
       </c>
       <c r="F76" s="3">
-        <v>1598000</v>
+        <v>1767300</v>
       </c>
       <c r="G76" s="3">
-        <v>1638200</v>
+        <v>1811800</v>
       </c>
       <c r="H76" s="3">
-        <v>1539800</v>
+        <v>1702900</v>
       </c>
       <c r="I76" s="3">
-        <v>1473900</v>
+        <v>1630100</v>
       </c>
       <c r="J76" s="3">
-        <v>1349900</v>
+        <v>1492900</v>
       </c>
       <c r="K76" s="3">
         <v>1014700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35700</v>
+        <v>39500</v>
       </c>
       <c r="E81" s="3">
-        <v>165700</v>
+        <v>183200</v>
       </c>
       <c r="F81" s="3">
-        <v>172900</v>
+        <v>191200</v>
       </c>
       <c r="G81" s="3">
-        <v>225100</v>
+        <v>248900</v>
       </c>
       <c r="H81" s="3">
-        <v>131000</v>
+        <v>144900</v>
       </c>
       <c r="I81" s="3">
-        <v>204300</v>
+        <v>225900</v>
       </c>
       <c r="J81" s="3">
-        <v>226600</v>
+        <v>250600</v>
       </c>
       <c r="K81" s="3">
         <v>-672000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>409900</v>
+        <v>453300</v>
       </c>
       <c r="E83" s="3">
-        <v>344700</v>
+        <v>381200</v>
       </c>
       <c r="F83" s="3">
-        <v>331100</v>
+        <v>366200</v>
       </c>
       <c r="G83" s="3">
-        <v>335600</v>
+        <v>371100</v>
       </c>
       <c r="H83" s="3">
-        <v>327600</v>
+        <v>362400</v>
       </c>
       <c r="I83" s="3">
-        <v>326300</v>
+        <v>360900</v>
       </c>
       <c r="J83" s="3">
-        <v>351900</v>
+        <v>389200</v>
       </c>
       <c r="K83" s="3">
         <v>1045400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>507600</v>
+        <v>561400</v>
       </c>
       <c r="E89" s="3">
-        <v>338300</v>
+        <v>374100</v>
       </c>
       <c r="F89" s="3">
-        <v>358000</v>
+        <v>395900</v>
       </c>
       <c r="G89" s="3">
-        <v>328500</v>
+        <v>363300</v>
       </c>
       <c r="H89" s="3">
-        <v>397200</v>
+        <v>439300</v>
       </c>
       <c r="I89" s="3">
-        <v>372300</v>
+        <v>411800</v>
       </c>
       <c r="J89" s="3">
-        <v>377400</v>
+        <v>417400</v>
       </c>
       <c r="K89" s="3">
         <v>427000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-457200</v>
+        <v>-505600</v>
       </c>
       <c r="E91" s="3">
-        <v>-449600</v>
+        <v>-497200</v>
       </c>
       <c r="F91" s="3">
-        <v>-459800</v>
+        <v>-508500</v>
       </c>
       <c r="G91" s="3">
-        <v>-502600</v>
+        <v>-555900</v>
       </c>
       <c r="H91" s="3">
-        <v>-349200</v>
+        <v>-386200</v>
       </c>
       <c r="I91" s="3">
-        <v>-300500</v>
+        <v>-332400</v>
       </c>
       <c r="J91" s="3">
-        <v>-377600</v>
+        <v>-417600</v>
       </c>
       <c r="K91" s="3">
         <v>-321600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-353400</v>
+        <v>-390800</v>
       </c>
       <c r="E94" s="3">
-        <v>-445900</v>
+        <v>-493100</v>
       </c>
       <c r="F94" s="3">
-        <v>-392300</v>
+        <v>-433800</v>
       </c>
       <c r="G94" s="3">
-        <v>-393400</v>
+        <v>-435100</v>
       </c>
       <c r="H94" s="3">
-        <v>-487000</v>
+        <v>-538600</v>
       </c>
       <c r="I94" s="3">
-        <v>-306400</v>
+        <v>-338800</v>
       </c>
       <c r="J94" s="3">
-        <v>-256900</v>
+        <v>-284100</v>
       </c>
       <c r="K94" s="3">
         <v>-315400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41300</v>
+        <v>45600</v>
       </c>
       <c r="E100" s="3">
-        <v>42500</v>
+        <v>47000</v>
       </c>
       <c r="F100" s="3">
-        <v>102600</v>
+        <v>113500</v>
       </c>
       <c r="G100" s="3">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="H100" s="3">
-        <v>24400</v>
+        <v>27000</v>
       </c>
       <c r="I100" s="3">
-        <v>40600</v>
+        <v>44900</v>
       </c>
       <c r="J100" s="3">
-        <v>-153100</v>
+        <v>-169300</v>
       </c>
       <c r="K100" s="3">
         <v>-41800</v>
@@ -3481,7 +3481,7 @@
         <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>195500</v>
+        <v>216200</v>
       </c>
       <c r="E102" s="3">
-        <v>-65100</v>
+        <v>-72100</v>
       </c>
       <c r="F102" s="3">
-        <v>68300</v>
+        <v>75600</v>
       </c>
       <c r="G102" s="3">
-        <v>-60600</v>
+        <v>-67100</v>
       </c>
       <c r="H102" s="3">
-        <v>-65200</v>
+        <v>-72100</v>
       </c>
       <c r="I102" s="3">
-        <v>106800</v>
+        <v>118100</v>
       </c>
       <c r="J102" s="3">
-        <v>-32000</v>
+        <v>-35400</v>
       </c>
       <c r="K102" s="3">
         <v>69600</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2821900</v>
+        <v>2865800</v>
       </c>
       <c r="E8" s="3">
-        <v>2738700</v>
+        <v>2781300</v>
       </c>
       <c r="F8" s="3">
-        <v>2600200</v>
+        <v>2640600</v>
       </c>
       <c r="G8" s="3">
-        <v>2686000</v>
+        <v>2727800</v>
       </c>
       <c r="H8" s="3">
-        <v>2447000</v>
+        <v>2485100</v>
       </c>
       <c r="I8" s="3">
-        <v>2147700</v>
+        <v>2181200</v>
       </c>
       <c r="J8" s="3">
-        <v>2051200</v>
+        <v>2083200</v>
       </c>
       <c r="K8" s="3">
         <v>1837000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>610200</v>
+        <v>619700</v>
       </c>
       <c r="E9" s="3">
-        <v>534000</v>
+        <v>542300</v>
       </c>
       <c r="F9" s="3">
-        <v>870200</v>
+        <v>883700</v>
       </c>
       <c r="G9" s="3">
-        <v>597600</v>
+        <v>606900</v>
       </c>
       <c r="H9" s="3">
-        <v>511600</v>
+        <v>519600</v>
       </c>
       <c r="I9" s="3">
-        <v>405100</v>
+        <v>411400</v>
       </c>
       <c r="J9" s="3">
-        <v>401300</v>
+        <v>407500</v>
       </c>
       <c r="K9" s="3">
         <v>343400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2211700</v>
+        <v>2246100</v>
       </c>
       <c r="E10" s="3">
-        <v>2204700</v>
+        <v>2239000</v>
       </c>
       <c r="F10" s="3">
-        <v>1730000</v>
+        <v>1756900</v>
       </c>
       <c r="G10" s="3">
-        <v>2088300</v>
+        <v>2120800</v>
       </c>
       <c r="H10" s="3">
-        <v>1935400</v>
+        <v>1965500</v>
       </c>
       <c r="I10" s="3">
-        <v>1742700</v>
+        <v>1769800</v>
       </c>
       <c r="J10" s="3">
-        <v>1649900</v>
+        <v>1675600</v>
       </c>
       <c r="K10" s="3">
         <v>1493600</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="E14" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="F14" s="3">
         <v>3100</v>
       </c>
       <c r="G14" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H14" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="I14" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="J14" s="3">
-        <v>41400</v>
+        <v>42100</v>
       </c>
       <c r="K14" s="3">
         <v>703500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>426200</v>
+        <v>432800</v>
       </c>
       <c r="E15" s="3">
-        <v>363500</v>
+        <v>369100</v>
       </c>
       <c r="F15" s="3">
-        <v>363100</v>
+        <v>368700</v>
       </c>
       <c r="G15" s="3">
-        <v>361800</v>
+        <v>367400</v>
       </c>
       <c r="H15" s="3">
-        <v>349300</v>
+        <v>354700</v>
       </c>
       <c r="I15" s="3">
-        <v>346500</v>
+        <v>351900</v>
       </c>
       <c r="J15" s="3">
-        <v>344800</v>
+        <v>350100</v>
       </c>
       <c r="K15" s="3">
         <v>632900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2645700</v>
+        <v>2686900</v>
       </c>
       <c r="E17" s="3">
-        <v>2426200</v>
+        <v>2463900</v>
       </c>
       <c r="F17" s="3">
-        <v>2283100</v>
+        <v>2318600</v>
       </c>
       <c r="G17" s="3">
-        <v>2344200</v>
+        <v>2380600</v>
       </c>
       <c r="H17" s="3">
-        <v>2232100</v>
+        <v>2266800</v>
       </c>
       <c r="I17" s="3">
-        <v>1929000</v>
+        <v>1959000</v>
       </c>
       <c r="J17" s="3">
-        <v>1784000</v>
+        <v>1811800</v>
       </c>
       <c r="K17" s="3">
         <v>2473900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>176200</v>
+        <v>178900</v>
       </c>
       <c r="E18" s="3">
-        <v>312500</v>
+        <v>317400</v>
       </c>
       <c r="F18" s="3">
-        <v>317100</v>
+        <v>322000</v>
       </c>
       <c r="G18" s="3">
-        <v>341800</v>
+        <v>347100</v>
       </c>
       <c r="H18" s="3">
-        <v>214900</v>
+        <v>218200</v>
       </c>
       <c r="I18" s="3">
-        <v>218700</v>
+        <v>222100</v>
       </c>
       <c r="J18" s="3">
-        <v>267200</v>
+        <v>271400</v>
       </c>
       <c r="K18" s="3">
         <v>-636900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H20" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J20" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="K20" s="3">
         <v>40900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>622400</v>
+        <v>631300</v>
       </c>
       <c r="E21" s="3">
-        <v>703800</v>
+        <v>714100</v>
       </c>
       <c r="F21" s="3">
-        <v>695500</v>
+        <v>705600</v>
       </c>
       <c r="G21" s="3">
-        <v>711500</v>
+        <v>721900</v>
       </c>
       <c r="H21" s="3">
-        <v>585800</v>
+        <v>594200</v>
       </c>
       <c r="I21" s="3">
-        <v>569600</v>
+        <v>577900</v>
       </c>
       <c r="J21" s="3">
-        <v>650000</v>
+        <v>659400</v>
       </c>
       <c r="K21" s="3">
         <v>456700</v>
@@ -1122,19 +1122,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102900</v>
+        <v>104500</v>
       </c>
       <c r="E22" s="3">
-        <v>58000</v>
+        <v>58900</v>
       </c>
       <c r="F22" s="3">
-        <v>58000</v>
+        <v>58900</v>
       </c>
       <c r="G22" s="3">
-        <v>40500</v>
+        <v>41100</v>
       </c>
       <c r="H22" s="3">
-        <v>34200</v>
+        <v>34700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>63900</v>
+        <v>64800</v>
       </c>
       <c r="E23" s="3">
-        <v>262700</v>
+        <v>266800</v>
       </c>
       <c r="F23" s="3">
-        <v>269500</v>
+        <v>273700</v>
       </c>
       <c r="G23" s="3">
-        <v>298000</v>
+        <v>302600</v>
       </c>
       <c r="H23" s="3">
-        <v>187400</v>
+        <v>190400</v>
       </c>
       <c r="I23" s="3">
-        <v>206900</v>
+        <v>210100</v>
       </c>
       <c r="J23" s="3">
-        <v>258800</v>
+        <v>262800</v>
       </c>
       <c r="K23" s="3">
         <v>-633800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="E24" s="3">
-        <v>77100</v>
+        <v>78300</v>
       </c>
       <c r="F24" s="3">
-        <v>73000</v>
+        <v>74100</v>
       </c>
       <c r="G24" s="3">
-        <v>45300</v>
+        <v>46000</v>
       </c>
       <c r="H24" s="3">
-        <v>35300</v>
+        <v>35800</v>
       </c>
       <c r="I24" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J24" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="K24" s="3">
         <v>25300</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39900</v>
+        <v>40500</v>
       </c>
       <c r="E26" s="3">
-        <v>185600</v>
+        <v>188500</v>
       </c>
       <c r="F26" s="3">
-        <v>196500</v>
+        <v>199600</v>
       </c>
       <c r="G26" s="3">
-        <v>252700</v>
+        <v>256600</v>
       </c>
       <c r="H26" s="3">
-        <v>152200</v>
+        <v>154500</v>
       </c>
       <c r="I26" s="3">
-        <v>208700</v>
+        <v>212000</v>
       </c>
       <c r="J26" s="3">
-        <v>235400</v>
+        <v>239000</v>
       </c>
       <c r="K26" s="3">
         <v>-659100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="E27" s="3">
-        <v>183200</v>
+        <v>186100</v>
       </c>
       <c r="F27" s="3">
-        <v>191200</v>
+        <v>194200</v>
       </c>
       <c r="G27" s="3">
-        <v>248900</v>
+        <v>252800</v>
       </c>
       <c r="H27" s="3">
-        <v>144900</v>
+        <v>147100</v>
       </c>
       <c r="I27" s="3">
-        <v>201900</v>
+        <v>205000</v>
       </c>
       <c r="J27" s="3">
-        <v>227400</v>
+        <v>231000</v>
       </c>
       <c r="K27" s="3">
         <v>-666100</v>
@@ -1368,10 +1368,10 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="J29" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="K29" s="3">
         <v>-5900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="G32" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="I32" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J32" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="K32" s="3">
         <v>-40900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="E33" s="3">
-        <v>183200</v>
+        <v>186100</v>
       </c>
       <c r="F33" s="3">
-        <v>191200</v>
+        <v>194200</v>
       </c>
       <c r="G33" s="3">
-        <v>248900</v>
+        <v>252800</v>
       </c>
       <c r="H33" s="3">
-        <v>144900</v>
+        <v>147100</v>
       </c>
       <c r="I33" s="3">
-        <v>225900</v>
+        <v>229400</v>
       </c>
       <c r="J33" s="3">
-        <v>250600</v>
+        <v>254500</v>
       </c>
       <c r="K33" s="3">
         <v>-672000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="E35" s="3">
-        <v>183200</v>
+        <v>186100</v>
       </c>
       <c r="F35" s="3">
-        <v>191200</v>
+        <v>194200</v>
       </c>
       <c r="G35" s="3">
-        <v>248900</v>
+        <v>252800</v>
       </c>
       <c r="H35" s="3">
-        <v>144900</v>
+        <v>147100</v>
       </c>
       <c r="I35" s="3">
-        <v>225900</v>
+        <v>229400</v>
       </c>
       <c r="J35" s="3">
-        <v>250600</v>
+        <v>254500</v>
       </c>
       <c r="K35" s="3">
         <v>-672000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>144800</v>
+        <v>147000</v>
       </c>
       <c r="E41" s="3">
-        <v>85800</v>
+        <v>87100</v>
       </c>
       <c r="F41" s="3">
-        <v>98200</v>
+        <v>99700</v>
       </c>
       <c r="G41" s="3">
-        <v>158700</v>
+        <v>161200</v>
       </c>
       <c r="H41" s="3">
-        <v>27400</v>
+        <v>27800</v>
       </c>
       <c r="I41" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J41" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="K41" s="3">
         <v>13200</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>225500</v>
+        <v>229000</v>
       </c>
       <c r="E42" s="3">
-        <v>136400</v>
+        <v>138600</v>
       </c>
       <c r="F42" s="3">
-        <v>179000</v>
+        <v>181800</v>
       </c>
       <c r="G42" s="3">
-        <v>208000</v>
+        <v>211300</v>
       </c>
       <c r="H42" s="3">
-        <v>139600</v>
+        <v>141800</v>
       </c>
       <c r="I42" s="3">
-        <v>228200</v>
+        <v>231800</v>
       </c>
       <c r="J42" s="3">
-        <v>108100</v>
+        <v>109800</v>
       </c>
       <c r="K42" s="3">
         <v>478900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>563600</v>
+        <v>572400</v>
       </c>
       <c r="E43" s="3">
-        <v>618900</v>
+        <v>628500</v>
       </c>
       <c r="F43" s="3">
-        <v>950700</v>
+        <v>965500</v>
       </c>
       <c r="G43" s="3">
-        <v>1038900</v>
+        <v>1055000</v>
       </c>
       <c r="H43" s="3">
-        <v>392400</v>
+        <v>398500</v>
       </c>
       <c r="I43" s="3">
-        <v>298200</v>
+        <v>302900</v>
       </c>
       <c r="J43" s="3">
-        <v>288900</v>
+        <v>293400</v>
       </c>
       <c r="K43" s="3">
         <v>856200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74100</v>
+        <v>75200</v>
       </c>
       <c r="E44" s="3">
-        <v>83100</v>
+        <v>84400</v>
       </c>
       <c r="F44" s="3">
-        <v>182000</v>
+        <v>184800</v>
       </c>
       <c r="G44" s="3">
-        <v>173900</v>
+        <v>176600</v>
       </c>
       <c r="H44" s="3">
-        <v>127300</v>
+        <v>129300</v>
       </c>
       <c r="I44" s="3">
-        <v>41800</v>
+        <v>42500</v>
       </c>
       <c r="J44" s="3">
-        <v>42400</v>
+        <v>43000</v>
       </c>
       <c r="K44" s="3">
         <v>86700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61600</v>
+        <v>62600</v>
       </c>
       <c r="E45" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F45" s="3">
-        <v>34600</v>
+        <v>35100</v>
       </c>
       <c r="G45" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="H45" s="3">
-        <v>220300</v>
+        <v>223700</v>
       </c>
       <c r="I45" s="3">
-        <v>150600</v>
+        <v>152900</v>
       </c>
       <c r="J45" s="3">
-        <v>96400</v>
+        <v>97900</v>
       </c>
       <c r="K45" s="3">
         <v>153200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1069600</v>
+        <v>1086300</v>
       </c>
       <c r="E46" s="3">
-        <v>969200</v>
+        <v>984300</v>
       </c>
       <c r="F46" s="3">
-        <v>903300</v>
+        <v>917300</v>
       </c>
       <c r="G46" s="3">
-        <v>887600</v>
+        <v>901400</v>
       </c>
       <c r="H46" s="3">
-        <v>843400</v>
+        <v>856500</v>
       </c>
       <c r="I46" s="3">
-        <v>729500</v>
+        <v>740800</v>
       </c>
       <c r="J46" s="3">
-        <v>548500</v>
+        <v>557000</v>
       </c>
       <c r="K46" s="3">
         <v>639800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="E47" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="F47" s="3">
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="G47" s="3">
-        <v>44800</v>
+        <v>45500</v>
       </c>
       <c r="H47" s="3">
-        <v>174000</v>
+        <v>176700</v>
       </c>
       <c r="I47" s="3">
-        <v>177000</v>
+        <v>179800</v>
       </c>
       <c r="J47" s="3">
-        <v>199000</v>
+        <v>202100</v>
       </c>
       <c r="K47" s="3">
         <v>164400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2498500</v>
+        <v>2537400</v>
       </c>
       <c r="E48" s="3">
-        <v>2100200</v>
+        <v>2132900</v>
       </c>
       <c r="F48" s="3">
-        <v>3979600</v>
+        <v>4041500</v>
       </c>
       <c r="G48" s="3">
-        <v>3657000</v>
+        <v>3713900</v>
       </c>
       <c r="H48" s="3">
-        <v>1842200</v>
+        <v>1870800</v>
       </c>
       <c r="I48" s="3">
-        <v>1604800</v>
+        <v>1629800</v>
       </c>
       <c r="J48" s="3">
-        <v>1647100</v>
+        <v>1672700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>310700</v>
+        <v>315500</v>
       </c>
       <c r="E49" s="3">
-        <v>296400</v>
+        <v>301000</v>
       </c>
       <c r="F49" s="3">
-        <v>589000</v>
+        <v>598200</v>
       </c>
       <c r="G49" s="3">
-        <v>618800</v>
+        <v>628400</v>
       </c>
       <c r="H49" s="3">
-        <v>288800</v>
+        <v>293300</v>
       </c>
       <c r="I49" s="3">
-        <v>195500</v>
+        <v>198500</v>
       </c>
       <c r="J49" s="3">
-        <v>185700</v>
+        <v>188600</v>
       </c>
       <c r="K49" s="3">
         <v>441400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119300</v>
+        <v>121200</v>
       </c>
       <c r="E52" s="3">
-        <v>77600</v>
+        <v>78800</v>
       </c>
       <c r="F52" s="3">
-        <v>86900</v>
+        <v>88200</v>
       </c>
       <c r="G52" s="3">
-        <v>71100</v>
+        <v>72200</v>
       </c>
       <c r="H52" s="3">
-        <v>83900</v>
+        <v>85200</v>
       </c>
       <c r="I52" s="3">
-        <v>107500</v>
+        <v>109100</v>
       </c>
       <c r="J52" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K52" s="3">
         <v>5100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4024500</v>
+        <v>4087100</v>
       </c>
       <c r="E54" s="3">
-        <v>3471000</v>
+        <v>3525000</v>
       </c>
       <c r="F54" s="3">
-        <v>3300400</v>
+        <v>3351700</v>
       </c>
       <c r="G54" s="3">
-        <v>3139700</v>
+        <v>3188500</v>
       </c>
       <c r="H54" s="3">
-        <v>3052000</v>
+        <v>3099500</v>
       </c>
       <c r="I54" s="3">
-        <v>2752300</v>
+        <v>2795200</v>
       </c>
       <c r="J54" s="3">
-        <v>2583400</v>
+        <v>2623600</v>
       </c>
       <c r="K54" s="3">
         <v>2370200</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>333300</v>
+        <v>338500</v>
       </c>
       <c r="E57" s="3">
-        <v>478700</v>
+        <v>486200</v>
       </c>
       <c r="F57" s="3">
-        <v>447400</v>
+        <v>454300</v>
       </c>
       <c r="G57" s="3">
-        <v>743100</v>
+        <v>754700</v>
       </c>
       <c r="H57" s="3">
-        <v>467700</v>
+        <v>475000</v>
       </c>
       <c r="I57" s="3">
-        <v>369400</v>
+        <v>375200</v>
       </c>
       <c r="J57" s="3">
-        <v>335600</v>
+        <v>340800</v>
       </c>
       <c r="K57" s="3">
         <v>265600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>194600</v>
+        <v>197700</v>
       </c>
       <c r="E58" s="3">
-        <v>354100</v>
+        <v>359600</v>
       </c>
       <c r="F58" s="3">
-        <v>148800</v>
+        <v>151100</v>
       </c>
       <c r="G58" s="3">
-        <v>207800</v>
+        <v>211000</v>
       </c>
       <c r="H58" s="3">
-        <v>46500</v>
+        <v>47200</v>
       </c>
       <c r="I58" s="3">
-        <v>105700</v>
+        <v>107400</v>
       </c>
       <c r="J58" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="K58" s="3">
         <v>314600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>596000</v>
+        <v>605300</v>
       </c>
       <c r="E59" s="3">
-        <v>244700</v>
+        <v>248500</v>
       </c>
       <c r="F59" s="3">
-        <v>482500</v>
+        <v>490000</v>
       </c>
       <c r="G59" s="3">
-        <v>499600</v>
+        <v>507300</v>
       </c>
       <c r="H59" s="3">
-        <v>343600</v>
+        <v>348900</v>
       </c>
       <c r="I59" s="3">
-        <v>289800</v>
+        <v>294300</v>
       </c>
       <c r="J59" s="3">
-        <v>305500</v>
+        <v>310300</v>
       </c>
       <c r="K59" s="3">
         <v>434200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1124000</v>
+        <v>1141400</v>
       </c>
       <c r="E60" s="3">
-        <v>1077500</v>
+        <v>1094300</v>
       </c>
       <c r="F60" s="3">
-        <v>847200</v>
+        <v>860300</v>
       </c>
       <c r="G60" s="3">
-        <v>856700</v>
+        <v>870000</v>
       </c>
       <c r="H60" s="3">
-        <v>857800</v>
+        <v>871100</v>
       </c>
       <c r="I60" s="3">
-        <v>752800</v>
+        <v>764500</v>
       </c>
       <c r="J60" s="3">
-        <v>662200</v>
+        <v>672500</v>
       </c>
       <c r="K60" s="3">
         <v>748400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>905600</v>
+        <v>919700</v>
       </c>
       <c r="E61" s="3">
-        <v>317300</v>
+        <v>322200</v>
       </c>
       <c r="F61" s="3">
-        <v>469300</v>
+        <v>476600</v>
       </c>
       <c r="G61" s="3">
-        <v>310300</v>
+        <v>315100</v>
       </c>
       <c r="H61" s="3">
-        <v>299300</v>
+        <v>304000</v>
       </c>
       <c r="I61" s="3">
-        <v>212700</v>
+        <v>216000</v>
       </c>
       <c r="J61" s="3">
-        <v>247500</v>
+        <v>251300</v>
       </c>
       <c r="K61" s="3">
         <v>222300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="E62" s="3">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="F62" s="3">
-        <v>203900</v>
+        <v>207100</v>
       </c>
       <c r="G62" s="3">
-        <v>148000</v>
+        <v>150300</v>
       </c>
       <c r="H62" s="3">
-        <v>166400</v>
+        <v>169000</v>
       </c>
       <c r="I62" s="3">
-        <v>133000</v>
+        <v>135000</v>
       </c>
       <c r="J62" s="3">
-        <v>156100</v>
+        <v>158500</v>
       </c>
       <c r="K62" s="3">
         <v>657500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2090200</v>
+        <v>2122700</v>
       </c>
       <c r="E66" s="3">
-        <v>1532200</v>
+        <v>1556000</v>
       </c>
       <c r="F66" s="3">
-        <v>1533100</v>
+        <v>1556900</v>
       </c>
       <c r="G66" s="3">
-        <v>1327900</v>
+        <v>1348600</v>
       </c>
       <c r="H66" s="3">
-        <v>1349100</v>
+        <v>1370100</v>
       </c>
       <c r="I66" s="3">
-        <v>1122300</v>
+        <v>1139700</v>
       </c>
       <c r="J66" s="3">
-        <v>1090500</v>
+        <v>1107500</v>
       </c>
       <c r="K66" s="3">
         <v>1355500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1603200</v>
+        <v>1628100</v>
       </c>
       <c r="E72" s="3">
-        <v>1607700</v>
+        <v>1632700</v>
       </c>
       <c r="F72" s="3">
-        <v>1436200</v>
+        <v>1458600</v>
       </c>
       <c r="G72" s="3">
-        <v>1470300</v>
+        <v>1493200</v>
       </c>
       <c r="H72" s="3">
-        <v>1361500</v>
+        <v>1382700</v>
       </c>
       <c r="I72" s="3">
-        <v>1288600</v>
+        <v>1308700</v>
       </c>
       <c r="J72" s="3">
-        <v>1202000</v>
+        <v>1220700</v>
       </c>
       <c r="K72" s="3">
         <v>885100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1934300</v>
+        <v>1964400</v>
       </c>
       <c r="E76" s="3">
-        <v>1938800</v>
+        <v>1969000</v>
       </c>
       <c r="F76" s="3">
-        <v>1767300</v>
+        <v>1794800</v>
       </c>
       <c r="G76" s="3">
-        <v>1811800</v>
+        <v>1839900</v>
       </c>
       <c r="H76" s="3">
-        <v>1702900</v>
+        <v>1729400</v>
       </c>
       <c r="I76" s="3">
-        <v>1630100</v>
+        <v>1655400</v>
       </c>
       <c r="J76" s="3">
-        <v>1492900</v>
+        <v>1516100</v>
       </c>
       <c r="K76" s="3">
         <v>1014700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39500</v>
+        <v>40100</v>
       </c>
       <c r="E81" s="3">
-        <v>183200</v>
+        <v>186100</v>
       </c>
       <c r="F81" s="3">
-        <v>191200</v>
+        <v>194200</v>
       </c>
       <c r="G81" s="3">
-        <v>248900</v>
+        <v>252800</v>
       </c>
       <c r="H81" s="3">
-        <v>144900</v>
+        <v>147100</v>
       </c>
       <c r="I81" s="3">
-        <v>225900</v>
+        <v>229400</v>
       </c>
       <c r="J81" s="3">
-        <v>250600</v>
+        <v>254500</v>
       </c>
       <c r="K81" s="3">
         <v>-672000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>453300</v>
+        <v>460400</v>
       </c>
       <c r="E83" s="3">
-        <v>381200</v>
+        <v>387100</v>
       </c>
       <c r="F83" s="3">
-        <v>366200</v>
+        <v>371800</v>
       </c>
       <c r="G83" s="3">
-        <v>371100</v>
+        <v>376900</v>
       </c>
       <c r="H83" s="3">
-        <v>362400</v>
+        <v>368000</v>
       </c>
       <c r="I83" s="3">
-        <v>360900</v>
+        <v>366500</v>
       </c>
       <c r="J83" s="3">
-        <v>389200</v>
+        <v>395300</v>
       </c>
       <c r="K83" s="3">
         <v>1045400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>561400</v>
+        <v>570100</v>
       </c>
       <c r="E89" s="3">
-        <v>374100</v>
+        <v>379900</v>
       </c>
       <c r="F89" s="3">
-        <v>395900</v>
+        <v>402100</v>
       </c>
       <c r="G89" s="3">
-        <v>363300</v>
+        <v>369000</v>
       </c>
       <c r="H89" s="3">
-        <v>439300</v>
+        <v>446200</v>
       </c>
       <c r="I89" s="3">
-        <v>411800</v>
+        <v>418200</v>
       </c>
       <c r="J89" s="3">
-        <v>417400</v>
+        <v>423800</v>
       </c>
       <c r="K89" s="3">
         <v>427000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-505600</v>
+        <v>-513500</v>
       </c>
       <c r="E91" s="3">
-        <v>-497200</v>
+        <v>-504900</v>
       </c>
       <c r="F91" s="3">
-        <v>-508500</v>
+        <v>-516400</v>
       </c>
       <c r="G91" s="3">
-        <v>-555900</v>
+        <v>-564500</v>
       </c>
       <c r="H91" s="3">
-        <v>-386200</v>
+        <v>-392200</v>
       </c>
       <c r="I91" s="3">
-        <v>-332400</v>
+        <v>-337600</v>
       </c>
       <c r="J91" s="3">
-        <v>-417600</v>
+        <v>-424100</v>
       </c>
       <c r="K91" s="3">
         <v>-321600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-390800</v>
+        <v>-396900</v>
       </c>
       <c r="E94" s="3">
-        <v>-493100</v>
+        <v>-500800</v>
       </c>
       <c r="F94" s="3">
-        <v>-433800</v>
+        <v>-440600</v>
       </c>
       <c r="G94" s="3">
-        <v>-435100</v>
+        <v>-441900</v>
       </c>
       <c r="H94" s="3">
-        <v>-538600</v>
+        <v>-547000</v>
       </c>
       <c r="I94" s="3">
-        <v>-338800</v>
+        <v>-344100</v>
       </c>
       <c r="J94" s="3">
-        <v>-284100</v>
+        <v>-288500</v>
       </c>
       <c r="K94" s="3">
         <v>-315400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>115200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I100" s="3">
         <v>45600</v>
       </c>
-      <c r="E100" s="3">
-        <v>47000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>113500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>44900</v>
-      </c>
       <c r="J100" s="3">
-        <v>-169300</v>
+        <v>-172000</v>
       </c>
       <c r="K100" s="3">
         <v>-41800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>216200</v>
+        <v>219600</v>
       </c>
       <c r="E102" s="3">
-        <v>-72100</v>
+        <v>-73200</v>
       </c>
       <c r="F102" s="3">
-        <v>75600</v>
+        <v>76800</v>
       </c>
       <c r="G102" s="3">
-        <v>-67100</v>
+        <v>-68100</v>
       </c>
       <c r="H102" s="3">
-        <v>-72100</v>
+        <v>-73200</v>
       </c>
       <c r="I102" s="3">
-        <v>118100</v>
+        <v>119900</v>
       </c>
       <c r="J102" s="3">
-        <v>-35400</v>
+        <v>-36000</v>
       </c>
       <c r="K102" s="3">
         <v>69600</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2865800</v>
+        <v>3119800</v>
       </c>
       <c r="E8" s="3">
-        <v>2781300</v>
+        <v>3106800</v>
       </c>
       <c r="F8" s="3">
-        <v>2640600</v>
+        <v>3015200</v>
       </c>
       <c r="G8" s="3">
-        <v>2727800</v>
+        <v>2862700</v>
       </c>
       <c r="H8" s="3">
-        <v>2485100</v>
+        <v>2957200</v>
       </c>
       <c r="I8" s="3">
-        <v>2181200</v>
+        <v>2694100</v>
       </c>
       <c r="J8" s="3">
+        <v>2364600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2083200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1837000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2267200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>619700</v>
+        <v>625000</v>
       </c>
       <c r="E9" s="3">
-        <v>542300</v>
+        <v>671900</v>
       </c>
       <c r="F9" s="3">
-        <v>883700</v>
+        <v>587900</v>
       </c>
       <c r="G9" s="3">
-        <v>606900</v>
+        <v>958000</v>
       </c>
       <c r="H9" s="3">
-        <v>519600</v>
+        <v>658000</v>
       </c>
       <c r="I9" s="3">
-        <v>411400</v>
+        <v>563300</v>
       </c>
       <c r="J9" s="3">
+        <v>446000</v>
+      </c>
+      <c r="K9" s="3">
         <v>407500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>343400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>375900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2246100</v>
+        <v>2494800</v>
       </c>
       <c r="E10" s="3">
-        <v>2239000</v>
+        <v>2435000</v>
       </c>
       <c r="F10" s="3">
-        <v>1756900</v>
+        <v>2427300</v>
       </c>
       <c r="G10" s="3">
-        <v>2120800</v>
+        <v>1904700</v>
       </c>
       <c r="H10" s="3">
-        <v>1965500</v>
+        <v>2299200</v>
       </c>
       <c r="I10" s="3">
-        <v>1769800</v>
+        <v>2130800</v>
       </c>
       <c r="J10" s="3">
+        <v>1918600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1675600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1493600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1891400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27600</v>
+        <v>14400</v>
       </c>
       <c r="E14" s="3">
-        <v>18000</v>
+        <v>59800</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>19500</v>
       </c>
       <c r="G14" s="3">
-        <v>9500</v>
+        <v>3400</v>
       </c>
       <c r="H14" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="I14" s="3">
-        <v>14600</v>
+        <v>12300</v>
       </c>
       <c r="J14" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K14" s="3">
         <v>42100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>703500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55900</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>432800</v>
+        <v>481400</v>
       </c>
       <c r="E15" s="3">
-        <v>369100</v>
+        <v>469200</v>
       </c>
       <c r="F15" s="3">
-        <v>368700</v>
+        <v>400200</v>
       </c>
       <c r="G15" s="3">
-        <v>367400</v>
+        <v>399700</v>
       </c>
       <c r="H15" s="3">
-        <v>354700</v>
+        <v>398300</v>
       </c>
       <c r="I15" s="3">
-        <v>351900</v>
+        <v>384600</v>
       </c>
       <c r="J15" s="3">
+        <v>381500</v>
+      </c>
+      <c r="K15" s="3">
         <v>350100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>632900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>364300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2686900</v>
+        <v>2770900</v>
       </c>
       <c r="E17" s="3">
-        <v>2463900</v>
+        <v>2917800</v>
       </c>
       <c r="F17" s="3">
-        <v>2318600</v>
+        <v>2671200</v>
       </c>
       <c r="G17" s="3">
-        <v>2380600</v>
+        <v>2513600</v>
       </c>
       <c r="H17" s="3">
-        <v>2266800</v>
+        <v>2580900</v>
       </c>
       <c r="I17" s="3">
-        <v>1959000</v>
+        <v>2457500</v>
       </c>
       <c r="J17" s="3">
+        <v>2123800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1811800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2473900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2102200</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>178900</v>
+        <v>348800</v>
       </c>
       <c r="E18" s="3">
-        <v>317400</v>
+        <v>189000</v>
       </c>
       <c r="F18" s="3">
-        <v>322000</v>
+        <v>344100</v>
       </c>
       <c r="G18" s="3">
-        <v>347100</v>
+        <v>349100</v>
       </c>
       <c r="H18" s="3">
-        <v>218200</v>
+        <v>376300</v>
       </c>
       <c r="I18" s="3">
-        <v>222100</v>
+        <v>236600</v>
       </c>
       <c r="J18" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K18" s="3">
         <v>271400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-636900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>165000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9500</v>
+        <v>-6400</v>
       </c>
       <c r="E20" s="3">
-        <v>8300</v>
+        <v>-10300</v>
       </c>
       <c r="F20" s="3">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3400</v>
+        <v>11400</v>
       </c>
       <c r="H20" s="3">
-        <v>6800</v>
+        <v>-3700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12000</v>
+        <v>7400</v>
       </c>
       <c r="J20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>631300</v>
+        <v>836100</v>
       </c>
       <c r="E21" s="3">
-        <v>714100</v>
+        <v>675600</v>
       </c>
       <c r="F21" s="3">
-        <v>705600</v>
+        <v>770900</v>
       </c>
       <c r="G21" s="3">
-        <v>721900</v>
+        <v>761900</v>
       </c>
       <c r="H21" s="3">
-        <v>594200</v>
+        <v>779500</v>
       </c>
       <c r="I21" s="3">
-        <v>577900</v>
+        <v>641100</v>
       </c>
       <c r="J21" s="3">
+        <v>623400</v>
+      </c>
+      <c r="K21" s="3">
         <v>659400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>456700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>526200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>104500</v>
+        <v>90200</v>
       </c>
       <c r="E22" s="3">
-        <v>58900</v>
+        <v>113300</v>
       </c>
       <c r="F22" s="3">
-        <v>58900</v>
+        <v>63900</v>
       </c>
       <c r="G22" s="3">
-        <v>41100</v>
+        <v>63800</v>
       </c>
       <c r="H22" s="3">
-        <v>34700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>44600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>37600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>37700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52400</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64800</v>
+        <v>252300</v>
       </c>
       <c r="E23" s="3">
-        <v>266800</v>
+        <v>65400</v>
       </c>
       <c r="F23" s="3">
-        <v>273700</v>
+        <v>289200</v>
       </c>
       <c r="G23" s="3">
-        <v>302600</v>
+        <v>296700</v>
       </c>
       <c r="H23" s="3">
-        <v>190400</v>
+        <v>328100</v>
       </c>
       <c r="I23" s="3">
-        <v>210100</v>
+        <v>206400</v>
       </c>
       <c r="J23" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K23" s="3">
         <v>262800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-633800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24400</v>
+        <v>77000</v>
       </c>
       <c r="E24" s="3">
-        <v>78300</v>
+        <v>26400</v>
       </c>
       <c r="F24" s="3">
-        <v>74100</v>
+        <v>84900</v>
       </c>
       <c r="G24" s="3">
-        <v>46000</v>
+        <v>80300</v>
       </c>
       <c r="H24" s="3">
-        <v>35800</v>
+        <v>49900</v>
       </c>
       <c r="I24" s="3">
-        <v>-1900</v>
+        <v>38800</v>
       </c>
       <c r="J24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K24" s="3">
         <v>23800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>40500</v>
+        <v>175300</v>
       </c>
       <c r="E26" s="3">
-        <v>188500</v>
+        <v>39000</v>
       </c>
       <c r="F26" s="3">
-        <v>199600</v>
+        <v>204300</v>
       </c>
       <c r="G26" s="3">
-        <v>256600</v>
+        <v>216400</v>
       </c>
       <c r="H26" s="3">
-        <v>154500</v>
+        <v>278200</v>
       </c>
       <c r="I26" s="3">
-        <v>212000</v>
+        <v>167500</v>
       </c>
       <c r="J26" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K26" s="3">
         <v>239000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-659100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40100</v>
+        <v>174800</v>
       </c>
       <c r="E27" s="3">
-        <v>186100</v>
+        <v>38600</v>
       </c>
       <c r="F27" s="3">
-        <v>194200</v>
+        <v>201700</v>
       </c>
       <c r="G27" s="3">
-        <v>252800</v>
+        <v>210500</v>
       </c>
       <c r="H27" s="3">
-        <v>147100</v>
+        <v>274100</v>
       </c>
       <c r="I27" s="3">
-        <v>205000</v>
+        <v>159500</v>
       </c>
       <c r="J27" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K27" s="3">
         <v>231000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-666100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>24400</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K29" s="3">
         <v>23500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-18400</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9500</v>
+        <v>6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-8300</v>
+        <v>10300</v>
       </c>
       <c r="F32" s="3">
-        <v>-10500</v>
+        <v>-9000</v>
       </c>
       <c r="G32" s="3">
-        <v>3400</v>
+        <v>-11400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6800</v>
+        <v>3700</v>
       </c>
       <c r="I32" s="3">
-        <v>12000</v>
+        <v>-7400</v>
       </c>
       <c r="J32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K32" s="3">
         <v>8600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40100</v>
+        <v>174800</v>
       </c>
       <c r="E33" s="3">
-        <v>186100</v>
+        <v>38600</v>
       </c>
       <c r="F33" s="3">
-        <v>194200</v>
+        <v>201700</v>
       </c>
       <c r="G33" s="3">
-        <v>252800</v>
+        <v>210500</v>
       </c>
       <c r="H33" s="3">
-        <v>147100</v>
+        <v>274100</v>
       </c>
       <c r="I33" s="3">
-        <v>229400</v>
+        <v>159500</v>
       </c>
       <c r="J33" s="3">
+        <v>248700</v>
+      </c>
+      <c r="K33" s="3">
         <v>254500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-672000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40100</v>
+        <v>174800</v>
       </c>
       <c r="E35" s="3">
-        <v>186100</v>
+        <v>38600</v>
       </c>
       <c r="F35" s="3">
-        <v>194200</v>
+        <v>201700</v>
       </c>
       <c r="G35" s="3">
-        <v>252800</v>
+        <v>210500</v>
       </c>
       <c r="H35" s="3">
-        <v>147100</v>
+        <v>274100</v>
       </c>
       <c r="I35" s="3">
-        <v>229400</v>
+        <v>159500</v>
       </c>
       <c r="J35" s="3">
+        <v>248700</v>
+      </c>
+      <c r="K35" s="3">
         <v>254500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-672000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147000</v>
+        <v>361100</v>
       </c>
       <c r="E41" s="3">
-        <v>87100</v>
+        <v>159400</v>
       </c>
       <c r="F41" s="3">
-        <v>99700</v>
+        <v>94400</v>
       </c>
       <c r="G41" s="3">
-        <v>161200</v>
+        <v>108100</v>
       </c>
       <c r="H41" s="3">
-        <v>27800</v>
+        <v>174700</v>
       </c>
       <c r="I41" s="3">
-        <v>10800</v>
+        <v>30200</v>
       </c>
       <c r="J41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>248300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>150200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>197100</v>
+      </c>
+      <c r="H42" s="3">
         <v>229000</v>
       </c>
-      <c r="E42" s="3">
-        <v>138600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>181800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>211300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>141800</v>
-      </c>
       <c r="I42" s="3">
-        <v>231800</v>
+        <v>153700</v>
       </c>
       <c r="J42" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K42" s="3">
         <v>109800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>478900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>181600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>572400</v>
+        <v>623700</v>
       </c>
       <c r="E43" s="3">
-        <v>628500</v>
+        <v>620500</v>
       </c>
       <c r="F43" s="3">
-        <v>965500</v>
+        <v>681400</v>
       </c>
       <c r="G43" s="3">
-        <v>1055000</v>
+        <v>1046700</v>
       </c>
       <c r="H43" s="3">
-        <v>398500</v>
+        <v>1143800</v>
       </c>
       <c r="I43" s="3">
-        <v>302900</v>
+        <v>432000</v>
       </c>
       <c r="J43" s="3">
+        <v>328300</v>
+      </c>
+      <c r="K43" s="3">
         <v>293400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>856200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>328900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75200</v>
+        <v>85200</v>
       </c>
       <c r="E44" s="3">
-        <v>84400</v>
+        <v>81600</v>
       </c>
       <c r="F44" s="3">
-        <v>184800</v>
+        <v>91500</v>
       </c>
       <c r="G44" s="3">
-        <v>176600</v>
+        <v>200400</v>
       </c>
       <c r="H44" s="3">
-        <v>129300</v>
+        <v>191400</v>
       </c>
       <c r="I44" s="3">
-        <v>42500</v>
+        <v>140200</v>
       </c>
       <c r="J44" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K44" s="3">
         <v>43000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>68100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62600</v>
+        <v>73500</v>
       </c>
       <c r="E45" s="3">
-        <v>45700</v>
+        <v>67800</v>
       </c>
       <c r="F45" s="3">
-        <v>35100</v>
+        <v>49600</v>
       </c>
       <c r="G45" s="3">
-        <v>48300</v>
+        <v>38000</v>
       </c>
       <c r="H45" s="3">
-        <v>223700</v>
+        <v>52300</v>
       </c>
       <c r="I45" s="3">
-        <v>152900</v>
+        <v>242500</v>
       </c>
       <c r="J45" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K45" s="3">
         <v>97900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>153200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1086300</v>
+        <v>1149800</v>
       </c>
       <c r="E46" s="3">
-        <v>984300</v>
+        <v>1177600</v>
       </c>
       <c r="F46" s="3">
-        <v>917300</v>
+        <v>1067000</v>
       </c>
       <c r="G46" s="3">
-        <v>901400</v>
+        <v>994500</v>
       </c>
       <c r="H46" s="3">
-        <v>856500</v>
+        <v>977200</v>
       </c>
       <c r="I46" s="3">
-        <v>740800</v>
+        <v>928500</v>
       </c>
       <c r="J46" s="3">
+        <v>803100</v>
+      </c>
+      <c r="K46" s="3">
         <v>557000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>639800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>699500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26800</v>
+        <v>33600</v>
       </c>
       <c r="E47" s="3">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="F47" s="3">
-        <v>28100</v>
+        <v>30400</v>
       </c>
       <c r="G47" s="3">
-        <v>45500</v>
+        <v>30500</v>
       </c>
       <c r="H47" s="3">
-        <v>176700</v>
+        <v>49400</v>
       </c>
       <c r="I47" s="3">
-        <v>179800</v>
+        <v>191600</v>
       </c>
       <c r="J47" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K47" s="3">
         <v>202100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>164400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>174900</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2537400</v>
+        <v>2944200</v>
       </c>
       <c r="E48" s="3">
-        <v>2132900</v>
+        <v>2750800</v>
       </c>
       <c r="F48" s="3">
-        <v>4041500</v>
+        <v>2312300</v>
       </c>
       <c r="G48" s="3">
-        <v>3713900</v>
+        <v>4381400</v>
       </c>
       <c r="H48" s="3">
-        <v>1870800</v>
+        <v>4026300</v>
       </c>
       <c r="I48" s="3">
-        <v>1629800</v>
+        <v>2028200</v>
       </c>
       <c r="J48" s="3">
+        <v>1766900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1672700</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2478100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>315500</v>
+        <v>332400</v>
       </c>
       <c r="E49" s="3">
-        <v>301000</v>
+        <v>342100</v>
       </c>
       <c r="F49" s="3">
-        <v>598200</v>
+        <v>326300</v>
       </c>
       <c r="G49" s="3">
-        <v>628400</v>
+        <v>648500</v>
       </c>
       <c r="H49" s="3">
-        <v>293300</v>
+        <v>681300</v>
       </c>
       <c r="I49" s="3">
-        <v>198500</v>
+        <v>318000</v>
       </c>
       <c r="J49" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K49" s="3">
         <v>188600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>441400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>243700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>121200</v>
+        <v>147200</v>
       </c>
       <c r="E52" s="3">
-        <v>78800</v>
+        <v>131400</v>
       </c>
       <c r="F52" s="3">
-        <v>88200</v>
+        <v>85500</v>
       </c>
       <c r="G52" s="3">
-        <v>72200</v>
+        <v>95600</v>
       </c>
       <c r="H52" s="3">
-        <v>85200</v>
+        <v>78300</v>
       </c>
       <c r="I52" s="3">
-        <v>109100</v>
+        <v>92400</v>
       </c>
       <c r="J52" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4087100</v>
+        <v>4607300</v>
       </c>
       <c r="E54" s="3">
-        <v>3525000</v>
+        <v>4430800</v>
       </c>
       <c r="F54" s="3">
-        <v>3351700</v>
+        <v>3821500</v>
       </c>
       <c r="G54" s="3">
-        <v>3188500</v>
+        <v>3633600</v>
       </c>
       <c r="H54" s="3">
-        <v>3099500</v>
+        <v>3456700</v>
       </c>
       <c r="I54" s="3">
-        <v>2795200</v>
+        <v>3360200</v>
       </c>
       <c r="J54" s="3">
+        <v>3030300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2623600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2370200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3603000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>338500</v>
+        <v>493500</v>
       </c>
       <c r="E57" s="3">
-        <v>486200</v>
+        <v>367000</v>
       </c>
       <c r="F57" s="3">
-        <v>454300</v>
+        <v>527100</v>
       </c>
       <c r="G57" s="3">
-        <v>754700</v>
+        <v>492600</v>
       </c>
       <c r="H57" s="3">
-        <v>475000</v>
+        <v>818200</v>
       </c>
       <c r="I57" s="3">
-        <v>375200</v>
+        <v>514900</v>
       </c>
       <c r="J57" s="3">
+        <v>406700</v>
+      </c>
+      <c r="K57" s="3">
         <v>340800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>265600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>194600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>197700</v>
+        <v>137500</v>
       </c>
       <c r="E58" s="3">
-        <v>359600</v>
+        <v>214300</v>
       </c>
       <c r="F58" s="3">
-        <v>151100</v>
+        <v>389800</v>
       </c>
       <c r="G58" s="3">
-        <v>211000</v>
+        <v>163800</v>
       </c>
       <c r="H58" s="3">
-        <v>47200</v>
+        <v>228700</v>
       </c>
       <c r="I58" s="3">
-        <v>107400</v>
+        <v>51200</v>
       </c>
       <c r="J58" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K58" s="3">
         <v>21400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>314600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>88600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>605300</v>
+        <v>622700</v>
       </c>
       <c r="E59" s="3">
-        <v>248500</v>
+        <v>656200</v>
       </c>
       <c r="F59" s="3">
-        <v>490000</v>
+        <v>269400</v>
       </c>
       <c r="G59" s="3">
-        <v>507300</v>
+        <v>531200</v>
       </c>
       <c r="H59" s="3">
-        <v>348900</v>
+        <v>550000</v>
       </c>
       <c r="I59" s="3">
-        <v>294300</v>
+        <v>378300</v>
       </c>
       <c r="J59" s="3">
+        <v>319000</v>
+      </c>
+      <c r="K59" s="3">
         <v>310300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>434200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>382300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1141400</v>
+        <v>1253700</v>
       </c>
       <c r="E60" s="3">
-        <v>1094300</v>
+        <v>1237500</v>
       </c>
       <c r="F60" s="3">
-        <v>860300</v>
+        <v>1186400</v>
       </c>
       <c r="G60" s="3">
-        <v>870000</v>
+        <v>932700</v>
       </c>
       <c r="H60" s="3">
-        <v>871100</v>
+        <v>943200</v>
       </c>
       <c r="I60" s="3">
-        <v>764500</v>
+        <v>944400</v>
       </c>
       <c r="J60" s="3">
+        <v>828800</v>
+      </c>
+      <c r="K60" s="3">
         <v>672500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>748400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>665500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>919700</v>
+        <v>1005800</v>
       </c>
       <c r="E61" s="3">
-        <v>322200</v>
+        <v>997000</v>
       </c>
       <c r="F61" s="3">
-        <v>476600</v>
+        <v>349400</v>
       </c>
       <c r="G61" s="3">
-        <v>315100</v>
+        <v>516700</v>
       </c>
       <c r="H61" s="3">
-        <v>304000</v>
+        <v>341600</v>
       </c>
       <c r="I61" s="3">
-        <v>216000</v>
+        <v>329600</v>
       </c>
       <c r="J61" s="3">
+        <v>234200</v>
+      </c>
+      <c r="K61" s="3">
         <v>251300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>222300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>404200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63500</v>
+        <v>85700</v>
       </c>
       <c r="E62" s="3">
-        <v>126500</v>
+        <v>68900</v>
       </c>
       <c r="F62" s="3">
-        <v>207100</v>
+        <v>137100</v>
       </c>
       <c r="G62" s="3">
-        <v>150300</v>
+        <v>224500</v>
       </c>
       <c r="H62" s="3">
-        <v>169000</v>
+        <v>163000</v>
       </c>
       <c r="I62" s="3">
-        <v>135000</v>
+        <v>183200</v>
       </c>
       <c r="J62" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K62" s="3">
         <v>158500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>657500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>467500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2122700</v>
+        <v>2343300</v>
       </c>
       <c r="E66" s="3">
-        <v>1556000</v>
+        <v>2301200</v>
       </c>
       <c r="F66" s="3">
-        <v>1556900</v>
+        <v>1686900</v>
       </c>
       <c r="G66" s="3">
-        <v>1348600</v>
+        <v>1687900</v>
       </c>
       <c r="H66" s="3">
-        <v>1370100</v>
+        <v>1462000</v>
       </c>
       <c r="I66" s="3">
-        <v>1139700</v>
+        <v>1485300</v>
       </c>
       <c r="J66" s="3">
+        <v>1235600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1107500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1355500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1566900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1628100</v>
+        <v>1899500</v>
       </c>
       <c r="E72" s="3">
-        <v>1632700</v>
+        <v>1765100</v>
       </c>
       <c r="F72" s="3">
-        <v>1458600</v>
+        <v>1770100</v>
       </c>
       <c r="G72" s="3">
-        <v>1493200</v>
+        <v>1581200</v>
       </c>
       <c r="H72" s="3">
-        <v>1382700</v>
+        <v>1618800</v>
       </c>
       <c r="I72" s="3">
-        <v>1308700</v>
+        <v>1499000</v>
       </c>
       <c r="J72" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1220700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>885100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1732000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1964400</v>
+        <v>2264000</v>
       </c>
       <c r="E76" s="3">
-        <v>1969000</v>
+        <v>2129600</v>
       </c>
       <c r="F76" s="3">
-        <v>1794800</v>
+        <v>2134600</v>
       </c>
       <c r="G76" s="3">
-        <v>1839900</v>
+        <v>1945800</v>
       </c>
       <c r="H76" s="3">
-        <v>1729400</v>
+        <v>1994700</v>
       </c>
       <c r="I76" s="3">
-        <v>1655400</v>
+        <v>1874900</v>
       </c>
       <c r="J76" s="3">
+        <v>1794700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1516100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1014700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2036100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40100</v>
+        <v>174800</v>
       </c>
       <c r="E81" s="3">
-        <v>186100</v>
+        <v>38600</v>
       </c>
       <c r="F81" s="3">
-        <v>194200</v>
+        <v>201700</v>
       </c>
       <c r="G81" s="3">
-        <v>252800</v>
+        <v>210500</v>
       </c>
       <c r="H81" s="3">
-        <v>147100</v>
+        <v>274100</v>
       </c>
       <c r="I81" s="3">
-        <v>229400</v>
+        <v>159500</v>
       </c>
       <c r="J81" s="3">
+        <v>248700</v>
+      </c>
+      <c r="K81" s="3">
         <v>254500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-672000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>460400</v>
+        <v>495900</v>
       </c>
       <c r="E83" s="3">
-        <v>387100</v>
+        <v>499100</v>
       </c>
       <c r="F83" s="3">
-        <v>371800</v>
+        <v>419700</v>
       </c>
       <c r="G83" s="3">
-        <v>376900</v>
+        <v>403100</v>
       </c>
       <c r="H83" s="3">
-        <v>368000</v>
+        <v>408600</v>
       </c>
       <c r="I83" s="3">
-        <v>366500</v>
+        <v>398900</v>
       </c>
       <c r="J83" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K83" s="3">
         <v>395300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1045400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>420700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>570100</v>
+        <v>782000</v>
       </c>
       <c r="E89" s="3">
-        <v>379900</v>
+        <v>618100</v>
       </c>
       <c r="F89" s="3">
-        <v>402100</v>
+        <v>411900</v>
       </c>
       <c r="G89" s="3">
-        <v>369000</v>
+        <v>435900</v>
       </c>
       <c r="H89" s="3">
-        <v>446200</v>
+        <v>400000</v>
       </c>
       <c r="I89" s="3">
-        <v>418200</v>
+        <v>483700</v>
       </c>
       <c r="J89" s="3">
+        <v>453400</v>
+      </c>
+      <c r="K89" s="3">
         <v>423800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>427000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>403800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-513500</v>
+        <v>-589900</v>
       </c>
       <c r="E91" s="3">
-        <v>-504900</v>
+        <v>-556700</v>
       </c>
       <c r="F91" s="3">
-        <v>-516400</v>
+        <v>-547400</v>
       </c>
       <c r="G91" s="3">
-        <v>-564500</v>
+        <v>-559800</v>
       </c>
       <c r="H91" s="3">
-        <v>-392200</v>
+        <v>-612000</v>
       </c>
       <c r="I91" s="3">
-        <v>-337600</v>
+        <v>-425200</v>
       </c>
       <c r="J91" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-424100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-321600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-320400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-396900</v>
+        <v>-581500</v>
       </c>
       <c r="E94" s="3">
-        <v>-500800</v>
+        <v>-430300</v>
       </c>
       <c r="F94" s="3">
-        <v>-440600</v>
+        <v>-542900</v>
       </c>
       <c r="G94" s="3">
-        <v>-441900</v>
+        <v>-477600</v>
       </c>
       <c r="H94" s="3">
-        <v>-547000</v>
+        <v>-479100</v>
       </c>
       <c r="I94" s="3">
-        <v>-344100</v>
+        <v>-593000</v>
       </c>
       <c r="J94" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-288500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-315400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-336300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>46300</v>
+        <v>-180600</v>
       </c>
       <c r="E100" s="3">
-        <v>47700</v>
+        <v>50200</v>
       </c>
       <c r="F100" s="3">
-        <v>115200</v>
+        <v>51800</v>
       </c>
       <c r="G100" s="3">
-        <v>4600</v>
+        <v>124900</v>
       </c>
       <c r="H100" s="3">
-        <v>27400</v>
+        <v>5000</v>
       </c>
       <c r="I100" s="3">
-        <v>45600</v>
+        <v>29700</v>
       </c>
       <c r="J100" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-172000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3468,61 +3716,67 @@
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>219600</v>
+        <v>19900</v>
       </c>
       <c r="E102" s="3">
-        <v>-73200</v>
+        <v>238000</v>
       </c>
       <c r="F102" s="3">
-        <v>76800</v>
+        <v>-79300</v>
       </c>
       <c r="G102" s="3">
-        <v>-68100</v>
+        <v>83200</v>
       </c>
       <c r="H102" s="3">
-        <v>-73200</v>
+        <v>-73800</v>
       </c>
       <c r="I102" s="3">
-        <v>119900</v>
+        <v>-79400</v>
       </c>
       <c r="J102" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-36000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3119800</v>
+        <v>2843100</v>
       </c>
       <c r="E8" s="3">
-        <v>3106800</v>
+        <v>2831400</v>
       </c>
       <c r="F8" s="3">
-        <v>3015200</v>
+        <v>2747900</v>
       </c>
       <c r="G8" s="3">
-        <v>2862700</v>
+        <v>2608900</v>
       </c>
       <c r="H8" s="3">
-        <v>2957200</v>
+        <v>2695000</v>
       </c>
       <c r="I8" s="3">
-        <v>2694100</v>
+        <v>2455200</v>
       </c>
       <c r="J8" s="3">
-        <v>2364600</v>
+        <v>2155000</v>
       </c>
       <c r="K8" s="3">
         <v>2083200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>625000</v>
+        <v>569600</v>
       </c>
       <c r="E9" s="3">
-        <v>671900</v>
+        <v>612300</v>
       </c>
       <c r="F9" s="3">
-        <v>587900</v>
+        <v>535800</v>
       </c>
       <c r="G9" s="3">
-        <v>958000</v>
+        <v>873100</v>
       </c>
       <c r="H9" s="3">
-        <v>658000</v>
+        <v>599700</v>
       </c>
       <c r="I9" s="3">
-        <v>563300</v>
+        <v>513300</v>
       </c>
       <c r="J9" s="3">
-        <v>446000</v>
+        <v>406500</v>
       </c>
       <c r="K9" s="3">
         <v>407500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2494800</v>
+        <v>2273600</v>
       </c>
       <c r="E10" s="3">
-        <v>2435000</v>
+        <v>2219100</v>
       </c>
       <c r="F10" s="3">
-        <v>2427300</v>
+        <v>2212100</v>
       </c>
       <c r="G10" s="3">
-        <v>1904700</v>
+        <v>1735800</v>
       </c>
       <c r="H10" s="3">
-        <v>2299200</v>
+        <v>2095400</v>
       </c>
       <c r="I10" s="3">
-        <v>2130800</v>
+        <v>1941900</v>
       </c>
       <c r="J10" s="3">
-        <v>1918600</v>
+        <v>1748500</v>
       </c>
       <c r="K10" s="3">
         <v>1675600</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14400</v>
+        <v>13200</v>
       </c>
       <c r="E14" s="3">
-        <v>59800</v>
+        <v>54500</v>
       </c>
       <c r="F14" s="3">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="G14" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="3">
-        <v>10300</v>
+        <v>9400</v>
       </c>
       <c r="I14" s="3">
-        <v>12300</v>
+        <v>11200</v>
       </c>
       <c r="J14" s="3">
-        <v>15900</v>
+        <v>14500</v>
       </c>
       <c r="K14" s="3">
         <v>42100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>481400</v>
+        <v>438800</v>
       </c>
       <c r="E15" s="3">
-        <v>469200</v>
+        <v>427600</v>
       </c>
       <c r="F15" s="3">
-        <v>400200</v>
+        <v>364700</v>
       </c>
       <c r="G15" s="3">
-        <v>399700</v>
+        <v>364300</v>
       </c>
       <c r="H15" s="3">
-        <v>398300</v>
+        <v>363000</v>
       </c>
       <c r="I15" s="3">
-        <v>384600</v>
+        <v>350500</v>
       </c>
       <c r="J15" s="3">
-        <v>381500</v>
+        <v>347600</v>
       </c>
       <c r="K15" s="3">
         <v>350100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2770900</v>
+        <v>2525200</v>
       </c>
       <c r="E17" s="3">
-        <v>2917800</v>
+        <v>2659100</v>
       </c>
       <c r="F17" s="3">
-        <v>2671200</v>
+        <v>2434300</v>
       </c>
       <c r="G17" s="3">
-        <v>2513600</v>
+        <v>2290700</v>
       </c>
       <c r="H17" s="3">
-        <v>2580900</v>
+        <v>2352000</v>
       </c>
       <c r="I17" s="3">
-        <v>2457500</v>
+        <v>2239600</v>
       </c>
       <c r="J17" s="3">
-        <v>2123800</v>
+        <v>1935500</v>
       </c>
       <c r="K17" s="3">
         <v>1811800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>348800</v>
+        <v>317900</v>
       </c>
       <c r="E18" s="3">
-        <v>189000</v>
+        <v>172300</v>
       </c>
       <c r="F18" s="3">
-        <v>344100</v>
+        <v>313600</v>
       </c>
       <c r="G18" s="3">
-        <v>349100</v>
+        <v>318200</v>
       </c>
       <c r="H18" s="3">
-        <v>376300</v>
+        <v>343000</v>
       </c>
       <c r="I18" s="3">
-        <v>236600</v>
+        <v>215600</v>
       </c>
       <c r="J18" s="3">
-        <v>240800</v>
+        <v>219400</v>
       </c>
       <c r="K18" s="3">
         <v>271400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6400</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-10300</v>
+        <v>-9400</v>
       </c>
       <c r="F20" s="3">
-        <v>9000</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3">
-        <v>11400</v>
+        <v>10400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="I20" s="3">
-        <v>7400</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="3">
-        <v>-13000</v>
+        <v>-11800</v>
       </c>
       <c r="K20" s="3">
         <v>-8600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>836100</v>
+        <v>771900</v>
       </c>
       <c r="E21" s="3">
-        <v>675600</v>
+        <v>625800</v>
       </c>
       <c r="F21" s="3">
-        <v>770900</v>
+        <v>711000</v>
       </c>
       <c r="G21" s="3">
-        <v>761900</v>
+        <v>702400</v>
       </c>
       <c r="H21" s="3">
-        <v>779500</v>
+        <v>718600</v>
       </c>
       <c r="I21" s="3">
-        <v>641100</v>
+        <v>592300</v>
       </c>
       <c r="J21" s="3">
-        <v>623400</v>
+        <v>576100</v>
       </c>
       <c r="K21" s="3">
         <v>659400</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>90200</v>
+        <v>82200</v>
       </c>
       <c r="E22" s="3">
-        <v>113300</v>
+        <v>103300</v>
       </c>
       <c r="F22" s="3">
-        <v>63900</v>
+        <v>58200</v>
       </c>
       <c r="G22" s="3">
-        <v>63800</v>
+        <v>58100</v>
       </c>
       <c r="H22" s="3">
-        <v>44600</v>
+        <v>40700</v>
       </c>
       <c r="I22" s="3">
-        <v>37600</v>
+        <v>34300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>252300</v>
+        <v>229900</v>
       </c>
       <c r="E23" s="3">
-        <v>65400</v>
+        <v>59600</v>
       </c>
       <c r="F23" s="3">
-        <v>289200</v>
+        <v>263600</v>
       </c>
       <c r="G23" s="3">
-        <v>296700</v>
+        <v>270400</v>
       </c>
       <c r="H23" s="3">
-        <v>328100</v>
+        <v>299000</v>
       </c>
       <c r="I23" s="3">
-        <v>206400</v>
+        <v>188100</v>
       </c>
       <c r="J23" s="3">
-        <v>227800</v>
+        <v>207600</v>
       </c>
       <c r="K23" s="3">
         <v>262800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77000</v>
+        <v>70200</v>
       </c>
       <c r="E24" s="3">
-        <v>26400</v>
+        <v>24100</v>
       </c>
       <c r="F24" s="3">
-        <v>84900</v>
+        <v>77400</v>
       </c>
       <c r="G24" s="3">
-        <v>80300</v>
+        <v>73200</v>
       </c>
       <c r="H24" s="3">
-        <v>49900</v>
+        <v>45500</v>
       </c>
       <c r="I24" s="3">
-        <v>38800</v>
+        <v>35400</v>
       </c>
       <c r="J24" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="K24" s="3">
         <v>23800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>175300</v>
+        <v>159700</v>
       </c>
       <c r="E26" s="3">
-        <v>39000</v>
+        <v>35500</v>
       </c>
       <c r="F26" s="3">
-        <v>204300</v>
+        <v>186200</v>
       </c>
       <c r="G26" s="3">
-        <v>216400</v>
+        <v>197200</v>
       </c>
       <c r="H26" s="3">
-        <v>278200</v>
+        <v>253500</v>
       </c>
       <c r="I26" s="3">
-        <v>167500</v>
+        <v>152700</v>
       </c>
       <c r="J26" s="3">
-        <v>229800</v>
+        <v>209400</v>
       </c>
       <c r="K26" s="3">
         <v>239000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>174800</v>
+        <v>159300</v>
       </c>
       <c r="E27" s="3">
-        <v>38600</v>
+        <v>35200</v>
       </c>
       <c r="F27" s="3">
-        <v>201700</v>
+        <v>183900</v>
       </c>
       <c r="G27" s="3">
-        <v>210500</v>
+        <v>191900</v>
       </c>
       <c r="H27" s="3">
-        <v>274100</v>
+        <v>249800</v>
       </c>
       <c r="I27" s="3">
-        <v>159500</v>
+        <v>145400</v>
       </c>
       <c r="J27" s="3">
-        <v>222200</v>
+        <v>202500</v>
       </c>
       <c r="K27" s="3">
         <v>231000</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>26500</v>
+        <v>24100</v>
       </c>
       <c r="K29" s="3">
         <v>23500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>10300</v>
+        <v>9400</v>
       </c>
       <c r="F32" s="3">
-        <v>-9000</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11400</v>
+        <v>-10400</v>
       </c>
       <c r="H32" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-7400</v>
+        <v>-6700</v>
       </c>
       <c r="J32" s="3">
-        <v>13000</v>
+        <v>11800</v>
       </c>
       <c r="K32" s="3">
         <v>8600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>174800</v>
+        <v>159300</v>
       </c>
       <c r="E33" s="3">
-        <v>38600</v>
+        <v>35200</v>
       </c>
       <c r="F33" s="3">
-        <v>201700</v>
+        <v>183900</v>
       </c>
       <c r="G33" s="3">
-        <v>210500</v>
+        <v>191900</v>
       </c>
       <c r="H33" s="3">
-        <v>274100</v>
+        <v>249800</v>
       </c>
       <c r="I33" s="3">
-        <v>159500</v>
+        <v>145400</v>
       </c>
       <c r="J33" s="3">
-        <v>248700</v>
+        <v>226700</v>
       </c>
       <c r="K33" s="3">
         <v>254500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>174800</v>
+        <v>159300</v>
       </c>
       <c r="E35" s="3">
-        <v>38600</v>
+        <v>35200</v>
       </c>
       <c r="F35" s="3">
-        <v>201700</v>
+        <v>183900</v>
       </c>
       <c r="G35" s="3">
-        <v>210500</v>
+        <v>191900</v>
       </c>
       <c r="H35" s="3">
-        <v>274100</v>
+        <v>249800</v>
       </c>
       <c r="I35" s="3">
-        <v>159500</v>
+        <v>145400</v>
       </c>
       <c r="J35" s="3">
-        <v>248700</v>
+        <v>226700</v>
       </c>
       <c r="K35" s="3">
         <v>254500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>361100</v>
+        <v>329100</v>
       </c>
       <c r="E41" s="3">
-        <v>159400</v>
+        <v>145200</v>
       </c>
       <c r="F41" s="3">
-        <v>94400</v>
+        <v>86000</v>
       </c>
       <c r="G41" s="3">
-        <v>108100</v>
+        <v>98500</v>
       </c>
       <c r="H41" s="3">
-        <v>174700</v>
+        <v>159300</v>
       </c>
       <c r="I41" s="3">
-        <v>30200</v>
+        <v>27500</v>
       </c>
       <c r="J41" s="3">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="K41" s="3">
         <v>12800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="E42" s="3">
-        <v>248300</v>
+        <v>226300</v>
       </c>
       <c r="F42" s="3">
-        <v>150200</v>
+        <v>136900</v>
       </c>
       <c r="G42" s="3">
-        <v>197100</v>
+        <v>179600</v>
       </c>
       <c r="H42" s="3">
+        <v>208700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>140100</v>
+      </c>
+      <c r="J42" s="3">
         <v>229000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>153700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>251300</v>
       </c>
       <c r="K42" s="3">
         <v>109800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>623700</v>
+        <v>578500</v>
       </c>
       <c r="E43" s="3">
-        <v>620500</v>
+        <v>575900</v>
       </c>
       <c r="F43" s="3">
-        <v>681400</v>
+        <v>621000</v>
       </c>
       <c r="G43" s="3">
-        <v>1046700</v>
+        <v>953900</v>
       </c>
       <c r="H43" s="3">
-        <v>1143800</v>
+        <v>1042300</v>
       </c>
       <c r="I43" s="3">
-        <v>432000</v>
+        <v>393700</v>
       </c>
       <c r="J43" s="3">
-        <v>328300</v>
+        <v>299200</v>
       </c>
       <c r="K43" s="3">
         <v>293400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>85200</v>
+        <v>67500</v>
       </c>
       <c r="E44" s="3">
-        <v>81600</v>
+        <v>63900</v>
       </c>
       <c r="F44" s="3">
-        <v>91500</v>
+        <v>83300</v>
       </c>
       <c r="G44" s="3">
-        <v>200400</v>
+        <v>182600</v>
       </c>
       <c r="H44" s="3">
-        <v>191400</v>
+        <v>174400</v>
       </c>
       <c r="I44" s="3">
-        <v>140200</v>
+        <v>127700</v>
       </c>
       <c r="J44" s="3">
-        <v>46100</v>
+        <v>42000</v>
       </c>
       <c r="K44" s="3">
         <v>43000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73500</v>
+        <v>67000</v>
       </c>
       <c r="E45" s="3">
-        <v>67800</v>
+        <v>61800</v>
       </c>
       <c r="F45" s="3">
-        <v>49600</v>
+        <v>45200</v>
       </c>
       <c r="G45" s="3">
-        <v>38000</v>
+        <v>34700</v>
       </c>
       <c r="H45" s="3">
-        <v>52300</v>
+        <v>47700</v>
       </c>
       <c r="I45" s="3">
-        <v>242500</v>
+        <v>221000</v>
       </c>
       <c r="J45" s="3">
-        <v>165800</v>
+        <v>151100</v>
       </c>
       <c r="K45" s="3">
         <v>97900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1149800</v>
+        <v>1047900</v>
       </c>
       <c r="E46" s="3">
-        <v>1177600</v>
+        <v>1073200</v>
       </c>
       <c r="F46" s="3">
-        <v>1067000</v>
+        <v>972400</v>
       </c>
       <c r="G46" s="3">
-        <v>994500</v>
+        <v>906300</v>
       </c>
       <c r="H46" s="3">
-        <v>977200</v>
+        <v>890600</v>
       </c>
       <c r="I46" s="3">
-        <v>928500</v>
+        <v>846200</v>
       </c>
       <c r="J46" s="3">
-        <v>803100</v>
+        <v>731900</v>
       </c>
       <c r="K46" s="3">
         <v>557000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33600</v>
+        <v>30700</v>
       </c>
       <c r="E47" s="3">
-        <v>29000</v>
+        <v>26400</v>
       </c>
       <c r="F47" s="3">
-        <v>30400</v>
+        <v>27700</v>
       </c>
       <c r="G47" s="3">
-        <v>30500</v>
+        <v>27800</v>
       </c>
       <c r="H47" s="3">
-        <v>49400</v>
+        <v>45000</v>
       </c>
       <c r="I47" s="3">
-        <v>191600</v>
+        <v>174600</v>
       </c>
       <c r="J47" s="3">
-        <v>194900</v>
+        <v>177600</v>
       </c>
       <c r="K47" s="3">
         <v>202100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2944200</v>
+        <v>2683200</v>
       </c>
       <c r="E48" s="3">
-        <v>2750800</v>
+        <v>2506900</v>
       </c>
       <c r="F48" s="3">
-        <v>2312300</v>
+        <v>2107300</v>
       </c>
       <c r="G48" s="3">
-        <v>4381400</v>
+        <v>3992900</v>
       </c>
       <c r="H48" s="3">
-        <v>4026300</v>
+        <v>3669300</v>
       </c>
       <c r="I48" s="3">
-        <v>2028200</v>
+        <v>1848400</v>
       </c>
       <c r="J48" s="3">
-        <v>1766900</v>
+        <v>1610200</v>
       </c>
       <c r="K48" s="3">
         <v>1672700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>332400</v>
+        <v>302900</v>
       </c>
       <c r="E49" s="3">
-        <v>342100</v>
+        <v>311700</v>
       </c>
       <c r="F49" s="3">
-        <v>326300</v>
+        <v>297400</v>
       </c>
       <c r="G49" s="3">
-        <v>648500</v>
+        <v>591000</v>
       </c>
       <c r="H49" s="3">
-        <v>681300</v>
+        <v>620900</v>
       </c>
       <c r="I49" s="3">
-        <v>318000</v>
+        <v>289800</v>
       </c>
       <c r="J49" s="3">
-        <v>215200</v>
+        <v>196200</v>
       </c>
       <c r="K49" s="3">
         <v>188600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147200</v>
+        <v>134200</v>
       </c>
       <c r="E52" s="3">
-        <v>131400</v>
+        <v>119700</v>
       </c>
       <c r="F52" s="3">
-        <v>85500</v>
+        <v>77900</v>
       </c>
       <c r="G52" s="3">
-        <v>95600</v>
+        <v>87200</v>
       </c>
       <c r="H52" s="3">
-        <v>78300</v>
+        <v>71400</v>
       </c>
       <c r="I52" s="3">
-        <v>92400</v>
+        <v>84200</v>
       </c>
       <c r="J52" s="3">
-        <v>118300</v>
+        <v>107800</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4607300</v>
+        <v>4198800</v>
       </c>
       <c r="E54" s="3">
-        <v>4430800</v>
+        <v>4038000</v>
       </c>
       <c r="F54" s="3">
-        <v>3821500</v>
+        <v>3482700</v>
       </c>
       <c r="G54" s="3">
-        <v>3633600</v>
+        <v>3311400</v>
       </c>
       <c r="H54" s="3">
-        <v>3456700</v>
+        <v>3150200</v>
       </c>
       <c r="I54" s="3">
-        <v>3360200</v>
+        <v>3062300</v>
       </c>
       <c r="J54" s="3">
-        <v>3030300</v>
+        <v>2761600</v>
       </c>
       <c r="K54" s="3">
         <v>2623600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>493500</v>
+        <v>449700</v>
       </c>
       <c r="E57" s="3">
-        <v>367000</v>
+        <v>334400</v>
       </c>
       <c r="F57" s="3">
-        <v>527100</v>
+        <v>480300</v>
       </c>
       <c r="G57" s="3">
-        <v>492600</v>
+        <v>448900</v>
       </c>
       <c r="H57" s="3">
-        <v>818200</v>
+        <v>745600</v>
       </c>
       <c r="I57" s="3">
-        <v>514900</v>
+        <v>469300</v>
       </c>
       <c r="J57" s="3">
-        <v>406700</v>
+        <v>370700</v>
       </c>
       <c r="K57" s="3">
         <v>340800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137500</v>
+        <v>125300</v>
       </c>
       <c r="E58" s="3">
-        <v>214300</v>
+        <v>195300</v>
       </c>
       <c r="F58" s="3">
-        <v>389800</v>
+        <v>355300</v>
       </c>
       <c r="G58" s="3">
-        <v>163800</v>
+        <v>149300</v>
       </c>
       <c r="H58" s="3">
-        <v>228700</v>
+        <v>208500</v>
       </c>
       <c r="I58" s="3">
-        <v>51200</v>
+        <v>46600</v>
       </c>
       <c r="J58" s="3">
-        <v>116400</v>
+        <v>106100</v>
       </c>
       <c r="K58" s="3">
         <v>21400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>622700</v>
+        <v>567500</v>
       </c>
       <c r="E59" s="3">
-        <v>656200</v>
+        <v>598000</v>
       </c>
       <c r="F59" s="3">
-        <v>269400</v>
+        <v>245600</v>
       </c>
       <c r="G59" s="3">
-        <v>531200</v>
+        <v>484100</v>
       </c>
       <c r="H59" s="3">
-        <v>550000</v>
+        <v>501200</v>
       </c>
       <c r="I59" s="3">
-        <v>378300</v>
+        <v>344800</v>
       </c>
       <c r="J59" s="3">
-        <v>319000</v>
+        <v>290700</v>
       </c>
       <c r="K59" s="3">
         <v>310300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1253700</v>
+        <v>1142500</v>
       </c>
       <c r="E60" s="3">
-        <v>1237500</v>
+        <v>1127700</v>
       </c>
       <c r="F60" s="3">
-        <v>1186400</v>
+        <v>1081200</v>
       </c>
       <c r="G60" s="3">
-        <v>932700</v>
+        <v>850000</v>
       </c>
       <c r="H60" s="3">
-        <v>943200</v>
+        <v>859500</v>
       </c>
       <c r="I60" s="3">
-        <v>944400</v>
+        <v>860700</v>
       </c>
       <c r="J60" s="3">
-        <v>828800</v>
+        <v>755400</v>
       </c>
       <c r="K60" s="3">
         <v>672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1005800</v>
+        <v>916600</v>
       </c>
       <c r="E61" s="3">
-        <v>997000</v>
+        <v>908600</v>
       </c>
       <c r="F61" s="3">
-        <v>349400</v>
+        <v>318400</v>
       </c>
       <c r="G61" s="3">
-        <v>516700</v>
+        <v>470900</v>
       </c>
       <c r="H61" s="3">
-        <v>341600</v>
+        <v>311300</v>
       </c>
       <c r="I61" s="3">
-        <v>329600</v>
+        <v>300400</v>
       </c>
       <c r="J61" s="3">
-        <v>234200</v>
+        <v>213400</v>
       </c>
       <c r="K61" s="3">
         <v>251300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85700</v>
+        <v>78100</v>
       </c>
       <c r="E62" s="3">
-        <v>68900</v>
+        <v>62800</v>
       </c>
       <c r="F62" s="3">
-        <v>137100</v>
+        <v>125000</v>
       </c>
       <c r="G62" s="3">
-        <v>224500</v>
+        <v>204600</v>
       </c>
       <c r="H62" s="3">
-        <v>163000</v>
+        <v>148500</v>
       </c>
       <c r="I62" s="3">
-        <v>183200</v>
+        <v>166900</v>
       </c>
       <c r="J62" s="3">
-        <v>146400</v>
+        <v>133400</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2343300</v>
+        <v>2135500</v>
       </c>
       <c r="E66" s="3">
-        <v>2301200</v>
+        <v>2097200</v>
       </c>
       <c r="F66" s="3">
-        <v>1686900</v>
+        <v>1537300</v>
       </c>
       <c r="G66" s="3">
-        <v>1687900</v>
+        <v>1538200</v>
       </c>
       <c r="H66" s="3">
-        <v>1462000</v>
+        <v>1332400</v>
       </c>
       <c r="I66" s="3">
-        <v>1485300</v>
+        <v>1353600</v>
       </c>
       <c r="J66" s="3">
-        <v>1235600</v>
+        <v>1126000</v>
       </c>
       <c r="K66" s="3">
         <v>1107500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1899500</v>
+        <v>1731100</v>
       </c>
       <c r="E72" s="3">
-        <v>1765100</v>
+        <v>1608600</v>
       </c>
       <c r="F72" s="3">
-        <v>1770100</v>
+        <v>1613100</v>
       </c>
       <c r="G72" s="3">
-        <v>1581200</v>
+        <v>1441000</v>
       </c>
       <c r="H72" s="3">
-        <v>1618800</v>
+        <v>1475200</v>
       </c>
       <c r="I72" s="3">
-        <v>1499000</v>
+        <v>1366100</v>
       </c>
       <c r="J72" s="3">
-        <v>1418800</v>
+        <v>1293000</v>
       </c>
       <c r="K72" s="3">
         <v>1220700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2264000</v>
+        <v>2063300</v>
       </c>
       <c r="E76" s="3">
-        <v>2129600</v>
+        <v>1940800</v>
       </c>
       <c r="F76" s="3">
-        <v>2134600</v>
+        <v>1945300</v>
       </c>
       <c r="G76" s="3">
-        <v>1945800</v>
+        <v>1773200</v>
       </c>
       <c r="H76" s="3">
-        <v>1994700</v>
+        <v>1817800</v>
       </c>
       <c r="I76" s="3">
-        <v>1874900</v>
+        <v>1708600</v>
       </c>
       <c r="J76" s="3">
-        <v>1794700</v>
+        <v>1635600</v>
       </c>
       <c r="K76" s="3">
         <v>1516100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>174800</v>
+        <v>159300</v>
       </c>
       <c r="E81" s="3">
-        <v>38600</v>
+        <v>35200</v>
       </c>
       <c r="F81" s="3">
-        <v>201700</v>
+        <v>183900</v>
       </c>
       <c r="G81" s="3">
-        <v>210500</v>
+        <v>191900</v>
       </c>
       <c r="H81" s="3">
-        <v>274100</v>
+        <v>249800</v>
       </c>
       <c r="I81" s="3">
-        <v>159500</v>
+        <v>145400</v>
       </c>
       <c r="J81" s="3">
-        <v>248700</v>
+        <v>226700</v>
       </c>
       <c r="K81" s="3">
         <v>254500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>495900</v>
+        <v>451900</v>
       </c>
       <c r="E83" s="3">
-        <v>499100</v>
+        <v>454900</v>
       </c>
       <c r="F83" s="3">
-        <v>419700</v>
+        <v>382400</v>
       </c>
       <c r="G83" s="3">
-        <v>403100</v>
+        <v>367400</v>
       </c>
       <c r="H83" s="3">
-        <v>408600</v>
+        <v>372400</v>
       </c>
       <c r="I83" s="3">
-        <v>398900</v>
+        <v>363600</v>
       </c>
       <c r="J83" s="3">
-        <v>397400</v>
+        <v>362100</v>
       </c>
       <c r="K83" s="3">
         <v>395300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>782000</v>
+        <v>712700</v>
       </c>
       <c r="E89" s="3">
-        <v>618100</v>
+        <v>563300</v>
       </c>
       <c r="F89" s="3">
-        <v>411900</v>
+        <v>375300</v>
       </c>
       <c r="G89" s="3">
-        <v>435900</v>
+        <v>397200</v>
       </c>
       <c r="H89" s="3">
-        <v>400000</v>
+        <v>364600</v>
       </c>
       <c r="I89" s="3">
-        <v>483700</v>
+        <v>440800</v>
       </c>
       <c r="J89" s="3">
-        <v>453400</v>
+        <v>413200</v>
       </c>
       <c r="K89" s="3">
         <v>423800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-589900</v>
+        <v>-537600</v>
       </c>
       <c r="E91" s="3">
-        <v>-556700</v>
+        <v>-507300</v>
       </c>
       <c r="F91" s="3">
-        <v>-547400</v>
+        <v>-498900</v>
       </c>
       <c r="G91" s="3">
-        <v>-559800</v>
+        <v>-510200</v>
       </c>
       <c r="H91" s="3">
-        <v>-612000</v>
+        <v>-557700</v>
       </c>
       <c r="I91" s="3">
-        <v>-425200</v>
+        <v>-387500</v>
       </c>
       <c r="J91" s="3">
-        <v>-366000</v>
+        <v>-333500</v>
       </c>
       <c r="K91" s="3">
         <v>-424100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-581500</v>
+        <v>-529900</v>
       </c>
       <c r="E94" s="3">
-        <v>-430300</v>
+        <v>-392100</v>
       </c>
       <c r="F94" s="3">
-        <v>-542900</v>
+        <v>-494800</v>
       </c>
       <c r="G94" s="3">
-        <v>-477600</v>
+        <v>-435300</v>
       </c>
       <c r="H94" s="3">
-        <v>-479100</v>
+        <v>-436600</v>
       </c>
       <c r="I94" s="3">
-        <v>-593000</v>
+        <v>-540400</v>
       </c>
       <c r="J94" s="3">
-        <v>-373000</v>
+        <v>-340000</v>
       </c>
       <c r="K94" s="3">
         <v>-288500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-180600</v>
+        <v>-164600</v>
       </c>
       <c r="E100" s="3">
-        <v>50200</v>
+        <v>45800</v>
       </c>
       <c r="F100" s="3">
-        <v>51800</v>
+        <v>47200</v>
       </c>
       <c r="G100" s="3">
-        <v>124900</v>
+        <v>113900</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="I100" s="3">
-        <v>29700</v>
+        <v>27100</v>
       </c>
       <c r="J100" s="3">
-        <v>49400</v>
+        <v>45100</v>
       </c>
       <c r="K100" s="3">
         <v>-172000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19900</v>
+        <v>18200</v>
       </c>
       <c r="E102" s="3">
-        <v>238000</v>
+        <v>216900</v>
       </c>
       <c r="F102" s="3">
-        <v>-79300</v>
+        <v>-72300</v>
       </c>
       <c r="G102" s="3">
-        <v>83200</v>
+        <v>75800</v>
       </c>
       <c r="H102" s="3">
-        <v>-73800</v>
+        <v>-67300</v>
       </c>
       <c r="I102" s="3">
-        <v>-79400</v>
+        <v>-72400</v>
       </c>
       <c r="J102" s="3">
-        <v>130000</v>
+        <v>118500</v>
       </c>
       <c r="K102" s="3">
         <v>-36000</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2843100</v>
+        <v>2677600</v>
       </c>
       <c r="E8" s="3">
-        <v>2831400</v>
+        <v>2666500</v>
       </c>
       <c r="F8" s="3">
-        <v>2747900</v>
+        <v>2587900</v>
       </c>
       <c r="G8" s="3">
-        <v>2608900</v>
+        <v>2457000</v>
       </c>
       <c r="H8" s="3">
-        <v>2695000</v>
+        <v>2538100</v>
       </c>
       <c r="I8" s="3">
-        <v>2455200</v>
+        <v>2312300</v>
       </c>
       <c r="J8" s="3">
-        <v>2155000</v>
+        <v>2029500</v>
       </c>
       <c r="K8" s="3">
         <v>2083200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>569600</v>
+        <v>536400</v>
       </c>
       <c r="E9" s="3">
-        <v>612300</v>
+        <v>576600</v>
       </c>
       <c r="F9" s="3">
-        <v>535800</v>
+        <v>504600</v>
       </c>
       <c r="G9" s="3">
-        <v>873100</v>
+        <v>822300</v>
       </c>
       <c r="H9" s="3">
-        <v>599700</v>
+        <v>564700</v>
       </c>
       <c r="I9" s="3">
-        <v>513300</v>
+        <v>483500</v>
       </c>
       <c r="J9" s="3">
-        <v>406500</v>
+        <v>382800</v>
       </c>
       <c r="K9" s="3">
         <v>407500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2273600</v>
+        <v>2141200</v>
       </c>
       <c r="E10" s="3">
-        <v>2219100</v>
+        <v>2089900</v>
       </c>
       <c r="F10" s="3">
-        <v>2212100</v>
+        <v>2083300</v>
       </c>
       <c r="G10" s="3">
-        <v>1735800</v>
+        <v>1634700</v>
       </c>
       <c r="H10" s="3">
-        <v>2095400</v>
+        <v>1973400</v>
       </c>
       <c r="I10" s="3">
-        <v>1941900</v>
+        <v>1828800</v>
       </c>
       <c r="J10" s="3">
-        <v>1748500</v>
+        <v>1646700</v>
       </c>
       <c r="K10" s="3">
         <v>1675600</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="E14" s="3">
-        <v>54500</v>
+        <v>51300</v>
       </c>
       <c r="F14" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="G14" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H14" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="I14" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="J14" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="K14" s="3">
         <v>42100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>438800</v>
+        <v>413200</v>
       </c>
       <c r="E15" s="3">
-        <v>427600</v>
+        <v>402700</v>
       </c>
       <c r="F15" s="3">
-        <v>364700</v>
+        <v>343500</v>
       </c>
       <c r="G15" s="3">
-        <v>364300</v>
+        <v>343100</v>
       </c>
       <c r="H15" s="3">
-        <v>363000</v>
+        <v>341800</v>
       </c>
       <c r="I15" s="3">
-        <v>350500</v>
+        <v>330100</v>
       </c>
       <c r="J15" s="3">
-        <v>347600</v>
+        <v>327400</v>
       </c>
       <c r="K15" s="3">
         <v>350100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2525200</v>
+        <v>2378200</v>
       </c>
       <c r="E17" s="3">
-        <v>2659100</v>
+        <v>2504300</v>
       </c>
       <c r="F17" s="3">
-        <v>2434300</v>
+        <v>2292600</v>
       </c>
       <c r="G17" s="3">
-        <v>2290700</v>
+        <v>2157300</v>
       </c>
       <c r="H17" s="3">
-        <v>2352000</v>
+        <v>2215100</v>
       </c>
       <c r="I17" s="3">
-        <v>2239600</v>
+        <v>2109200</v>
       </c>
       <c r="J17" s="3">
-        <v>1935500</v>
+        <v>1822800</v>
       </c>
       <c r="K17" s="3">
         <v>1811800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>317900</v>
+        <v>299400</v>
       </c>
       <c r="E18" s="3">
-        <v>172300</v>
+        <v>162200</v>
       </c>
       <c r="F18" s="3">
-        <v>313600</v>
+        <v>295300</v>
       </c>
       <c r="G18" s="3">
-        <v>318200</v>
+        <v>299700</v>
       </c>
       <c r="H18" s="3">
-        <v>343000</v>
+        <v>323000</v>
       </c>
       <c r="I18" s="3">
-        <v>215600</v>
+        <v>203100</v>
       </c>
       <c r="J18" s="3">
-        <v>219400</v>
+        <v>206700</v>
       </c>
       <c r="K18" s="3">
         <v>271400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9400</v>
+        <v>-8900</v>
       </c>
       <c r="F20" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="J20" s="3">
-        <v>-11800</v>
+        <v>-11200</v>
       </c>
       <c r="K20" s="3">
         <v>-8600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>771900</v>
+        <v>715300</v>
       </c>
       <c r="E21" s="3">
-        <v>625800</v>
+        <v>577600</v>
       </c>
       <c r="F21" s="3">
-        <v>711000</v>
+        <v>659700</v>
       </c>
       <c r="G21" s="3">
-        <v>702400</v>
+        <v>652000</v>
       </c>
       <c r="H21" s="3">
-        <v>718600</v>
+        <v>667100</v>
       </c>
       <c r="I21" s="3">
-        <v>592300</v>
+        <v>548400</v>
       </c>
       <c r="J21" s="3">
-        <v>576100</v>
+        <v>533200</v>
       </c>
       <c r="K21" s="3">
         <v>659400</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>82200</v>
+        <v>77400</v>
       </c>
       <c r="E22" s="3">
-        <v>103300</v>
+        <v>97300</v>
       </c>
       <c r="F22" s="3">
-        <v>58200</v>
+        <v>54800</v>
       </c>
       <c r="G22" s="3">
-        <v>58100</v>
+        <v>54800</v>
       </c>
       <c r="H22" s="3">
-        <v>40700</v>
+        <v>38300</v>
       </c>
       <c r="I22" s="3">
-        <v>34300</v>
+        <v>32300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>229900</v>
+        <v>216500</v>
       </c>
       <c r="E23" s="3">
-        <v>59600</v>
+        <v>56100</v>
       </c>
       <c r="F23" s="3">
-        <v>263600</v>
+        <v>248200</v>
       </c>
       <c r="G23" s="3">
-        <v>270400</v>
+        <v>254700</v>
       </c>
       <c r="H23" s="3">
-        <v>299000</v>
+        <v>281600</v>
       </c>
       <c r="I23" s="3">
-        <v>188100</v>
+        <v>177100</v>
       </c>
       <c r="J23" s="3">
-        <v>207600</v>
+        <v>195500</v>
       </c>
       <c r="K23" s="3">
         <v>262800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70200</v>
+        <v>66100</v>
       </c>
       <c r="E24" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="F24" s="3">
-        <v>77400</v>
+        <v>72900</v>
       </c>
       <c r="G24" s="3">
-        <v>73200</v>
+        <v>69000</v>
       </c>
       <c r="H24" s="3">
-        <v>45500</v>
+        <v>42800</v>
       </c>
       <c r="I24" s="3">
-        <v>35400</v>
+        <v>33300</v>
       </c>
       <c r="J24" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K24" s="3">
         <v>23800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>159700</v>
+        <v>150400</v>
       </c>
       <c r="E26" s="3">
-        <v>35500</v>
+        <v>33500</v>
       </c>
       <c r="F26" s="3">
-        <v>186200</v>
+        <v>175400</v>
       </c>
       <c r="G26" s="3">
+        <v>185700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>238800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>143800</v>
+      </c>
+      <c r="J26" s="3">
         <v>197200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>253500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>152700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>209400</v>
       </c>
       <c r="K26" s="3">
         <v>239000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159300</v>
+        <v>150000</v>
       </c>
       <c r="E27" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="F27" s="3">
-        <v>183900</v>
+        <v>173200</v>
       </c>
       <c r="G27" s="3">
-        <v>191900</v>
+        <v>180700</v>
       </c>
       <c r="H27" s="3">
-        <v>249800</v>
+        <v>235200</v>
       </c>
       <c r="I27" s="3">
-        <v>145400</v>
+        <v>136900</v>
       </c>
       <c r="J27" s="3">
-        <v>202500</v>
+        <v>190700</v>
       </c>
       <c r="K27" s="3">
         <v>231000</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="K29" s="3">
         <v>23500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="E32" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-8200</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="H32" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="J32" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="K32" s="3">
         <v>8600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159300</v>
+        <v>150000</v>
       </c>
       <c r="E33" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="F33" s="3">
-        <v>183900</v>
+        <v>173200</v>
       </c>
       <c r="G33" s="3">
-        <v>191900</v>
+        <v>180700</v>
       </c>
       <c r="H33" s="3">
-        <v>249800</v>
+        <v>235200</v>
       </c>
       <c r="I33" s="3">
-        <v>145400</v>
+        <v>136900</v>
       </c>
       <c r="J33" s="3">
-        <v>226700</v>
+        <v>213500</v>
       </c>
       <c r="K33" s="3">
         <v>254500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159300</v>
+        <v>150000</v>
       </c>
       <c r="E35" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="F35" s="3">
-        <v>183900</v>
+        <v>173200</v>
       </c>
       <c r="G35" s="3">
-        <v>191900</v>
+        <v>180700</v>
       </c>
       <c r="H35" s="3">
-        <v>249800</v>
+        <v>235200</v>
       </c>
       <c r="I35" s="3">
-        <v>145400</v>
+        <v>136900</v>
       </c>
       <c r="J35" s="3">
-        <v>226700</v>
+        <v>213500</v>
       </c>
       <c r="K35" s="3">
         <v>254500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>329100</v>
+        <v>225300</v>
       </c>
       <c r="E41" s="3">
-        <v>145200</v>
+        <v>136800</v>
       </c>
       <c r="F41" s="3">
-        <v>86000</v>
+        <v>81000</v>
       </c>
       <c r="G41" s="3">
-        <v>98500</v>
+        <v>92800</v>
       </c>
       <c r="H41" s="3">
-        <v>159300</v>
+        <v>150000</v>
       </c>
       <c r="I41" s="3">
-        <v>27500</v>
+        <v>25900</v>
       </c>
       <c r="J41" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="K41" s="3">
         <v>12800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5800</v>
+        <v>90100</v>
       </c>
       <c r="E42" s="3">
-        <v>226300</v>
+        <v>213100</v>
       </c>
       <c r="F42" s="3">
-        <v>136900</v>
+        <v>128900</v>
       </c>
       <c r="G42" s="3">
-        <v>179600</v>
+        <v>169200</v>
       </c>
       <c r="H42" s="3">
-        <v>208700</v>
+        <v>196600</v>
       </c>
       <c r="I42" s="3">
-        <v>140100</v>
+        <v>132000</v>
       </c>
       <c r="J42" s="3">
-        <v>229000</v>
+        <v>215600</v>
       </c>
       <c r="K42" s="3">
         <v>109800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>578500</v>
+        <v>544900</v>
       </c>
       <c r="E43" s="3">
-        <v>575900</v>
+        <v>542400</v>
       </c>
       <c r="F43" s="3">
-        <v>621000</v>
+        <v>584800</v>
       </c>
       <c r="G43" s="3">
-        <v>953900</v>
+        <v>898300</v>
       </c>
       <c r="H43" s="3">
-        <v>1042300</v>
+        <v>981700</v>
       </c>
       <c r="I43" s="3">
-        <v>393700</v>
+        <v>370800</v>
       </c>
       <c r="J43" s="3">
-        <v>299200</v>
+        <v>281800</v>
       </c>
       <c r="K43" s="3">
         <v>293400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67500</v>
+        <v>63600</v>
       </c>
       <c r="E44" s="3">
-        <v>63900</v>
+        <v>60200</v>
       </c>
       <c r="F44" s="3">
-        <v>83300</v>
+        <v>78500</v>
       </c>
       <c r="G44" s="3">
-        <v>182600</v>
+        <v>172000</v>
       </c>
       <c r="H44" s="3">
-        <v>174400</v>
+        <v>164300</v>
       </c>
       <c r="I44" s="3">
-        <v>127700</v>
+        <v>120300</v>
       </c>
       <c r="J44" s="3">
-        <v>42000</v>
+        <v>39500</v>
       </c>
       <c r="K44" s="3">
         <v>43000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67000</v>
+        <v>63100</v>
       </c>
       <c r="E45" s="3">
-        <v>61800</v>
+        <v>58200</v>
       </c>
       <c r="F45" s="3">
-        <v>45200</v>
+        <v>42600</v>
       </c>
       <c r="G45" s="3">
-        <v>34700</v>
+        <v>32600</v>
       </c>
       <c r="H45" s="3">
-        <v>47700</v>
+        <v>44900</v>
       </c>
       <c r="I45" s="3">
-        <v>221000</v>
+        <v>208200</v>
       </c>
       <c r="J45" s="3">
-        <v>151100</v>
+        <v>142300</v>
       </c>
       <c r="K45" s="3">
         <v>97900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1047900</v>
+        <v>986900</v>
       </c>
       <c r="E46" s="3">
-        <v>1073200</v>
+        <v>1010700</v>
       </c>
       <c r="F46" s="3">
-        <v>972400</v>
+        <v>915800</v>
       </c>
       <c r="G46" s="3">
-        <v>906300</v>
+        <v>853500</v>
       </c>
       <c r="H46" s="3">
-        <v>890600</v>
+        <v>838700</v>
       </c>
       <c r="I46" s="3">
-        <v>846200</v>
+        <v>796900</v>
       </c>
       <c r="J46" s="3">
-        <v>731900</v>
+        <v>689300</v>
       </c>
       <c r="K46" s="3">
         <v>557000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30700</v>
+        <v>28900</v>
       </c>
       <c r="E47" s="3">
-        <v>26400</v>
+        <v>24900</v>
       </c>
       <c r="F47" s="3">
-        <v>27700</v>
+        <v>26100</v>
       </c>
       <c r="G47" s="3">
-        <v>27800</v>
+        <v>26100</v>
       </c>
       <c r="H47" s="3">
-        <v>45000</v>
+        <v>42400</v>
       </c>
       <c r="I47" s="3">
-        <v>174600</v>
+        <v>164400</v>
       </c>
       <c r="J47" s="3">
-        <v>177600</v>
+        <v>167300</v>
       </c>
       <c r="K47" s="3">
         <v>202100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2683200</v>
+        <v>2526900</v>
       </c>
       <c r="E48" s="3">
-        <v>2506900</v>
+        <v>2360900</v>
       </c>
       <c r="F48" s="3">
-        <v>2107300</v>
+        <v>1984600</v>
       </c>
       <c r="G48" s="3">
-        <v>3992900</v>
+        <v>3760400</v>
       </c>
       <c r="H48" s="3">
-        <v>3669300</v>
+        <v>3455600</v>
       </c>
       <c r="I48" s="3">
-        <v>1848400</v>
+        <v>1740700</v>
       </c>
       <c r="J48" s="3">
-        <v>1610200</v>
+        <v>1516500</v>
       </c>
       <c r="K48" s="3">
         <v>1672700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>302900</v>
+        <v>285300</v>
       </c>
       <c r="E49" s="3">
-        <v>311700</v>
+        <v>293600</v>
       </c>
       <c r="F49" s="3">
-        <v>297400</v>
+        <v>280100</v>
       </c>
       <c r="G49" s="3">
-        <v>591000</v>
+        <v>556600</v>
       </c>
       <c r="H49" s="3">
-        <v>620900</v>
+        <v>584700</v>
       </c>
       <c r="I49" s="3">
-        <v>289800</v>
+        <v>272900</v>
       </c>
       <c r="J49" s="3">
-        <v>196200</v>
+        <v>184700</v>
       </c>
       <c r="K49" s="3">
         <v>188600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134200</v>
+        <v>126400</v>
       </c>
       <c r="E52" s="3">
-        <v>119700</v>
+        <v>112700</v>
       </c>
       <c r="F52" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="G52" s="3">
-        <v>87200</v>
+        <v>82100</v>
       </c>
       <c r="H52" s="3">
-        <v>71400</v>
+        <v>67200</v>
       </c>
       <c r="I52" s="3">
-        <v>84200</v>
+        <v>79300</v>
       </c>
       <c r="J52" s="3">
-        <v>107800</v>
+        <v>101500</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4198800</v>
+        <v>3954300</v>
       </c>
       <c r="E54" s="3">
-        <v>4038000</v>
+        <v>3802900</v>
       </c>
       <c r="F54" s="3">
-        <v>3482700</v>
+        <v>3279900</v>
       </c>
       <c r="G54" s="3">
-        <v>3311400</v>
+        <v>3118600</v>
       </c>
       <c r="H54" s="3">
-        <v>3150200</v>
+        <v>2966800</v>
       </c>
       <c r="I54" s="3">
-        <v>3062300</v>
+        <v>2884000</v>
       </c>
       <c r="J54" s="3">
-        <v>2761600</v>
+        <v>2600800</v>
       </c>
       <c r="K54" s="3">
         <v>2623600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>449700</v>
+        <v>423600</v>
       </c>
       <c r="E57" s="3">
-        <v>334400</v>
+        <v>315000</v>
       </c>
       <c r="F57" s="3">
-        <v>480300</v>
+        <v>452400</v>
       </c>
       <c r="G57" s="3">
-        <v>448900</v>
+        <v>422700</v>
       </c>
       <c r="H57" s="3">
-        <v>745600</v>
+        <v>702200</v>
       </c>
       <c r="I57" s="3">
-        <v>469300</v>
+        <v>442000</v>
       </c>
       <c r="J57" s="3">
-        <v>370700</v>
+        <v>349100</v>
       </c>
       <c r="K57" s="3">
         <v>340800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125300</v>
+        <v>118000</v>
       </c>
       <c r="E58" s="3">
-        <v>195300</v>
+        <v>183900</v>
       </c>
       <c r="F58" s="3">
-        <v>355300</v>
+        <v>334600</v>
       </c>
       <c r="G58" s="3">
-        <v>149300</v>
+        <v>140600</v>
       </c>
       <c r="H58" s="3">
-        <v>208500</v>
+        <v>196300</v>
       </c>
       <c r="I58" s="3">
-        <v>46600</v>
+        <v>43900</v>
       </c>
       <c r="J58" s="3">
-        <v>106100</v>
+        <v>99900</v>
       </c>
       <c r="K58" s="3">
         <v>21400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>567500</v>
+        <v>534400</v>
       </c>
       <c r="E59" s="3">
-        <v>598000</v>
+        <v>563200</v>
       </c>
       <c r="F59" s="3">
-        <v>245600</v>
+        <v>231300</v>
       </c>
       <c r="G59" s="3">
-        <v>484100</v>
+        <v>456000</v>
       </c>
       <c r="H59" s="3">
-        <v>501200</v>
+        <v>472100</v>
       </c>
       <c r="I59" s="3">
-        <v>344800</v>
+        <v>324700</v>
       </c>
       <c r="J59" s="3">
-        <v>290700</v>
+        <v>273800</v>
       </c>
       <c r="K59" s="3">
         <v>310300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1142500</v>
+        <v>1076000</v>
       </c>
       <c r="E60" s="3">
-        <v>1127700</v>
+        <v>1062100</v>
       </c>
       <c r="F60" s="3">
-        <v>1081200</v>
+        <v>1018200</v>
       </c>
       <c r="G60" s="3">
-        <v>850000</v>
+        <v>800500</v>
       </c>
       <c r="H60" s="3">
-        <v>859500</v>
+        <v>809500</v>
       </c>
       <c r="I60" s="3">
-        <v>860700</v>
+        <v>810600</v>
       </c>
       <c r="J60" s="3">
-        <v>755400</v>
+        <v>711400</v>
       </c>
       <c r="K60" s="3">
         <v>672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>916600</v>
+        <v>863200</v>
       </c>
       <c r="E61" s="3">
-        <v>908600</v>
+        <v>855700</v>
       </c>
       <c r="F61" s="3">
-        <v>318400</v>
+        <v>299800</v>
       </c>
       <c r="G61" s="3">
-        <v>470900</v>
+        <v>443400</v>
       </c>
       <c r="H61" s="3">
-        <v>311300</v>
+        <v>293200</v>
       </c>
       <c r="I61" s="3">
-        <v>300400</v>
+        <v>282900</v>
       </c>
       <c r="J61" s="3">
-        <v>213400</v>
+        <v>201000</v>
       </c>
       <c r="K61" s="3">
         <v>251300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78100</v>
+        <v>73500</v>
       </c>
       <c r="E62" s="3">
-        <v>62800</v>
+        <v>59100</v>
       </c>
       <c r="F62" s="3">
-        <v>125000</v>
+        <v>117700</v>
       </c>
       <c r="G62" s="3">
-        <v>204600</v>
+        <v>192700</v>
       </c>
       <c r="H62" s="3">
-        <v>148500</v>
+        <v>139900</v>
       </c>
       <c r="I62" s="3">
-        <v>166900</v>
+        <v>157200</v>
       </c>
       <c r="J62" s="3">
-        <v>133400</v>
+        <v>125600</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2135500</v>
+        <v>2011200</v>
       </c>
       <c r="E66" s="3">
-        <v>2097200</v>
+        <v>1975100</v>
       </c>
       <c r="F66" s="3">
-        <v>1537300</v>
+        <v>1447800</v>
       </c>
       <c r="G66" s="3">
-        <v>1538200</v>
+        <v>1448600</v>
       </c>
       <c r="H66" s="3">
-        <v>1332400</v>
+        <v>1254800</v>
       </c>
       <c r="I66" s="3">
-        <v>1353600</v>
+        <v>1274800</v>
       </c>
       <c r="J66" s="3">
-        <v>1126000</v>
+        <v>1060500</v>
       </c>
       <c r="K66" s="3">
         <v>1107500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1731100</v>
+        <v>1630300</v>
       </c>
       <c r="E72" s="3">
-        <v>1608600</v>
+        <v>1514900</v>
       </c>
       <c r="F72" s="3">
-        <v>1613100</v>
+        <v>1519200</v>
       </c>
       <c r="G72" s="3">
-        <v>1441000</v>
+        <v>1357100</v>
       </c>
       <c r="H72" s="3">
-        <v>1475200</v>
+        <v>1389400</v>
       </c>
       <c r="I72" s="3">
-        <v>1366100</v>
+        <v>1286500</v>
       </c>
       <c r="J72" s="3">
-        <v>1293000</v>
+        <v>1217700</v>
       </c>
       <c r="K72" s="3">
         <v>1220700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2063300</v>
+        <v>1943100</v>
       </c>
       <c r="E76" s="3">
-        <v>1940800</v>
+        <v>1827800</v>
       </c>
       <c r="F76" s="3">
-        <v>1945300</v>
+        <v>1832000</v>
       </c>
       <c r="G76" s="3">
-        <v>1773200</v>
+        <v>1670000</v>
       </c>
       <c r="H76" s="3">
-        <v>1817800</v>
+        <v>1712000</v>
       </c>
       <c r="I76" s="3">
-        <v>1708600</v>
+        <v>1609200</v>
       </c>
       <c r="J76" s="3">
-        <v>1635600</v>
+        <v>1540300</v>
       </c>
       <c r="K76" s="3">
         <v>1516100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159300</v>
+        <v>150000</v>
       </c>
       <c r="E81" s="3">
-        <v>35200</v>
+        <v>33100</v>
       </c>
       <c r="F81" s="3">
-        <v>183900</v>
+        <v>173200</v>
       </c>
       <c r="G81" s="3">
-        <v>191900</v>
+        <v>180700</v>
       </c>
       <c r="H81" s="3">
-        <v>249800</v>
+        <v>235200</v>
       </c>
       <c r="I81" s="3">
-        <v>145400</v>
+        <v>136900</v>
       </c>
       <c r="J81" s="3">
-        <v>226700</v>
+        <v>213500</v>
       </c>
       <c r="K81" s="3">
         <v>254500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>451900</v>
+        <v>425600</v>
       </c>
       <c r="E83" s="3">
-        <v>454900</v>
+        <v>428400</v>
       </c>
       <c r="F83" s="3">
-        <v>382400</v>
+        <v>360200</v>
       </c>
       <c r="G83" s="3">
-        <v>367400</v>
+        <v>346000</v>
       </c>
       <c r="H83" s="3">
-        <v>372400</v>
+        <v>350700</v>
       </c>
       <c r="I83" s="3">
-        <v>363600</v>
+        <v>342400</v>
       </c>
       <c r="J83" s="3">
-        <v>362100</v>
+        <v>341000</v>
       </c>
       <c r="K83" s="3">
         <v>395300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>712700</v>
+        <v>671200</v>
       </c>
       <c r="E89" s="3">
-        <v>563300</v>
+        <v>530500</v>
       </c>
       <c r="F89" s="3">
-        <v>375300</v>
+        <v>353500</v>
       </c>
       <c r="G89" s="3">
-        <v>397200</v>
+        <v>374100</v>
       </c>
       <c r="H89" s="3">
-        <v>364600</v>
+        <v>343300</v>
       </c>
       <c r="I89" s="3">
-        <v>440800</v>
+        <v>415100</v>
       </c>
       <c r="J89" s="3">
-        <v>413200</v>
+        <v>389100</v>
       </c>
       <c r="K89" s="3">
         <v>423800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-537600</v>
+        <v>-506300</v>
       </c>
       <c r="E91" s="3">
-        <v>-507300</v>
+        <v>-477800</v>
       </c>
       <c r="F91" s="3">
-        <v>-498900</v>
+        <v>-469800</v>
       </c>
       <c r="G91" s="3">
-        <v>-510200</v>
+        <v>-480500</v>
       </c>
       <c r="H91" s="3">
-        <v>-557700</v>
+        <v>-525300</v>
       </c>
       <c r="I91" s="3">
-        <v>-387500</v>
+        <v>-364900</v>
       </c>
       <c r="J91" s="3">
-        <v>-333500</v>
+        <v>-314100</v>
       </c>
       <c r="K91" s="3">
         <v>-424100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-529900</v>
+        <v>-499100</v>
       </c>
       <c r="E94" s="3">
-        <v>-392100</v>
+        <v>-369300</v>
       </c>
       <c r="F94" s="3">
-        <v>-494800</v>
+        <v>-466000</v>
       </c>
       <c r="G94" s="3">
-        <v>-435300</v>
+        <v>-409900</v>
       </c>
       <c r="H94" s="3">
-        <v>-436600</v>
+        <v>-411200</v>
       </c>
       <c r="I94" s="3">
-        <v>-540400</v>
+        <v>-508900</v>
       </c>
       <c r="J94" s="3">
-        <v>-340000</v>
+        <v>-320200</v>
       </c>
       <c r="K94" s="3">
         <v>-288500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-164600</v>
+        <v>-155000</v>
       </c>
       <c r="E100" s="3">
-        <v>45800</v>
+        <v>43100</v>
       </c>
       <c r="F100" s="3">
-        <v>47200</v>
+        <v>44400</v>
       </c>
       <c r="G100" s="3">
-        <v>113900</v>
+        <v>107200</v>
       </c>
       <c r="H100" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="I100" s="3">
-        <v>27100</v>
+        <v>25500</v>
       </c>
       <c r="J100" s="3">
-        <v>45100</v>
+        <v>42400</v>
       </c>
       <c r="K100" s="3">
         <v>-172000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18200</v>
+        <v>17100</v>
       </c>
       <c r="E102" s="3">
-        <v>216900</v>
+        <v>204300</v>
       </c>
       <c r="F102" s="3">
-        <v>-72300</v>
+        <v>-68100</v>
       </c>
       <c r="G102" s="3">
-        <v>75800</v>
+        <v>71400</v>
       </c>
       <c r="H102" s="3">
-        <v>-67300</v>
+        <v>-63400</v>
       </c>
       <c r="I102" s="3">
-        <v>-72400</v>
+        <v>-68100</v>
       </c>
       <c r="J102" s="3">
-        <v>118500</v>
+        <v>111600</v>
       </c>
       <c r="K102" s="3">
         <v>-36000</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2677600</v>
+        <v>2869500</v>
       </c>
       <c r="E8" s="3">
-        <v>2666500</v>
+        <v>2857600</v>
       </c>
       <c r="F8" s="3">
-        <v>2587900</v>
+        <v>2773400</v>
       </c>
       <c r="G8" s="3">
-        <v>2457000</v>
+        <v>2633100</v>
       </c>
       <c r="H8" s="3">
-        <v>2538100</v>
+        <v>2720000</v>
       </c>
       <c r="I8" s="3">
-        <v>2312300</v>
+        <v>2478000</v>
       </c>
       <c r="J8" s="3">
-        <v>2029500</v>
+        <v>2174900</v>
       </c>
       <c r="K8" s="3">
         <v>2083200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>536400</v>
+        <v>574900</v>
       </c>
       <c r="E9" s="3">
-        <v>576600</v>
+        <v>618000</v>
       </c>
       <c r="F9" s="3">
-        <v>504600</v>
+        <v>540700</v>
       </c>
       <c r="G9" s="3">
-        <v>822300</v>
+        <v>881200</v>
       </c>
       <c r="H9" s="3">
-        <v>564700</v>
+        <v>605200</v>
       </c>
       <c r="I9" s="3">
-        <v>483500</v>
+        <v>518100</v>
       </c>
       <c r="J9" s="3">
-        <v>382800</v>
+        <v>410200</v>
       </c>
       <c r="K9" s="3">
         <v>407500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2141200</v>
+        <v>2294600</v>
       </c>
       <c r="E10" s="3">
-        <v>2089900</v>
+        <v>2239700</v>
       </c>
       <c r="F10" s="3">
-        <v>2083300</v>
+        <v>2232600</v>
       </c>
       <c r="G10" s="3">
-        <v>1634700</v>
+        <v>1751900</v>
       </c>
       <c r="H10" s="3">
-        <v>1973400</v>
+        <v>2114800</v>
       </c>
       <c r="I10" s="3">
-        <v>1828800</v>
+        <v>1959900</v>
       </c>
       <c r="J10" s="3">
-        <v>1646700</v>
+        <v>1764700</v>
       </c>
       <c r="K10" s="3">
         <v>1675600</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12400</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>51300</v>
+        <v>55000</v>
       </c>
       <c r="F14" s="3">
-        <v>16700</v>
+        <v>17900</v>
       </c>
       <c r="G14" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="I14" s="3">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="J14" s="3">
-        <v>13600</v>
+        <v>14600</v>
       </c>
       <c r="K14" s="3">
         <v>42100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>413200</v>
+        <v>442800</v>
       </c>
       <c r="E15" s="3">
-        <v>402700</v>
+        <v>431600</v>
       </c>
       <c r="F15" s="3">
-        <v>343500</v>
+        <v>368100</v>
       </c>
       <c r="G15" s="3">
-        <v>343100</v>
+        <v>367700</v>
       </c>
       <c r="H15" s="3">
-        <v>341800</v>
+        <v>366300</v>
       </c>
       <c r="I15" s="3">
-        <v>330100</v>
+        <v>353700</v>
       </c>
       <c r="J15" s="3">
-        <v>327400</v>
+        <v>350900</v>
       </c>
       <c r="K15" s="3">
         <v>350100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2378200</v>
+        <v>2548600</v>
       </c>
       <c r="E17" s="3">
-        <v>2504300</v>
+        <v>2683700</v>
       </c>
       <c r="F17" s="3">
-        <v>2292600</v>
+        <v>2456900</v>
       </c>
       <c r="G17" s="3">
-        <v>2157300</v>
+        <v>2312000</v>
       </c>
       <c r="H17" s="3">
-        <v>2215100</v>
+        <v>2373800</v>
       </c>
       <c r="I17" s="3">
-        <v>2109200</v>
+        <v>2260400</v>
       </c>
       <c r="J17" s="3">
-        <v>1822800</v>
+        <v>1953500</v>
       </c>
       <c r="K17" s="3">
         <v>1811800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>299400</v>
+        <v>320900</v>
       </c>
       <c r="E18" s="3">
-        <v>162200</v>
+        <v>173900</v>
       </c>
       <c r="F18" s="3">
-        <v>295300</v>
+        <v>316500</v>
       </c>
       <c r="G18" s="3">
-        <v>299700</v>
+        <v>321100</v>
       </c>
       <c r="H18" s="3">
-        <v>323000</v>
+        <v>346200</v>
       </c>
       <c r="I18" s="3">
-        <v>203100</v>
+        <v>217600</v>
       </c>
       <c r="J18" s="3">
-        <v>206700</v>
+        <v>221500</v>
       </c>
       <c r="K18" s="3">
         <v>271400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-9500</v>
       </c>
       <c r="F20" s="3">
-        <v>7700</v>
+        <v>8300</v>
       </c>
       <c r="G20" s="3">
-        <v>9800</v>
+        <v>10500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="I20" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="J20" s="3">
-        <v>-11200</v>
+        <v>-12000</v>
       </c>
       <c r="K20" s="3">
         <v>-8600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>715300</v>
+        <v>772900</v>
       </c>
       <c r="E21" s="3">
-        <v>577600</v>
+        <v>625300</v>
       </c>
       <c r="F21" s="3">
-        <v>659700</v>
+        <v>712300</v>
       </c>
       <c r="G21" s="3">
-        <v>652000</v>
+        <v>703900</v>
       </c>
       <c r="H21" s="3">
-        <v>667100</v>
+        <v>720100</v>
       </c>
       <c r="I21" s="3">
-        <v>548400</v>
+        <v>592800</v>
       </c>
       <c r="J21" s="3">
-        <v>533200</v>
+        <v>576500</v>
       </c>
       <c r="K21" s="3">
         <v>659400</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77400</v>
+        <v>82900</v>
       </c>
       <c r="E22" s="3">
-        <v>97300</v>
+        <v>104200</v>
       </c>
       <c r="F22" s="3">
-        <v>54800</v>
+        <v>58800</v>
       </c>
       <c r="G22" s="3">
-        <v>54800</v>
+        <v>58700</v>
       </c>
       <c r="H22" s="3">
-        <v>38300</v>
+        <v>41000</v>
       </c>
       <c r="I22" s="3">
-        <v>32300</v>
+        <v>34600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>216500</v>
+        <v>232000</v>
       </c>
       <c r="E23" s="3">
-        <v>56100</v>
+        <v>60100</v>
       </c>
       <c r="F23" s="3">
-        <v>248200</v>
+        <v>266000</v>
       </c>
       <c r="G23" s="3">
-        <v>254700</v>
+        <v>272900</v>
       </c>
       <c r="H23" s="3">
-        <v>281600</v>
+        <v>301700</v>
       </c>
       <c r="I23" s="3">
-        <v>177100</v>
+        <v>189800</v>
       </c>
       <c r="J23" s="3">
-        <v>195500</v>
+        <v>209500</v>
       </c>
       <c r="K23" s="3">
         <v>262800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66100</v>
+        <v>70800</v>
       </c>
       <c r="E24" s="3">
-        <v>22700</v>
+        <v>24300</v>
       </c>
       <c r="F24" s="3">
-        <v>72900</v>
+        <v>78100</v>
       </c>
       <c r="G24" s="3">
-        <v>69000</v>
+        <v>73900</v>
       </c>
       <c r="H24" s="3">
-        <v>42800</v>
+        <v>45900</v>
       </c>
       <c r="I24" s="3">
-        <v>33300</v>
+        <v>35700</v>
       </c>
       <c r="J24" s="3">
-        <v>-1700</v>
+        <v>-1900</v>
       </c>
       <c r="K24" s="3">
         <v>23800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150400</v>
+        <v>161200</v>
       </c>
       <c r="E26" s="3">
-        <v>33500</v>
+        <v>35900</v>
       </c>
       <c r="F26" s="3">
-        <v>175400</v>
+        <v>188000</v>
       </c>
       <c r="G26" s="3">
-        <v>185700</v>
+        <v>199000</v>
       </c>
       <c r="H26" s="3">
-        <v>238800</v>
+        <v>255900</v>
       </c>
       <c r="I26" s="3">
-        <v>143800</v>
+        <v>154100</v>
       </c>
       <c r="J26" s="3">
-        <v>197200</v>
+        <v>211400</v>
       </c>
       <c r="K26" s="3">
         <v>239000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150000</v>
+        <v>160800</v>
       </c>
       <c r="E27" s="3">
-        <v>33100</v>
+        <v>35500</v>
       </c>
       <c r="F27" s="3">
-        <v>173200</v>
+        <v>185600</v>
       </c>
       <c r="G27" s="3">
-        <v>180700</v>
+        <v>193700</v>
       </c>
       <c r="H27" s="3">
-        <v>235200</v>
+        <v>252100</v>
       </c>
       <c r="I27" s="3">
-        <v>136900</v>
+        <v>146700</v>
       </c>
       <c r="J27" s="3">
-        <v>190700</v>
+        <v>204400</v>
       </c>
       <c r="K27" s="3">
         <v>231000</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>22700</v>
+        <v>24400</v>
       </c>
       <c r="K29" s="3">
         <v>23500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="F32" s="3">
-        <v>-7700</v>
+        <v>-8300</v>
       </c>
       <c r="G32" s="3">
-        <v>-9800</v>
+        <v>-10500</v>
       </c>
       <c r="H32" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-6300</v>
+        <v>-6800</v>
       </c>
       <c r="J32" s="3">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="K32" s="3">
         <v>8600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150000</v>
+        <v>160800</v>
       </c>
       <c r="E33" s="3">
-        <v>33100</v>
+        <v>35500</v>
       </c>
       <c r="F33" s="3">
-        <v>173200</v>
+        <v>185600</v>
       </c>
       <c r="G33" s="3">
-        <v>180700</v>
+        <v>193700</v>
       </c>
       <c r="H33" s="3">
-        <v>235200</v>
+        <v>252100</v>
       </c>
       <c r="I33" s="3">
-        <v>136900</v>
+        <v>146700</v>
       </c>
       <c r="J33" s="3">
-        <v>213500</v>
+        <v>228800</v>
       </c>
       <c r="K33" s="3">
         <v>254500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150000</v>
+        <v>160800</v>
       </c>
       <c r="E35" s="3">
-        <v>33100</v>
+        <v>35500</v>
       </c>
       <c r="F35" s="3">
-        <v>173200</v>
+        <v>185600</v>
       </c>
       <c r="G35" s="3">
-        <v>180700</v>
+        <v>193700</v>
       </c>
       <c r="H35" s="3">
-        <v>235200</v>
+        <v>252100</v>
       </c>
       <c r="I35" s="3">
-        <v>136900</v>
+        <v>146700</v>
       </c>
       <c r="J35" s="3">
-        <v>213500</v>
+        <v>228800</v>
       </c>
       <c r="K35" s="3">
         <v>254500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225300</v>
+        <v>241500</v>
       </c>
       <c r="E41" s="3">
-        <v>136800</v>
+        <v>146600</v>
       </c>
       <c r="F41" s="3">
-        <v>81000</v>
+        <v>86800</v>
       </c>
       <c r="G41" s="3">
-        <v>92800</v>
+        <v>99500</v>
       </c>
       <c r="H41" s="3">
-        <v>150000</v>
+        <v>160700</v>
       </c>
       <c r="I41" s="3">
-        <v>25900</v>
+        <v>27800</v>
       </c>
       <c r="J41" s="3">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="K41" s="3">
         <v>12800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90100</v>
+        <v>96500</v>
       </c>
       <c r="E42" s="3">
-        <v>213100</v>
+        <v>228400</v>
       </c>
       <c r="F42" s="3">
-        <v>128900</v>
+        <v>138200</v>
       </c>
       <c r="G42" s="3">
-        <v>169200</v>
+        <v>181300</v>
       </c>
       <c r="H42" s="3">
-        <v>196600</v>
+        <v>210700</v>
       </c>
       <c r="I42" s="3">
-        <v>132000</v>
+        <v>141400</v>
       </c>
       <c r="J42" s="3">
-        <v>215600</v>
+        <v>231100</v>
       </c>
       <c r="K42" s="3">
         <v>109800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>544900</v>
+        <v>583900</v>
       </c>
       <c r="E43" s="3">
-        <v>542400</v>
+        <v>581200</v>
       </c>
       <c r="F43" s="3">
-        <v>584800</v>
+        <v>626700</v>
       </c>
       <c r="G43" s="3">
-        <v>898300</v>
+        <v>962700</v>
       </c>
       <c r="H43" s="3">
-        <v>981700</v>
+        <v>1052000</v>
       </c>
       <c r="I43" s="3">
-        <v>370800</v>
+        <v>397300</v>
       </c>
       <c r="J43" s="3">
-        <v>281800</v>
+        <v>302000</v>
       </c>
       <c r="K43" s="3">
         <v>293400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63600</v>
+        <v>68100</v>
       </c>
       <c r="E44" s="3">
-        <v>60200</v>
+        <v>64500</v>
       </c>
       <c r="F44" s="3">
-        <v>78500</v>
+        <v>84100</v>
       </c>
       <c r="G44" s="3">
-        <v>172000</v>
+        <v>184300</v>
       </c>
       <c r="H44" s="3">
-        <v>164300</v>
+        <v>176100</v>
       </c>
       <c r="I44" s="3">
-        <v>120300</v>
+        <v>128900</v>
       </c>
       <c r="J44" s="3">
-        <v>39500</v>
+        <v>42400</v>
       </c>
       <c r="K44" s="3">
         <v>43000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63100</v>
+        <v>67600</v>
       </c>
       <c r="E45" s="3">
-        <v>58200</v>
+        <v>62400</v>
       </c>
       <c r="F45" s="3">
-        <v>42600</v>
+        <v>45600</v>
       </c>
       <c r="G45" s="3">
-        <v>32600</v>
+        <v>35000</v>
       </c>
       <c r="H45" s="3">
-        <v>44900</v>
+        <v>48100</v>
       </c>
       <c r="I45" s="3">
-        <v>208200</v>
+        <v>223100</v>
       </c>
       <c r="J45" s="3">
-        <v>142300</v>
+        <v>152500</v>
       </c>
       <c r="K45" s="3">
         <v>97900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>986900</v>
+        <v>1057600</v>
       </c>
       <c r="E46" s="3">
-        <v>1010700</v>
+        <v>1083200</v>
       </c>
       <c r="F46" s="3">
-        <v>915800</v>
+        <v>981400</v>
       </c>
       <c r="G46" s="3">
-        <v>853500</v>
+        <v>914700</v>
       </c>
       <c r="H46" s="3">
-        <v>838700</v>
+        <v>898900</v>
       </c>
       <c r="I46" s="3">
-        <v>796900</v>
+        <v>854000</v>
       </c>
       <c r="J46" s="3">
-        <v>689300</v>
+        <v>738700</v>
       </c>
       <c r="K46" s="3">
         <v>557000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28900</v>
+        <v>30900</v>
       </c>
       <c r="E47" s="3">
-        <v>24900</v>
+        <v>26700</v>
       </c>
       <c r="F47" s="3">
-        <v>26100</v>
+        <v>28000</v>
       </c>
       <c r="G47" s="3">
-        <v>26100</v>
+        <v>28000</v>
       </c>
       <c r="H47" s="3">
-        <v>42400</v>
+        <v>45400</v>
       </c>
       <c r="I47" s="3">
-        <v>164400</v>
+        <v>176200</v>
       </c>
       <c r="J47" s="3">
-        <v>167300</v>
+        <v>179300</v>
       </c>
       <c r="K47" s="3">
         <v>202100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2526900</v>
+        <v>2708000</v>
       </c>
       <c r="E48" s="3">
-        <v>2360900</v>
+        <v>2530100</v>
       </c>
       <c r="F48" s="3">
-        <v>1984600</v>
+        <v>2126800</v>
       </c>
       <c r="G48" s="3">
-        <v>3760400</v>
+        <v>4029900</v>
       </c>
       <c r="H48" s="3">
-        <v>3455600</v>
+        <v>3703300</v>
       </c>
       <c r="I48" s="3">
-        <v>1740700</v>
+        <v>1865500</v>
       </c>
       <c r="J48" s="3">
-        <v>1516500</v>
+        <v>1625200</v>
       </c>
       <c r="K48" s="3">
         <v>1672700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>285300</v>
+        <v>305700</v>
       </c>
       <c r="E49" s="3">
-        <v>293600</v>
+        <v>314600</v>
       </c>
       <c r="F49" s="3">
-        <v>280100</v>
+        <v>300100</v>
       </c>
       <c r="G49" s="3">
-        <v>556600</v>
+        <v>596400</v>
       </c>
       <c r="H49" s="3">
-        <v>584700</v>
+        <v>626700</v>
       </c>
       <c r="I49" s="3">
-        <v>272900</v>
+        <v>292400</v>
       </c>
       <c r="J49" s="3">
-        <v>184700</v>
+        <v>198000</v>
       </c>
       <c r="K49" s="3">
         <v>188600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>126400</v>
+        <v>135400</v>
       </c>
       <c r="E52" s="3">
-        <v>112700</v>
+        <v>120800</v>
       </c>
       <c r="F52" s="3">
-        <v>73300</v>
+        <v>78600</v>
       </c>
       <c r="G52" s="3">
-        <v>82100</v>
+        <v>88000</v>
       </c>
       <c r="H52" s="3">
-        <v>67200</v>
+        <v>72000</v>
       </c>
       <c r="I52" s="3">
-        <v>79300</v>
+        <v>85000</v>
       </c>
       <c r="J52" s="3">
-        <v>101500</v>
+        <v>108800</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3954300</v>
+        <v>4237700</v>
       </c>
       <c r="E54" s="3">
-        <v>3802900</v>
+        <v>4075400</v>
       </c>
       <c r="F54" s="3">
-        <v>3279900</v>
+        <v>3515000</v>
       </c>
       <c r="G54" s="3">
-        <v>3118600</v>
+        <v>3342100</v>
       </c>
       <c r="H54" s="3">
-        <v>2966800</v>
+        <v>3179400</v>
       </c>
       <c r="I54" s="3">
-        <v>2884000</v>
+        <v>3090700</v>
       </c>
       <c r="J54" s="3">
-        <v>2600800</v>
+        <v>2787200</v>
       </c>
       <c r="K54" s="3">
         <v>2623600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>423600</v>
+        <v>453900</v>
       </c>
       <c r="E57" s="3">
-        <v>315000</v>
+        <v>337500</v>
       </c>
       <c r="F57" s="3">
-        <v>452400</v>
+        <v>484800</v>
       </c>
       <c r="G57" s="3">
-        <v>422700</v>
+        <v>453000</v>
       </c>
       <c r="H57" s="3">
-        <v>702200</v>
+        <v>752500</v>
       </c>
       <c r="I57" s="3">
-        <v>442000</v>
+        <v>473600</v>
       </c>
       <c r="J57" s="3">
-        <v>349100</v>
+        <v>374100</v>
       </c>
       <c r="K57" s="3">
         <v>340800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>118000</v>
+        <v>126500</v>
       </c>
       <c r="E58" s="3">
-        <v>183900</v>
+        <v>197100</v>
       </c>
       <c r="F58" s="3">
-        <v>334600</v>
+        <v>358600</v>
       </c>
       <c r="G58" s="3">
-        <v>140600</v>
+        <v>150600</v>
       </c>
       <c r="H58" s="3">
-        <v>196300</v>
+        <v>210400</v>
       </c>
       <c r="I58" s="3">
-        <v>43900</v>
+        <v>47100</v>
       </c>
       <c r="J58" s="3">
-        <v>99900</v>
+        <v>107100</v>
       </c>
       <c r="K58" s="3">
         <v>21400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>534400</v>
+        <v>572700</v>
       </c>
       <c r="E59" s="3">
-        <v>563200</v>
+        <v>603600</v>
       </c>
       <c r="F59" s="3">
-        <v>231300</v>
+        <v>247800</v>
       </c>
       <c r="G59" s="3">
-        <v>456000</v>
+        <v>488600</v>
       </c>
       <c r="H59" s="3">
-        <v>472100</v>
+        <v>505900</v>
       </c>
       <c r="I59" s="3">
-        <v>324700</v>
+        <v>347900</v>
       </c>
       <c r="J59" s="3">
-        <v>273800</v>
+        <v>293400</v>
       </c>
       <c r="K59" s="3">
         <v>310300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1076000</v>
+        <v>1153100</v>
       </c>
       <c r="E60" s="3">
-        <v>1062100</v>
+        <v>1138200</v>
       </c>
       <c r="F60" s="3">
-        <v>1018200</v>
+        <v>1091200</v>
       </c>
       <c r="G60" s="3">
-        <v>800500</v>
+        <v>857900</v>
       </c>
       <c r="H60" s="3">
-        <v>809500</v>
+        <v>867500</v>
       </c>
       <c r="I60" s="3">
-        <v>810600</v>
+        <v>868600</v>
       </c>
       <c r="J60" s="3">
-        <v>711400</v>
+        <v>762400</v>
       </c>
       <c r="K60" s="3">
         <v>672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>863200</v>
+        <v>925100</v>
       </c>
       <c r="E61" s="3">
-        <v>855700</v>
+        <v>917000</v>
       </c>
       <c r="F61" s="3">
-        <v>299800</v>
+        <v>321300</v>
       </c>
       <c r="G61" s="3">
-        <v>443400</v>
+        <v>475200</v>
       </c>
       <c r="H61" s="3">
-        <v>293200</v>
+        <v>314200</v>
       </c>
       <c r="I61" s="3">
-        <v>282900</v>
+        <v>303100</v>
       </c>
       <c r="J61" s="3">
-        <v>201000</v>
+        <v>215400</v>
       </c>
       <c r="K61" s="3">
         <v>251300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73500</v>
+        <v>78800</v>
       </c>
       <c r="E62" s="3">
-        <v>59100</v>
+        <v>63300</v>
       </c>
       <c r="F62" s="3">
-        <v>117700</v>
+        <v>126100</v>
       </c>
       <c r="G62" s="3">
-        <v>192700</v>
+        <v>206500</v>
       </c>
       <c r="H62" s="3">
-        <v>139900</v>
+        <v>149900</v>
       </c>
       <c r="I62" s="3">
-        <v>157200</v>
+        <v>168500</v>
       </c>
       <c r="J62" s="3">
-        <v>125600</v>
+        <v>134600</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2011200</v>
+        <v>2155400</v>
       </c>
       <c r="E66" s="3">
-        <v>1975100</v>
+        <v>2116600</v>
       </c>
       <c r="F66" s="3">
-        <v>1447800</v>
+        <v>1551600</v>
       </c>
       <c r="G66" s="3">
-        <v>1448600</v>
+        <v>1552500</v>
       </c>
       <c r="H66" s="3">
-        <v>1254800</v>
+        <v>1344700</v>
       </c>
       <c r="I66" s="3">
-        <v>1274800</v>
+        <v>1366200</v>
       </c>
       <c r="J66" s="3">
-        <v>1060500</v>
+        <v>1136500</v>
       </c>
       <c r="K66" s="3">
         <v>1107500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1630300</v>
+        <v>1747100</v>
       </c>
       <c r="E72" s="3">
-        <v>1514900</v>
+        <v>1623500</v>
       </c>
       <c r="F72" s="3">
-        <v>1519200</v>
+        <v>1628100</v>
       </c>
       <c r="G72" s="3">
-        <v>1357100</v>
+        <v>1454400</v>
       </c>
       <c r="H72" s="3">
-        <v>1389400</v>
+        <v>1488900</v>
       </c>
       <c r="I72" s="3">
-        <v>1286500</v>
+        <v>1378700</v>
       </c>
       <c r="J72" s="3">
-        <v>1217700</v>
+        <v>1305000</v>
       </c>
       <c r="K72" s="3">
         <v>1220700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1943100</v>
+        <v>2082400</v>
       </c>
       <c r="E76" s="3">
-        <v>1827800</v>
+        <v>1958800</v>
       </c>
       <c r="F76" s="3">
-        <v>1832000</v>
+        <v>1963400</v>
       </c>
       <c r="G76" s="3">
-        <v>1670000</v>
+        <v>1789700</v>
       </c>
       <c r="H76" s="3">
-        <v>1712000</v>
+        <v>1834700</v>
       </c>
       <c r="I76" s="3">
-        <v>1609200</v>
+        <v>1724500</v>
       </c>
       <c r="J76" s="3">
-        <v>1540300</v>
+        <v>1650700</v>
       </c>
       <c r="K76" s="3">
         <v>1516100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150000</v>
+        <v>160800</v>
       </c>
       <c r="E81" s="3">
-        <v>33100</v>
+        <v>35500</v>
       </c>
       <c r="F81" s="3">
-        <v>173200</v>
+        <v>185600</v>
       </c>
       <c r="G81" s="3">
-        <v>180700</v>
+        <v>193700</v>
       </c>
       <c r="H81" s="3">
-        <v>235200</v>
+        <v>252100</v>
       </c>
       <c r="I81" s="3">
-        <v>136900</v>
+        <v>146700</v>
       </c>
       <c r="J81" s="3">
-        <v>213500</v>
+        <v>228800</v>
       </c>
       <c r="K81" s="3">
         <v>254500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>425600</v>
+        <v>456100</v>
       </c>
       <c r="E83" s="3">
-        <v>428400</v>
+        <v>459100</v>
       </c>
       <c r="F83" s="3">
-        <v>360200</v>
+        <v>386000</v>
       </c>
       <c r="G83" s="3">
-        <v>346000</v>
+        <v>370800</v>
       </c>
       <c r="H83" s="3">
-        <v>350700</v>
+        <v>375800</v>
       </c>
       <c r="I83" s="3">
-        <v>342400</v>
+        <v>366900</v>
       </c>
       <c r="J83" s="3">
-        <v>341000</v>
+        <v>365500</v>
       </c>
       <c r="K83" s="3">
         <v>395300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>671200</v>
+        <v>719300</v>
       </c>
       <c r="E89" s="3">
-        <v>530500</v>
+        <v>568500</v>
       </c>
       <c r="F89" s="3">
-        <v>353500</v>
+        <v>378800</v>
       </c>
       <c r="G89" s="3">
-        <v>374100</v>
+        <v>400900</v>
       </c>
       <c r="H89" s="3">
-        <v>343300</v>
+        <v>367900</v>
       </c>
       <c r="I89" s="3">
-        <v>415100</v>
+        <v>444900</v>
       </c>
       <c r="J89" s="3">
-        <v>389100</v>
+        <v>417000</v>
       </c>
       <c r="K89" s="3">
         <v>423800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-506300</v>
+        <v>-542500</v>
       </c>
       <c r="E91" s="3">
-        <v>-477800</v>
+        <v>-512000</v>
       </c>
       <c r="F91" s="3">
-        <v>-469800</v>
+        <v>-503500</v>
       </c>
       <c r="G91" s="3">
-        <v>-480500</v>
+        <v>-514900</v>
       </c>
       <c r="H91" s="3">
-        <v>-525300</v>
+        <v>-562900</v>
       </c>
       <c r="I91" s="3">
-        <v>-364900</v>
+        <v>-391100</v>
       </c>
       <c r="J91" s="3">
-        <v>-314100</v>
+        <v>-336600</v>
       </c>
       <c r="K91" s="3">
         <v>-424100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-499100</v>
+        <v>-534800</v>
       </c>
       <c r="E94" s="3">
-        <v>-369300</v>
+        <v>-395800</v>
       </c>
       <c r="F94" s="3">
-        <v>-466000</v>
+        <v>-499400</v>
       </c>
       <c r="G94" s="3">
-        <v>-409900</v>
+        <v>-439300</v>
       </c>
       <c r="H94" s="3">
-        <v>-411200</v>
+        <v>-440600</v>
       </c>
       <c r="I94" s="3">
-        <v>-508900</v>
+        <v>-545400</v>
       </c>
       <c r="J94" s="3">
-        <v>-320200</v>
+        <v>-343100</v>
       </c>
       <c r="K94" s="3">
         <v>-288500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-155000</v>
+        <v>-166100</v>
       </c>
       <c r="E100" s="3">
-        <v>43100</v>
+        <v>46200</v>
       </c>
       <c r="F100" s="3">
-        <v>44400</v>
+        <v>47600</v>
       </c>
       <c r="G100" s="3">
-        <v>107200</v>
+        <v>114900</v>
       </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="I100" s="3">
-        <v>25500</v>
+        <v>27400</v>
       </c>
       <c r="J100" s="3">
-        <v>42400</v>
+        <v>45500</v>
       </c>
       <c r="K100" s="3">
         <v>-172000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17100</v>
+        <v>18300</v>
       </c>
       <c r="E102" s="3">
-        <v>204300</v>
+        <v>219000</v>
       </c>
       <c r="F102" s="3">
-        <v>-68100</v>
+        <v>-73000</v>
       </c>
       <c r="G102" s="3">
-        <v>71400</v>
+        <v>76500</v>
       </c>
       <c r="H102" s="3">
-        <v>-63400</v>
+        <v>-67900</v>
       </c>
       <c r="I102" s="3">
-        <v>-68100</v>
+        <v>-73000</v>
       </c>
       <c r="J102" s="3">
-        <v>111600</v>
+        <v>119600</v>
       </c>
       <c r="K102" s="3">
         <v>-36000</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2869500</v>
+        <v>2684500</v>
       </c>
       <c r="E8" s="3">
-        <v>2857600</v>
+        <v>2673400</v>
       </c>
       <c r="F8" s="3">
-        <v>2773400</v>
+        <v>2594600</v>
       </c>
       <c r="G8" s="3">
-        <v>2633100</v>
+        <v>2463300</v>
       </c>
       <c r="H8" s="3">
-        <v>2720000</v>
+        <v>2544600</v>
       </c>
       <c r="I8" s="3">
-        <v>2478000</v>
+        <v>2318300</v>
       </c>
       <c r="J8" s="3">
-        <v>2174900</v>
+        <v>2034700</v>
       </c>
       <c r="K8" s="3">
         <v>2083200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>574900</v>
+        <v>537800</v>
       </c>
       <c r="E9" s="3">
-        <v>618000</v>
+        <v>578100</v>
       </c>
       <c r="F9" s="3">
-        <v>540700</v>
+        <v>505900</v>
       </c>
       <c r="G9" s="3">
-        <v>881200</v>
+        <v>824400</v>
       </c>
       <c r="H9" s="3">
-        <v>605200</v>
+        <v>566200</v>
       </c>
       <c r="I9" s="3">
-        <v>518100</v>
+        <v>484700</v>
       </c>
       <c r="J9" s="3">
-        <v>410200</v>
+        <v>383800</v>
       </c>
       <c r="K9" s="3">
         <v>407500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2294600</v>
+        <v>2146700</v>
       </c>
       <c r="E10" s="3">
-        <v>2239700</v>
+        <v>2095300</v>
       </c>
       <c r="F10" s="3">
-        <v>2232600</v>
+        <v>2088700</v>
       </c>
       <c r="G10" s="3">
-        <v>1751900</v>
+        <v>1639000</v>
       </c>
       <c r="H10" s="3">
-        <v>2114800</v>
+        <v>1978500</v>
       </c>
       <c r="I10" s="3">
-        <v>1959900</v>
+        <v>1833500</v>
       </c>
       <c r="J10" s="3">
-        <v>1764700</v>
+        <v>1650900</v>
       </c>
       <c r="K10" s="3">
         <v>1675600</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="E14" s="3">
-        <v>55000</v>
+        <v>51400</v>
       </c>
       <c r="F14" s="3">
-        <v>17900</v>
+        <v>16800</v>
       </c>
       <c r="G14" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H14" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="I14" s="3">
-        <v>11300</v>
+        <v>10600</v>
       </c>
       <c r="J14" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="K14" s="3">
         <v>42100</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>442800</v>
+        <v>414300</v>
       </c>
       <c r="E15" s="3">
-        <v>431600</v>
+        <v>403800</v>
       </c>
       <c r="F15" s="3">
-        <v>368100</v>
+        <v>344300</v>
       </c>
       <c r="G15" s="3">
-        <v>367700</v>
+        <v>344000</v>
       </c>
       <c r="H15" s="3">
-        <v>366300</v>
+        <v>342700</v>
       </c>
       <c r="I15" s="3">
-        <v>353700</v>
+        <v>330900</v>
       </c>
       <c r="J15" s="3">
-        <v>350900</v>
+        <v>328300</v>
       </c>
       <c r="K15" s="3">
         <v>350100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2548600</v>
+        <v>2384300</v>
       </c>
       <c r="E17" s="3">
-        <v>2683700</v>
+        <v>2510700</v>
       </c>
       <c r="F17" s="3">
-        <v>2456900</v>
+        <v>2298500</v>
       </c>
       <c r="G17" s="3">
-        <v>2312000</v>
+        <v>2162900</v>
       </c>
       <c r="H17" s="3">
-        <v>2373800</v>
+        <v>2220800</v>
       </c>
       <c r="I17" s="3">
-        <v>2260400</v>
+        <v>2114700</v>
       </c>
       <c r="J17" s="3">
-        <v>1953500</v>
+        <v>1827500</v>
       </c>
       <c r="K17" s="3">
         <v>1811800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>320900</v>
+        <v>300200</v>
       </c>
       <c r="E18" s="3">
-        <v>173900</v>
+        <v>162700</v>
       </c>
       <c r="F18" s="3">
-        <v>316500</v>
+        <v>296100</v>
       </c>
       <c r="G18" s="3">
-        <v>321100</v>
+        <v>300400</v>
       </c>
       <c r="H18" s="3">
-        <v>346200</v>
+        <v>323800</v>
       </c>
       <c r="I18" s="3">
-        <v>217600</v>
+        <v>203600</v>
       </c>
       <c r="J18" s="3">
-        <v>221500</v>
+        <v>207200</v>
       </c>
       <c r="K18" s="3">
         <v>271400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="E20" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="F20" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="G20" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="J20" s="3">
-        <v>-12000</v>
+        <v>-11200</v>
       </c>
       <c r="K20" s="3">
         <v>-8600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>772900</v>
+        <v>721800</v>
       </c>
       <c r="E21" s="3">
-        <v>625300</v>
+        <v>583700</v>
       </c>
       <c r="F21" s="3">
-        <v>712300</v>
+        <v>665300</v>
       </c>
       <c r="G21" s="3">
-        <v>703900</v>
+        <v>657500</v>
       </c>
       <c r="H21" s="3">
-        <v>720100</v>
+        <v>672600</v>
       </c>
       <c r="I21" s="3">
-        <v>592800</v>
+        <v>553500</v>
       </c>
       <c r="J21" s="3">
-        <v>576500</v>
+        <v>538300</v>
       </c>
       <c r="K21" s="3">
         <v>659400</v>
@@ -1161,22 +1161,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>82900</v>
+        <v>77600</v>
       </c>
       <c r="E22" s="3">
-        <v>104200</v>
+        <v>97500</v>
       </c>
       <c r="F22" s="3">
-        <v>58800</v>
+        <v>55000</v>
       </c>
       <c r="G22" s="3">
-        <v>58700</v>
+        <v>54900</v>
       </c>
       <c r="H22" s="3">
-        <v>41000</v>
+        <v>38400</v>
       </c>
       <c r="I22" s="3">
-        <v>34600</v>
+        <v>32400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>232000</v>
+        <v>217100</v>
       </c>
       <c r="E23" s="3">
-        <v>60100</v>
+        <v>56300</v>
       </c>
       <c r="F23" s="3">
-        <v>266000</v>
+        <v>248900</v>
       </c>
       <c r="G23" s="3">
-        <v>272900</v>
+        <v>255300</v>
       </c>
       <c r="H23" s="3">
-        <v>301700</v>
+        <v>282300</v>
       </c>
       <c r="I23" s="3">
-        <v>189800</v>
+        <v>177600</v>
       </c>
       <c r="J23" s="3">
-        <v>209500</v>
+        <v>196000</v>
       </c>
       <c r="K23" s="3">
         <v>262800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70800</v>
+        <v>66300</v>
       </c>
       <c r="E24" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="F24" s="3">
-        <v>78100</v>
+        <v>73000</v>
       </c>
       <c r="G24" s="3">
-        <v>73900</v>
+        <v>69100</v>
       </c>
       <c r="H24" s="3">
-        <v>45900</v>
+        <v>42900</v>
       </c>
       <c r="I24" s="3">
-        <v>35700</v>
+        <v>33400</v>
       </c>
       <c r="J24" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="K24" s="3">
         <v>23800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161200</v>
+        <v>150800</v>
       </c>
       <c r="E26" s="3">
-        <v>35900</v>
+        <v>33500</v>
       </c>
       <c r="F26" s="3">
-        <v>188000</v>
+        <v>175800</v>
       </c>
       <c r="G26" s="3">
-        <v>199000</v>
+        <v>186200</v>
       </c>
       <c r="H26" s="3">
-        <v>255900</v>
+        <v>239400</v>
       </c>
       <c r="I26" s="3">
-        <v>154100</v>
+        <v>144200</v>
       </c>
       <c r="J26" s="3">
-        <v>211400</v>
+        <v>197800</v>
       </c>
       <c r="K26" s="3">
         <v>239000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>160800</v>
+        <v>150400</v>
       </c>
       <c r="E27" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="F27" s="3">
-        <v>185600</v>
+        <v>173600</v>
       </c>
       <c r="G27" s="3">
-        <v>193700</v>
+        <v>181200</v>
       </c>
       <c r="H27" s="3">
-        <v>252100</v>
+        <v>235800</v>
       </c>
       <c r="I27" s="3">
-        <v>146700</v>
+        <v>137300</v>
       </c>
       <c r="J27" s="3">
-        <v>204400</v>
+        <v>191200</v>
       </c>
       <c r="K27" s="3">
         <v>231000</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="K29" s="3">
         <v>23500</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="E32" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="G32" s="3">
-        <v>-10500</v>
+        <v>-9800</v>
       </c>
       <c r="H32" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="J32" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="K32" s="3">
         <v>8600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>160800</v>
+        <v>150400</v>
       </c>
       <c r="E33" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="F33" s="3">
-        <v>185600</v>
+        <v>173600</v>
       </c>
       <c r="G33" s="3">
-        <v>193700</v>
+        <v>181200</v>
       </c>
       <c r="H33" s="3">
-        <v>252100</v>
+        <v>235800</v>
       </c>
       <c r="I33" s="3">
-        <v>146700</v>
+        <v>137300</v>
       </c>
       <c r="J33" s="3">
-        <v>228800</v>
+        <v>214000</v>
       </c>
       <c r="K33" s="3">
         <v>254500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>160800</v>
+        <v>150400</v>
       </c>
       <c r="E35" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="F35" s="3">
-        <v>185600</v>
+        <v>173600</v>
       </c>
       <c r="G35" s="3">
-        <v>193700</v>
+        <v>181200</v>
       </c>
       <c r="H35" s="3">
-        <v>252100</v>
+        <v>235800</v>
       </c>
       <c r="I35" s="3">
-        <v>146700</v>
+        <v>137300</v>
       </c>
       <c r="J35" s="3">
-        <v>228800</v>
+        <v>214000</v>
       </c>
       <c r="K35" s="3">
         <v>254500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>241500</v>
+        <v>225900</v>
       </c>
       <c r="E41" s="3">
-        <v>146600</v>
+        <v>137100</v>
       </c>
       <c r="F41" s="3">
-        <v>86800</v>
+        <v>81200</v>
       </c>
       <c r="G41" s="3">
-        <v>99500</v>
+        <v>93000</v>
       </c>
       <c r="H41" s="3">
-        <v>160700</v>
+        <v>150400</v>
       </c>
       <c r="I41" s="3">
-        <v>27800</v>
+        <v>26000</v>
       </c>
       <c r="J41" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="K41" s="3">
         <v>12800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>96500</v>
+        <v>90300</v>
       </c>
       <c r="E42" s="3">
-        <v>228400</v>
+        <v>213700</v>
       </c>
       <c r="F42" s="3">
-        <v>138200</v>
+        <v>129300</v>
       </c>
       <c r="G42" s="3">
-        <v>181300</v>
+        <v>169600</v>
       </c>
       <c r="H42" s="3">
-        <v>210700</v>
+        <v>197100</v>
       </c>
       <c r="I42" s="3">
-        <v>141400</v>
+        <v>132300</v>
       </c>
       <c r="J42" s="3">
-        <v>231100</v>
+        <v>216200</v>
       </c>
       <c r="K42" s="3">
         <v>109800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>583900</v>
+        <v>546300</v>
       </c>
       <c r="E43" s="3">
-        <v>581200</v>
+        <v>543800</v>
       </c>
       <c r="F43" s="3">
-        <v>626700</v>
+        <v>586300</v>
       </c>
       <c r="G43" s="3">
-        <v>962700</v>
+        <v>900700</v>
       </c>
       <c r="H43" s="3">
-        <v>1052000</v>
+        <v>984200</v>
       </c>
       <c r="I43" s="3">
-        <v>397300</v>
+        <v>371700</v>
       </c>
       <c r="J43" s="3">
-        <v>302000</v>
+        <v>282500</v>
       </c>
       <c r="K43" s="3">
         <v>293400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68100</v>
+        <v>63700</v>
       </c>
       <c r="E44" s="3">
-        <v>64500</v>
+        <v>60400</v>
       </c>
       <c r="F44" s="3">
-        <v>84100</v>
+        <v>78700</v>
       </c>
       <c r="G44" s="3">
-        <v>184300</v>
+        <v>172400</v>
       </c>
       <c r="H44" s="3">
-        <v>176100</v>
+        <v>164700</v>
       </c>
       <c r="I44" s="3">
-        <v>128900</v>
+        <v>120600</v>
       </c>
       <c r="J44" s="3">
-        <v>42400</v>
+        <v>39600</v>
       </c>
       <c r="K44" s="3">
         <v>43000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67600</v>
+        <v>63200</v>
       </c>
       <c r="E45" s="3">
-        <v>62400</v>
+        <v>58400</v>
       </c>
       <c r="F45" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="G45" s="3">
-        <v>35000</v>
+        <v>32700</v>
       </c>
       <c r="H45" s="3">
-        <v>48100</v>
+        <v>45000</v>
       </c>
       <c r="I45" s="3">
-        <v>223100</v>
+        <v>208700</v>
       </c>
       <c r="J45" s="3">
-        <v>152500</v>
+        <v>142700</v>
       </c>
       <c r="K45" s="3">
         <v>97900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1057600</v>
+        <v>989400</v>
       </c>
       <c r="E46" s="3">
-        <v>1083200</v>
+        <v>1013300</v>
       </c>
       <c r="F46" s="3">
-        <v>981400</v>
+        <v>918200</v>
       </c>
       <c r="G46" s="3">
-        <v>914700</v>
+        <v>855800</v>
       </c>
       <c r="H46" s="3">
-        <v>898900</v>
+        <v>840900</v>
       </c>
       <c r="I46" s="3">
-        <v>854000</v>
+        <v>799000</v>
       </c>
       <c r="J46" s="3">
-        <v>738700</v>
+        <v>691100</v>
       </c>
       <c r="K46" s="3">
         <v>557000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="E47" s="3">
-        <v>26700</v>
+        <v>25000</v>
       </c>
       <c r="F47" s="3">
-        <v>28000</v>
+        <v>26100</v>
       </c>
       <c r="G47" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="H47" s="3">
-        <v>45400</v>
+        <v>42500</v>
       </c>
       <c r="I47" s="3">
-        <v>176200</v>
+        <v>164800</v>
       </c>
       <c r="J47" s="3">
-        <v>179300</v>
+        <v>167700</v>
       </c>
       <c r="K47" s="3">
         <v>202100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2708000</v>
+        <v>2533500</v>
       </c>
       <c r="E48" s="3">
-        <v>2530100</v>
+        <v>2367000</v>
       </c>
       <c r="F48" s="3">
-        <v>2126800</v>
+        <v>1989700</v>
       </c>
       <c r="G48" s="3">
-        <v>4029900</v>
+        <v>3770100</v>
       </c>
       <c r="H48" s="3">
-        <v>3703300</v>
+        <v>3464600</v>
       </c>
       <c r="I48" s="3">
-        <v>1865500</v>
+        <v>1745200</v>
       </c>
       <c r="J48" s="3">
-        <v>1625200</v>
+        <v>1520400</v>
       </c>
       <c r="K48" s="3">
         <v>1672700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>305700</v>
+        <v>286000</v>
       </c>
       <c r="E49" s="3">
-        <v>314600</v>
+        <v>294300</v>
       </c>
       <c r="F49" s="3">
-        <v>300100</v>
+        <v>280800</v>
       </c>
       <c r="G49" s="3">
-        <v>596400</v>
+        <v>558000</v>
       </c>
       <c r="H49" s="3">
-        <v>626700</v>
+        <v>586300</v>
       </c>
       <c r="I49" s="3">
-        <v>292400</v>
+        <v>273600</v>
       </c>
       <c r="J49" s="3">
-        <v>198000</v>
+        <v>185200</v>
       </c>
       <c r="K49" s="3">
         <v>188600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>135400</v>
+        <v>126700</v>
       </c>
       <c r="E52" s="3">
-        <v>120800</v>
+        <v>113000</v>
       </c>
       <c r="F52" s="3">
-        <v>78600</v>
+        <v>73500</v>
       </c>
       <c r="G52" s="3">
-        <v>88000</v>
+        <v>82300</v>
       </c>
       <c r="H52" s="3">
-        <v>72000</v>
+        <v>67400</v>
       </c>
       <c r="I52" s="3">
-        <v>85000</v>
+        <v>79500</v>
       </c>
       <c r="J52" s="3">
-        <v>108800</v>
+        <v>101800</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4237700</v>
+        <v>3964500</v>
       </c>
       <c r="E54" s="3">
-        <v>4075400</v>
+        <v>3812700</v>
       </c>
       <c r="F54" s="3">
-        <v>3515000</v>
+        <v>3288400</v>
       </c>
       <c r="G54" s="3">
-        <v>3342100</v>
+        <v>3126700</v>
       </c>
       <c r="H54" s="3">
-        <v>3179400</v>
+        <v>2974400</v>
       </c>
       <c r="I54" s="3">
-        <v>3090700</v>
+        <v>2891400</v>
       </c>
       <c r="J54" s="3">
-        <v>2787200</v>
+        <v>2607500</v>
       </c>
       <c r="K54" s="3">
         <v>2623600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>453900</v>
+        <v>424600</v>
       </c>
       <c r="E57" s="3">
-        <v>337500</v>
+        <v>315800</v>
       </c>
       <c r="F57" s="3">
-        <v>484800</v>
+        <v>453500</v>
       </c>
       <c r="G57" s="3">
-        <v>453000</v>
+        <v>423800</v>
       </c>
       <c r="H57" s="3">
-        <v>752500</v>
+        <v>704000</v>
       </c>
       <c r="I57" s="3">
-        <v>473600</v>
+        <v>443100</v>
       </c>
       <c r="J57" s="3">
-        <v>374100</v>
+        <v>350000</v>
       </c>
       <c r="K57" s="3">
         <v>340800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126500</v>
+        <v>118300</v>
       </c>
       <c r="E58" s="3">
-        <v>197100</v>
+        <v>184400</v>
       </c>
       <c r="F58" s="3">
-        <v>358600</v>
+        <v>335500</v>
       </c>
       <c r="G58" s="3">
-        <v>150600</v>
+        <v>140900</v>
       </c>
       <c r="H58" s="3">
-        <v>210400</v>
+        <v>196800</v>
       </c>
       <c r="I58" s="3">
-        <v>47100</v>
+        <v>44000</v>
       </c>
       <c r="J58" s="3">
-        <v>107100</v>
+        <v>100200</v>
       </c>
       <c r="K58" s="3">
         <v>21400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>572700</v>
+        <v>535800</v>
       </c>
       <c r="E59" s="3">
-        <v>603600</v>
+        <v>564600</v>
       </c>
       <c r="F59" s="3">
-        <v>247800</v>
+        <v>231900</v>
       </c>
       <c r="G59" s="3">
-        <v>488600</v>
+        <v>457100</v>
       </c>
       <c r="H59" s="3">
-        <v>505900</v>
+        <v>473300</v>
       </c>
       <c r="I59" s="3">
-        <v>347900</v>
+        <v>325500</v>
       </c>
       <c r="J59" s="3">
-        <v>293400</v>
+        <v>274500</v>
       </c>
       <c r="K59" s="3">
         <v>310300</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1153100</v>
+        <v>1078800</v>
       </c>
       <c r="E60" s="3">
-        <v>1138200</v>
+        <v>1064800</v>
       </c>
       <c r="F60" s="3">
-        <v>1091200</v>
+        <v>1020800</v>
       </c>
       <c r="G60" s="3">
-        <v>857900</v>
+        <v>802600</v>
       </c>
       <c r="H60" s="3">
-        <v>867500</v>
+        <v>811600</v>
       </c>
       <c r="I60" s="3">
-        <v>868600</v>
+        <v>812600</v>
       </c>
       <c r="J60" s="3">
-        <v>762400</v>
+        <v>713200</v>
       </c>
       <c r="K60" s="3">
         <v>672500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>925100</v>
+        <v>865400</v>
       </c>
       <c r="E61" s="3">
-        <v>917000</v>
+        <v>857900</v>
       </c>
       <c r="F61" s="3">
-        <v>321300</v>
+        <v>300600</v>
       </c>
       <c r="G61" s="3">
-        <v>475200</v>
+        <v>444600</v>
       </c>
       <c r="H61" s="3">
-        <v>314200</v>
+        <v>294000</v>
       </c>
       <c r="I61" s="3">
-        <v>303100</v>
+        <v>283600</v>
       </c>
       <c r="J61" s="3">
-        <v>215400</v>
+        <v>201500</v>
       </c>
       <c r="K61" s="3">
         <v>251300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78800</v>
+        <v>73700</v>
       </c>
       <c r="E62" s="3">
-        <v>63300</v>
+        <v>59300</v>
       </c>
       <c r="F62" s="3">
-        <v>126100</v>
+        <v>118000</v>
       </c>
       <c r="G62" s="3">
-        <v>206500</v>
+        <v>193200</v>
       </c>
       <c r="H62" s="3">
-        <v>149900</v>
+        <v>140200</v>
       </c>
       <c r="I62" s="3">
-        <v>168500</v>
+        <v>157600</v>
       </c>
       <c r="J62" s="3">
-        <v>134600</v>
+        <v>126000</v>
       </c>
       <c r="K62" s="3">
         <v>158500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2155400</v>
+        <v>2016400</v>
       </c>
       <c r="E66" s="3">
-        <v>2116600</v>
+        <v>1980200</v>
       </c>
       <c r="F66" s="3">
-        <v>1551600</v>
+        <v>1451600</v>
       </c>
       <c r="G66" s="3">
-        <v>1552500</v>
+        <v>1452400</v>
       </c>
       <c r="H66" s="3">
-        <v>1344700</v>
+        <v>1258000</v>
       </c>
       <c r="I66" s="3">
-        <v>1366200</v>
+        <v>1278100</v>
       </c>
       <c r="J66" s="3">
-        <v>1136500</v>
+        <v>1063200</v>
       </c>
       <c r="K66" s="3">
         <v>1107500</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1747100</v>
+        <v>1634500</v>
       </c>
       <c r="E72" s="3">
-        <v>1623500</v>
+        <v>1518800</v>
       </c>
       <c r="F72" s="3">
-        <v>1628100</v>
+        <v>1523100</v>
       </c>
       <c r="G72" s="3">
-        <v>1454400</v>
+        <v>1360600</v>
       </c>
       <c r="H72" s="3">
-        <v>1488900</v>
+        <v>1392900</v>
       </c>
       <c r="I72" s="3">
-        <v>1378700</v>
+        <v>1289800</v>
       </c>
       <c r="J72" s="3">
-        <v>1305000</v>
+        <v>1220800</v>
       </c>
       <c r="K72" s="3">
         <v>1220700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2082400</v>
+        <v>1948100</v>
       </c>
       <c r="E76" s="3">
-        <v>1958800</v>
+        <v>1832500</v>
       </c>
       <c r="F76" s="3">
-        <v>1963400</v>
+        <v>1836800</v>
       </c>
       <c r="G76" s="3">
-        <v>1789700</v>
+        <v>1674300</v>
       </c>
       <c r="H76" s="3">
-        <v>1834700</v>
+        <v>1716400</v>
       </c>
       <c r="I76" s="3">
-        <v>1724500</v>
+        <v>1613300</v>
       </c>
       <c r="J76" s="3">
-        <v>1650700</v>
+        <v>1544300</v>
       </c>
       <c r="K76" s="3">
         <v>1516100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>160800</v>
+        <v>150400</v>
       </c>
       <c r="E81" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="F81" s="3">
-        <v>185600</v>
+        <v>173600</v>
       </c>
       <c r="G81" s="3">
-        <v>193700</v>
+        <v>181200</v>
       </c>
       <c r="H81" s="3">
-        <v>252100</v>
+        <v>235800</v>
       </c>
       <c r="I81" s="3">
-        <v>146700</v>
+        <v>137300</v>
       </c>
       <c r="J81" s="3">
-        <v>228800</v>
+        <v>214000</v>
       </c>
       <c r="K81" s="3">
         <v>254500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>456100</v>
+        <v>426700</v>
       </c>
       <c r="E83" s="3">
-        <v>459100</v>
+        <v>429500</v>
       </c>
       <c r="F83" s="3">
-        <v>386000</v>
+        <v>361100</v>
       </c>
       <c r="G83" s="3">
-        <v>370800</v>
+        <v>346900</v>
       </c>
       <c r="H83" s="3">
-        <v>375800</v>
+        <v>351600</v>
       </c>
       <c r="I83" s="3">
-        <v>366900</v>
+        <v>343300</v>
       </c>
       <c r="J83" s="3">
-        <v>365500</v>
+        <v>341900</v>
       </c>
       <c r="K83" s="3">
         <v>395300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>719300</v>
+        <v>672900</v>
       </c>
       <c r="E89" s="3">
-        <v>568500</v>
+        <v>531800</v>
       </c>
       <c r="F89" s="3">
-        <v>378800</v>
+        <v>354400</v>
       </c>
       <c r="G89" s="3">
-        <v>400900</v>
+        <v>375100</v>
       </c>
       <c r="H89" s="3">
-        <v>367900</v>
+        <v>344200</v>
       </c>
       <c r="I89" s="3">
-        <v>444900</v>
+        <v>416200</v>
       </c>
       <c r="J89" s="3">
-        <v>417000</v>
+        <v>390100</v>
       </c>
       <c r="K89" s="3">
         <v>423800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-542500</v>
+        <v>-507600</v>
       </c>
       <c r="E91" s="3">
-        <v>-512000</v>
+        <v>-479000</v>
       </c>
       <c r="F91" s="3">
-        <v>-503500</v>
+        <v>-471000</v>
       </c>
       <c r="G91" s="3">
-        <v>-514900</v>
+        <v>-481700</v>
       </c>
       <c r="H91" s="3">
-        <v>-562900</v>
+        <v>-526600</v>
       </c>
       <c r="I91" s="3">
-        <v>-391100</v>
+        <v>-365900</v>
       </c>
       <c r="J91" s="3">
-        <v>-336600</v>
+        <v>-314900</v>
       </c>
       <c r="K91" s="3">
         <v>-424100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-534800</v>
+        <v>-500400</v>
       </c>
       <c r="E94" s="3">
-        <v>-395800</v>
+        <v>-370200</v>
       </c>
       <c r="F94" s="3">
-        <v>-499400</v>
+        <v>-467200</v>
       </c>
       <c r="G94" s="3">
-        <v>-439300</v>
+        <v>-411000</v>
       </c>
       <c r="H94" s="3">
-        <v>-440600</v>
+        <v>-412200</v>
       </c>
       <c r="I94" s="3">
-        <v>-545400</v>
+        <v>-510200</v>
       </c>
       <c r="J94" s="3">
-        <v>-343100</v>
+        <v>-321000</v>
       </c>
       <c r="K94" s="3">
         <v>-288500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-166100</v>
+        <v>-155400</v>
       </c>
       <c r="E100" s="3">
-        <v>46200</v>
+        <v>43200</v>
       </c>
       <c r="F100" s="3">
-        <v>47600</v>
+        <v>44500</v>
       </c>
       <c r="G100" s="3">
-        <v>114900</v>
+        <v>107500</v>
       </c>
       <c r="H100" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I100" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="J100" s="3">
-        <v>45500</v>
+        <v>42500</v>
       </c>
       <c r="K100" s="3">
         <v>-172000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="E102" s="3">
-        <v>219000</v>
+        <v>204800</v>
       </c>
       <c r="F102" s="3">
-        <v>-73000</v>
+        <v>-68300</v>
       </c>
       <c r="G102" s="3">
-        <v>76500</v>
+        <v>71600</v>
       </c>
       <c r="H102" s="3">
-        <v>-67900</v>
+        <v>-63500</v>
       </c>
       <c r="I102" s="3">
-        <v>-73000</v>
+        <v>-68300</v>
       </c>
       <c r="J102" s="3">
-        <v>119600</v>
+        <v>111900</v>
       </c>
       <c r="K102" s="3">
         <v>-36000</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2684500</v>
+        <v>2551300</v>
       </c>
       <c r="E8" s="3">
-        <v>2673400</v>
+        <v>2579100</v>
       </c>
       <c r="F8" s="3">
-        <v>2594600</v>
+        <v>2568400</v>
       </c>
       <c r="G8" s="3">
-        <v>2463300</v>
+        <v>2492700</v>
       </c>
       <c r="H8" s="3">
-        <v>2544600</v>
+        <v>2366600</v>
       </c>
       <c r="I8" s="3">
-        <v>2318300</v>
+        <v>2444700</v>
       </c>
       <c r="J8" s="3">
+        <v>2227200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2034700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2083200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1837000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2267200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>537800</v>
+        <v>539500</v>
       </c>
       <c r="E9" s="3">
-        <v>578100</v>
+        <v>516700</v>
       </c>
       <c r="F9" s="3">
-        <v>505900</v>
+        <v>555400</v>
       </c>
       <c r="G9" s="3">
-        <v>824400</v>
+        <v>486000</v>
       </c>
       <c r="H9" s="3">
-        <v>566200</v>
+        <v>792000</v>
       </c>
       <c r="I9" s="3">
-        <v>484700</v>
+        <v>544000</v>
       </c>
       <c r="J9" s="3">
+        <v>465700</v>
+      </c>
+      <c r="K9" s="3">
         <v>383800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>407500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>343400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>375900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2146700</v>
+        <v>2011800</v>
       </c>
       <c r="E10" s="3">
-        <v>2095300</v>
+        <v>2062400</v>
       </c>
       <c r="F10" s="3">
-        <v>2088700</v>
+        <v>2013000</v>
       </c>
       <c r="G10" s="3">
-        <v>1639000</v>
+        <v>2006600</v>
       </c>
       <c r="H10" s="3">
-        <v>1978500</v>
+        <v>1574600</v>
       </c>
       <c r="I10" s="3">
-        <v>1833500</v>
+        <v>1900700</v>
       </c>
       <c r="J10" s="3">
+        <v>1761500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1650900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1675600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1493600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1891400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12400</v>
+        <v>14700</v>
       </c>
       <c r="E14" s="3">
-        <v>51400</v>
+        <v>11900</v>
       </c>
       <c r="F14" s="3">
-        <v>16800</v>
+        <v>49400</v>
       </c>
       <c r="G14" s="3">
-        <v>2900</v>
+        <v>16100</v>
       </c>
       <c r="H14" s="3">
-        <v>8900</v>
+        <v>2800</v>
       </c>
       <c r="I14" s="3">
-        <v>10600</v>
+        <v>8500</v>
       </c>
       <c r="J14" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K14" s="3">
         <v>13700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>703500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55900</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>414300</v>
+        <v>401500</v>
       </c>
       <c r="E15" s="3">
-        <v>403800</v>
+        <v>398000</v>
       </c>
       <c r="F15" s="3">
-        <v>344300</v>
+        <v>387900</v>
       </c>
       <c r="G15" s="3">
-        <v>344000</v>
+        <v>330800</v>
       </c>
       <c r="H15" s="3">
-        <v>342700</v>
+        <v>330500</v>
       </c>
       <c r="I15" s="3">
-        <v>330900</v>
+        <v>329300</v>
       </c>
       <c r="J15" s="3">
+        <v>317900</v>
+      </c>
+      <c r="K15" s="3">
         <v>328300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>350100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>632900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>364300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2384300</v>
+        <v>2256900</v>
       </c>
       <c r="E17" s="3">
-        <v>2510700</v>
+        <v>2290700</v>
       </c>
       <c r="F17" s="3">
-        <v>2298500</v>
+        <v>2412100</v>
       </c>
       <c r="G17" s="3">
-        <v>2162900</v>
+        <v>2208200</v>
       </c>
       <c r="H17" s="3">
-        <v>2220800</v>
+        <v>2077900</v>
       </c>
       <c r="I17" s="3">
-        <v>2114700</v>
+        <v>2133600</v>
       </c>
       <c r="J17" s="3">
+        <v>2031600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1827500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1811800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2473900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2102200</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300200</v>
+        <v>294400</v>
       </c>
       <c r="E18" s="3">
-        <v>162700</v>
+        <v>288400</v>
       </c>
       <c r="F18" s="3">
-        <v>296100</v>
+        <v>156300</v>
       </c>
       <c r="G18" s="3">
-        <v>300400</v>
+        <v>284400</v>
       </c>
       <c r="H18" s="3">
-        <v>323800</v>
+        <v>288600</v>
       </c>
       <c r="I18" s="3">
-        <v>203600</v>
+        <v>311100</v>
       </c>
       <c r="J18" s="3">
+        <v>195600</v>
+      </c>
+      <c r="K18" s="3">
         <v>207200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>271400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-636900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>165000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-5300</v>
       </c>
       <c r="F20" s="3">
-        <v>7800</v>
+        <v>-8500</v>
       </c>
       <c r="G20" s="3">
-        <v>9800</v>
+        <v>7500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3200</v>
+        <v>9400</v>
       </c>
       <c r="I20" s="3">
-        <v>6300</v>
+        <v>-3000</v>
       </c>
       <c r="J20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-59600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>721800</v>
+        <v>705000</v>
       </c>
       <c r="E21" s="3">
-        <v>583700</v>
+        <v>688900</v>
       </c>
       <c r="F21" s="3">
-        <v>665300</v>
+        <v>556200</v>
       </c>
       <c r="G21" s="3">
-        <v>657500</v>
+        <v>635300</v>
       </c>
       <c r="H21" s="3">
-        <v>672600</v>
+        <v>628000</v>
       </c>
       <c r="I21" s="3">
-        <v>553500</v>
+        <v>642500</v>
       </c>
       <c r="J21" s="3">
+        <v>528200</v>
+      </c>
+      <c r="K21" s="3">
         <v>538300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>659400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>456700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>526200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77600</v>
+        <v>66400</v>
       </c>
       <c r="E22" s="3">
-        <v>97500</v>
+        <v>74500</v>
       </c>
       <c r="F22" s="3">
-        <v>55000</v>
+        <v>93700</v>
       </c>
       <c r="G22" s="3">
-        <v>54900</v>
+        <v>52800</v>
       </c>
       <c r="H22" s="3">
-        <v>38400</v>
+        <v>52700</v>
       </c>
       <c r="I22" s="3">
-        <v>32400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>36900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>37700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52400</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>217100</v>
+        <v>226600</v>
       </c>
       <c r="E23" s="3">
-        <v>56300</v>
+        <v>208500</v>
       </c>
       <c r="F23" s="3">
-        <v>248900</v>
+        <v>54100</v>
       </c>
       <c r="G23" s="3">
-        <v>255300</v>
+        <v>239100</v>
       </c>
       <c r="H23" s="3">
-        <v>282300</v>
+        <v>245300</v>
       </c>
       <c r="I23" s="3">
-        <v>177600</v>
+        <v>271200</v>
       </c>
       <c r="J23" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K23" s="3">
         <v>196000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>262800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-633800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66300</v>
+        <v>69600</v>
       </c>
       <c r="E24" s="3">
-        <v>22700</v>
+        <v>63700</v>
       </c>
       <c r="F24" s="3">
-        <v>73000</v>
+        <v>21800</v>
       </c>
       <c r="G24" s="3">
-        <v>69100</v>
+        <v>70200</v>
       </c>
       <c r="H24" s="3">
-        <v>42900</v>
+        <v>66400</v>
       </c>
       <c r="I24" s="3">
-        <v>33400</v>
+        <v>41200</v>
       </c>
       <c r="J24" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150800</v>
+        <v>157000</v>
       </c>
       <c r="E26" s="3">
-        <v>33500</v>
+        <v>144900</v>
       </c>
       <c r="F26" s="3">
-        <v>175800</v>
+        <v>32200</v>
       </c>
       <c r="G26" s="3">
-        <v>186200</v>
+        <v>168900</v>
       </c>
       <c r="H26" s="3">
-        <v>239400</v>
+        <v>178900</v>
       </c>
       <c r="I26" s="3">
-        <v>144200</v>
+        <v>230000</v>
       </c>
       <c r="J26" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K26" s="3">
         <v>197800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>239000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-659100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150400</v>
+        <v>156900</v>
       </c>
       <c r="E27" s="3">
-        <v>33200</v>
+        <v>144500</v>
       </c>
       <c r="F27" s="3">
-        <v>173600</v>
+        <v>31900</v>
       </c>
       <c r="G27" s="3">
-        <v>181200</v>
+        <v>166800</v>
       </c>
       <c r="H27" s="3">
-        <v>235800</v>
+        <v>174100</v>
       </c>
       <c r="I27" s="3">
-        <v>137300</v>
+        <v>226600</v>
       </c>
       <c r="J27" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K27" s="3">
         <v>191200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>231000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-666100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1430,21 +1490,24 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>22800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>23500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-18400</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-7800</v>
+        <v>8500</v>
       </c>
       <c r="G32" s="3">
-        <v>-9800</v>
+        <v>-7500</v>
       </c>
       <c r="H32" s="3">
-        <v>3200</v>
+        <v>-9400</v>
       </c>
       <c r="I32" s="3">
-        <v>-6300</v>
+        <v>3000</v>
       </c>
       <c r="J32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K32" s="3">
         <v>11200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>59600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150400</v>
+        <v>156900</v>
       </c>
       <c r="E33" s="3">
-        <v>33200</v>
+        <v>144500</v>
       </c>
       <c r="F33" s="3">
-        <v>173600</v>
+        <v>31900</v>
       </c>
       <c r="G33" s="3">
-        <v>181200</v>
+        <v>166800</v>
       </c>
       <c r="H33" s="3">
-        <v>235800</v>
+        <v>174100</v>
       </c>
       <c r="I33" s="3">
-        <v>137300</v>
+        <v>226600</v>
       </c>
       <c r="J33" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K33" s="3">
         <v>214000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>254500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-672000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150400</v>
+        <v>156900</v>
       </c>
       <c r="E35" s="3">
-        <v>33200</v>
+        <v>144500</v>
       </c>
       <c r="F35" s="3">
-        <v>173600</v>
+        <v>31900</v>
       </c>
       <c r="G35" s="3">
-        <v>181200</v>
+        <v>166800</v>
       </c>
       <c r="H35" s="3">
-        <v>235800</v>
+        <v>174100</v>
       </c>
       <c r="I35" s="3">
-        <v>137300</v>
+        <v>226600</v>
       </c>
       <c r="J35" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K35" s="3">
         <v>214000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>254500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-672000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225900</v>
+        <v>185200</v>
       </c>
       <c r="E41" s="3">
-        <v>137100</v>
+        <v>217000</v>
       </c>
       <c r="F41" s="3">
-        <v>81200</v>
+        <v>131800</v>
       </c>
       <c r="G41" s="3">
-        <v>93000</v>
+        <v>78000</v>
       </c>
       <c r="H41" s="3">
-        <v>150400</v>
+        <v>89400</v>
       </c>
       <c r="I41" s="3">
-        <v>26000</v>
+        <v>144500</v>
       </c>
       <c r="J41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90300</v>
+        <v>15700</v>
       </c>
       <c r="E42" s="3">
-        <v>213700</v>
+        <v>90400</v>
       </c>
       <c r="F42" s="3">
-        <v>129300</v>
+        <v>208000</v>
       </c>
       <c r="G42" s="3">
-        <v>169600</v>
+        <v>124200</v>
       </c>
       <c r="H42" s="3">
-        <v>197100</v>
+        <v>163000</v>
       </c>
       <c r="I42" s="3">
-        <v>132300</v>
+        <v>189300</v>
       </c>
       <c r="J42" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K42" s="3">
         <v>216200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>109800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>478900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>181600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>546300</v>
+        <v>563800</v>
       </c>
       <c r="E43" s="3">
-        <v>543800</v>
+        <v>524800</v>
       </c>
       <c r="F43" s="3">
-        <v>586300</v>
+        <v>522400</v>
       </c>
       <c r="G43" s="3">
-        <v>900700</v>
+        <v>563300</v>
       </c>
       <c r="H43" s="3">
-        <v>984200</v>
+        <v>865300</v>
       </c>
       <c r="I43" s="3">
-        <v>371700</v>
+        <v>945500</v>
       </c>
       <c r="J43" s="3">
+        <v>357100</v>
+      </c>
+      <c r="K43" s="3">
         <v>282500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>293400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>856200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>328900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63700</v>
+        <v>64700</v>
       </c>
       <c r="E44" s="3">
-        <v>60400</v>
+        <v>61200</v>
       </c>
       <c r="F44" s="3">
-        <v>78700</v>
+        <v>58000</v>
       </c>
       <c r="G44" s="3">
-        <v>172400</v>
+        <v>75600</v>
       </c>
       <c r="H44" s="3">
-        <v>164700</v>
+        <v>165600</v>
       </c>
       <c r="I44" s="3">
-        <v>120600</v>
+        <v>158200</v>
       </c>
       <c r="J44" s="3">
+        <v>115900</v>
+      </c>
+      <c r="K44" s="3">
         <v>39600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>68100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63200</v>
+        <v>132800</v>
       </c>
       <c r="E45" s="3">
-        <v>58400</v>
+        <v>57100</v>
       </c>
       <c r="F45" s="3">
-        <v>42700</v>
+        <v>53300</v>
       </c>
       <c r="G45" s="3">
-        <v>32700</v>
+        <v>41000</v>
       </c>
       <c r="H45" s="3">
-        <v>45000</v>
+        <v>31400</v>
       </c>
       <c r="I45" s="3">
-        <v>208700</v>
+        <v>43300</v>
       </c>
       <c r="J45" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K45" s="3">
         <v>142700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>97900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>153200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>72100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>989400</v>
+        <v>962100</v>
       </c>
       <c r="E46" s="3">
-        <v>1013300</v>
+        <v>950500</v>
       </c>
       <c r="F46" s="3">
-        <v>918200</v>
+        <v>973500</v>
       </c>
       <c r="G46" s="3">
-        <v>855800</v>
+        <v>882100</v>
       </c>
       <c r="H46" s="3">
-        <v>840900</v>
+        <v>822100</v>
       </c>
       <c r="I46" s="3">
-        <v>799000</v>
+        <v>807900</v>
       </c>
       <c r="J46" s="3">
+        <v>767600</v>
+      </c>
+      <c r="K46" s="3">
         <v>691100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>557000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>639800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>699500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="E47" s="3">
-        <v>25000</v>
+        <v>27800</v>
       </c>
       <c r="F47" s="3">
-        <v>26100</v>
+        <v>24000</v>
       </c>
       <c r="G47" s="3">
-        <v>26200</v>
+        <v>25100</v>
       </c>
       <c r="H47" s="3">
-        <v>42500</v>
+        <v>25200</v>
       </c>
       <c r="I47" s="3">
-        <v>164800</v>
+        <v>40800</v>
       </c>
       <c r="J47" s="3">
+        <v>158400</v>
+      </c>
+      <c r="K47" s="3">
         <v>167700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>202100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>164400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>174900</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2533500</v>
+        <v>2581600</v>
       </c>
       <c r="E48" s="3">
-        <v>2367000</v>
+        <v>2433900</v>
       </c>
       <c r="F48" s="3">
-        <v>1989700</v>
+        <v>2274000</v>
       </c>
       <c r="G48" s="3">
-        <v>3770100</v>
+        <v>1911500</v>
       </c>
       <c r="H48" s="3">
-        <v>3464600</v>
+        <v>3622000</v>
       </c>
       <c r="I48" s="3">
-        <v>1745200</v>
+        <v>3328500</v>
       </c>
       <c r="J48" s="3">
+        <v>1676700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1520400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1672700</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2478100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>286000</v>
+        <v>253500</v>
       </c>
       <c r="E49" s="3">
-        <v>294300</v>
+        <v>274800</v>
       </c>
       <c r="F49" s="3">
-        <v>280800</v>
+        <v>282800</v>
       </c>
       <c r="G49" s="3">
-        <v>558000</v>
+        <v>269800</v>
       </c>
       <c r="H49" s="3">
-        <v>586300</v>
+        <v>536100</v>
       </c>
       <c r="I49" s="3">
-        <v>273600</v>
+        <v>563200</v>
       </c>
       <c r="J49" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K49" s="3">
         <v>185200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>188600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>441400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>243700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>126700</v>
+        <v>111800</v>
       </c>
       <c r="E52" s="3">
-        <v>113000</v>
+        <v>121700</v>
       </c>
       <c r="F52" s="3">
-        <v>73500</v>
+        <v>108600</v>
       </c>
       <c r="G52" s="3">
-        <v>82300</v>
+        <v>70600</v>
       </c>
       <c r="H52" s="3">
-        <v>67400</v>
+        <v>79100</v>
       </c>
       <c r="I52" s="3">
-        <v>79500</v>
+        <v>64700</v>
       </c>
       <c r="J52" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K52" s="3">
         <v>101800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3964500</v>
+        <v>3939200</v>
       </c>
       <c r="E54" s="3">
-        <v>3812700</v>
+        <v>3808800</v>
       </c>
       <c r="F54" s="3">
-        <v>3288400</v>
+        <v>3662900</v>
       </c>
       <c r="G54" s="3">
-        <v>3126700</v>
+        <v>3159200</v>
       </c>
       <c r="H54" s="3">
-        <v>2974400</v>
+        <v>3003800</v>
       </c>
       <c r="I54" s="3">
-        <v>2891400</v>
+        <v>2857600</v>
       </c>
       <c r="J54" s="3">
+        <v>2777800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2607500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2623600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2370200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3603000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>424600</v>
+        <v>353800</v>
       </c>
       <c r="E57" s="3">
-        <v>315800</v>
+        <v>408000</v>
       </c>
       <c r="F57" s="3">
-        <v>453500</v>
+        <v>303400</v>
       </c>
       <c r="G57" s="3">
-        <v>423800</v>
+        <v>435700</v>
       </c>
       <c r="H57" s="3">
-        <v>704000</v>
+        <v>407200</v>
       </c>
       <c r="I57" s="3">
-        <v>443100</v>
+        <v>676400</v>
       </c>
       <c r="J57" s="3">
+        <v>425700</v>
+      </c>
+      <c r="K57" s="3">
         <v>350000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>340800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>265600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>194600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>118300</v>
+        <v>283100</v>
       </c>
       <c r="E58" s="3">
-        <v>184400</v>
+        <v>113700</v>
       </c>
       <c r="F58" s="3">
-        <v>335500</v>
+        <v>177200</v>
       </c>
       <c r="G58" s="3">
-        <v>140900</v>
+        <v>322300</v>
       </c>
       <c r="H58" s="3">
-        <v>196800</v>
+        <v>135400</v>
       </c>
       <c r="I58" s="3">
-        <v>44000</v>
+        <v>189100</v>
       </c>
       <c r="J58" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K58" s="3">
         <v>100200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>314600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>88600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>535800</v>
+        <v>470000</v>
       </c>
       <c r="E59" s="3">
-        <v>564600</v>
+        <v>514800</v>
       </c>
       <c r="F59" s="3">
-        <v>231900</v>
+        <v>542500</v>
       </c>
       <c r="G59" s="3">
-        <v>457100</v>
+        <v>222700</v>
       </c>
       <c r="H59" s="3">
-        <v>473300</v>
+        <v>439200</v>
       </c>
       <c r="I59" s="3">
-        <v>325500</v>
+        <v>454700</v>
       </c>
       <c r="J59" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K59" s="3">
         <v>274500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>310300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>434200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>382300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1078800</v>
+        <v>1106900</v>
       </c>
       <c r="E60" s="3">
-        <v>1064800</v>
+        <v>1036400</v>
       </c>
       <c r="F60" s="3">
-        <v>1020800</v>
+        <v>1023000</v>
       </c>
       <c r="G60" s="3">
-        <v>802600</v>
+        <v>980700</v>
       </c>
       <c r="H60" s="3">
-        <v>811600</v>
+        <v>771100</v>
       </c>
       <c r="I60" s="3">
-        <v>812600</v>
+        <v>779700</v>
       </c>
       <c r="J60" s="3">
+        <v>780700</v>
+      </c>
+      <c r="K60" s="3">
         <v>713200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>672500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>748400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>665500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>865400</v>
+        <v>749500</v>
       </c>
       <c r="E61" s="3">
-        <v>857900</v>
+        <v>831400</v>
       </c>
       <c r="F61" s="3">
-        <v>300600</v>
+        <v>824200</v>
       </c>
       <c r="G61" s="3">
-        <v>444600</v>
+        <v>288800</v>
       </c>
       <c r="H61" s="3">
-        <v>294000</v>
+        <v>427100</v>
       </c>
       <c r="I61" s="3">
-        <v>283600</v>
+        <v>282400</v>
       </c>
       <c r="J61" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K61" s="3">
         <v>201500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>251300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>222300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>404200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73700</v>
+        <v>51400</v>
       </c>
       <c r="E62" s="3">
-        <v>59300</v>
+        <v>70800</v>
       </c>
       <c r="F62" s="3">
-        <v>118000</v>
+        <v>56900</v>
       </c>
       <c r="G62" s="3">
-        <v>193200</v>
+        <v>113400</v>
       </c>
       <c r="H62" s="3">
-        <v>140200</v>
+        <v>185600</v>
       </c>
       <c r="I62" s="3">
-        <v>157600</v>
+        <v>134700</v>
       </c>
       <c r="J62" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K62" s="3">
         <v>126000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>158500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>657500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>467500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2016400</v>
+        <v>1906300</v>
       </c>
       <c r="E66" s="3">
-        <v>1980200</v>
+        <v>1937200</v>
       </c>
       <c r="F66" s="3">
-        <v>1451600</v>
+        <v>1902400</v>
       </c>
       <c r="G66" s="3">
-        <v>1452400</v>
+        <v>1394500</v>
       </c>
       <c r="H66" s="3">
-        <v>1258000</v>
+        <v>1395300</v>
       </c>
       <c r="I66" s="3">
-        <v>1278100</v>
+        <v>1208600</v>
       </c>
       <c r="J66" s="3">
+        <v>1227900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1063200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1107500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1355500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1566900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1634500</v>
+        <v>1731600</v>
       </c>
       <c r="E72" s="3">
-        <v>1518800</v>
+        <v>1570300</v>
       </c>
       <c r="F72" s="3">
-        <v>1523100</v>
+        <v>1459200</v>
       </c>
       <c r="G72" s="3">
-        <v>1360600</v>
+        <v>1463300</v>
       </c>
       <c r="H72" s="3">
-        <v>1392900</v>
+        <v>1307200</v>
       </c>
       <c r="I72" s="3">
-        <v>1289800</v>
+        <v>1338200</v>
       </c>
       <c r="J72" s="3">
+        <v>1239200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1220800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1220700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>885100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1732000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1948100</v>
+        <v>2032900</v>
       </c>
       <c r="E76" s="3">
-        <v>1832500</v>
+        <v>1871600</v>
       </c>
       <c r="F76" s="3">
-        <v>1836800</v>
+        <v>1760500</v>
       </c>
       <c r="G76" s="3">
-        <v>1674300</v>
+        <v>1764600</v>
       </c>
       <c r="H76" s="3">
-        <v>1716400</v>
+        <v>1608500</v>
       </c>
       <c r="I76" s="3">
-        <v>1613300</v>
+        <v>1649000</v>
       </c>
       <c r="J76" s="3">
+        <v>1549900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1544300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1516100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1014700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2036100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150400</v>
+        <v>156900</v>
       </c>
       <c r="E81" s="3">
-        <v>33200</v>
+        <v>144500</v>
       </c>
       <c r="F81" s="3">
-        <v>173600</v>
+        <v>31900</v>
       </c>
       <c r="G81" s="3">
-        <v>181200</v>
+        <v>166800</v>
       </c>
       <c r="H81" s="3">
-        <v>235800</v>
+        <v>174100</v>
       </c>
       <c r="I81" s="3">
-        <v>137300</v>
+        <v>226600</v>
       </c>
       <c r="J81" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K81" s="3">
         <v>214000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>254500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-672000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>426700</v>
+        <v>416200</v>
       </c>
       <c r="E83" s="3">
-        <v>429500</v>
+        <v>409900</v>
       </c>
       <c r="F83" s="3">
-        <v>361100</v>
+        <v>412600</v>
       </c>
       <c r="G83" s="3">
         <v>346900</v>
       </c>
       <c r="H83" s="3">
-        <v>351600</v>
+        <v>333300</v>
       </c>
       <c r="I83" s="3">
-        <v>343300</v>
+        <v>337800</v>
       </c>
       <c r="J83" s="3">
+        <v>329800</v>
+      </c>
+      <c r="K83" s="3">
         <v>341900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>395300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1045400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>420700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>672900</v>
+        <v>486400</v>
       </c>
       <c r="E89" s="3">
-        <v>531800</v>
+        <v>652800</v>
       </c>
       <c r="F89" s="3">
-        <v>354400</v>
+        <v>511000</v>
       </c>
       <c r="G89" s="3">
-        <v>375100</v>
+        <v>340500</v>
       </c>
       <c r="H89" s="3">
-        <v>344200</v>
+        <v>360300</v>
       </c>
       <c r="I89" s="3">
-        <v>416200</v>
+        <v>330700</v>
       </c>
       <c r="J89" s="3">
+        <v>399800</v>
+      </c>
+      <c r="K89" s="3">
         <v>390100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>423800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>427000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>403800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-507600</v>
+        <v>-479200</v>
       </c>
       <c r="E91" s="3">
-        <v>-479000</v>
+        <v>-495900</v>
       </c>
       <c r="F91" s="3">
-        <v>-471000</v>
+        <v>-460200</v>
       </c>
       <c r="G91" s="3">
-        <v>-481700</v>
+        <v>-452500</v>
       </c>
       <c r="H91" s="3">
-        <v>-526600</v>
+        <v>-462800</v>
       </c>
       <c r="I91" s="3">
-        <v>-365900</v>
+        <v>-505900</v>
       </c>
       <c r="J91" s="3">
+        <v>-351500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-314900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-424100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-321600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-320400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500400</v>
+        <v>-554800</v>
       </c>
       <c r="E94" s="3">
-        <v>-370200</v>
+        <v>-494900</v>
       </c>
       <c r="F94" s="3">
-        <v>-467200</v>
+        <v>-355700</v>
       </c>
       <c r="G94" s="3">
-        <v>-411000</v>
+        <v>-448800</v>
       </c>
       <c r="H94" s="3">
-        <v>-412200</v>
+        <v>-394800</v>
       </c>
       <c r="I94" s="3">
-        <v>-510200</v>
+        <v>-396000</v>
       </c>
       <c r="J94" s="3">
+        <v>-490200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-321000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-288500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-315400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-336300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-155400</v>
+        <v>-36800</v>
       </c>
       <c r="E100" s="3">
-        <v>43200</v>
+        <v>-141500</v>
       </c>
       <c r="F100" s="3">
-        <v>44500</v>
+        <v>41500</v>
       </c>
       <c r="G100" s="3">
-        <v>107500</v>
+        <v>42800</v>
       </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>103300</v>
       </c>
       <c r="I100" s="3">
-        <v>25600</v>
+        <v>4100</v>
       </c>
       <c r="J100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K100" s="3">
         <v>42500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-172000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3719,64 +3967,70 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17100</v>
+        <v>-105200</v>
       </c>
       <c r="E102" s="3">
-        <v>204800</v>
+        <v>16500</v>
       </c>
       <c r="F102" s="3">
-        <v>-68300</v>
+        <v>196800</v>
       </c>
       <c r="G102" s="3">
-        <v>71600</v>
+        <v>-65600</v>
       </c>
       <c r="H102" s="3">
-        <v>-63500</v>
+        <v>68800</v>
       </c>
       <c r="I102" s="3">
-        <v>-68300</v>
+        <v>-61000</v>
       </c>
       <c r="J102" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="K102" s="3">
         <v>111900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>69600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2551300</v>
+        <v>2461500</v>
       </c>
       <c r="E8" s="3">
-        <v>2579100</v>
+        <v>2488300</v>
       </c>
       <c r="F8" s="3">
-        <v>2568400</v>
+        <v>2478000</v>
       </c>
       <c r="G8" s="3">
-        <v>2492700</v>
+        <v>2404900</v>
       </c>
       <c r="H8" s="3">
-        <v>2366600</v>
+        <v>2283300</v>
       </c>
       <c r="I8" s="3">
-        <v>2444700</v>
+        <v>2358600</v>
       </c>
       <c r="J8" s="3">
-        <v>2227200</v>
+        <v>2148800</v>
       </c>
       <c r="K8" s="3">
         <v>2034700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>539500</v>
+        <v>520500</v>
       </c>
       <c r="E9" s="3">
-        <v>516700</v>
+        <v>498500</v>
       </c>
       <c r="F9" s="3">
-        <v>555400</v>
+        <v>535900</v>
       </c>
       <c r="G9" s="3">
-        <v>486000</v>
+        <v>468900</v>
       </c>
       <c r="H9" s="3">
-        <v>792000</v>
+        <v>764100</v>
       </c>
       <c r="I9" s="3">
-        <v>544000</v>
+        <v>524800</v>
       </c>
       <c r="J9" s="3">
-        <v>465700</v>
+        <v>449300</v>
       </c>
       <c r="K9" s="3">
         <v>383800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2011800</v>
+        <v>1941000</v>
       </c>
       <c r="E10" s="3">
-        <v>2062400</v>
+        <v>1989800</v>
       </c>
       <c r="F10" s="3">
-        <v>2013000</v>
+        <v>1942100</v>
       </c>
       <c r="G10" s="3">
-        <v>2006600</v>
+        <v>1936000</v>
       </c>
       <c r="H10" s="3">
-        <v>1574600</v>
+        <v>1519200</v>
       </c>
       <c r="I10" s="3">
-        <v>1900700</v>
+        <v>1833800</v>
       </c>
       <c r="J10" s="3">
-        <v>1761500</v>
+        <v>1699500</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="E14" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="F14" s="3">
-        <v>49400</v>
+        <v>47700</v>
       </c>
       <c r="G14" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="H14" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I14" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="J14" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="K14" s="3">
         <v>13700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>401500</v>
+        <v>387300</v>
       </c>
       <c r="E15" s="3">
-        <v>398000</v>
+        <v>384000</v>
       </c>
       <c r="F15" s="3">
-        <v>387900</v>
+        <v>374300</v>
       </c>
       <c r="G15" s="3">
-        <v>330800</v>
+        <v>319200</v>
       </c>
       <c r="H15" s="3">
-        <v>330500</v>
+        <v>318800</v>
       </c>
       <c r="I15" s="3">
-        <v>329300</v>
+        <v>317700</v>
       </c>
       <c r="J15" s="3">
-        <v>317900</v>
+        <v>306700</v>
       </c>
       <c r="K15" s="3">
         <v>328300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2256900</v>
+        <v>2177500</v>
       </c>
       <c r="E17" s="3">
-        <v>2290700</v>
+        <v>2210100</v>
       </c>
       <c r="F17" s="3">
-        <v>2412100</v>
+        <v>2327200</v>
       </c>
       <c r="G17" s="3">
-        <v>2208200</v>
+        <v>2130500</v>
       </c>
       <c r="H17" s="3">
-        <v>2077900</v>
+        <v>2004800</v>
       </c>
       <c r="I17" s="3">
-        <v>2133600</v>
+        <v>2058500</v>
       </c>
       <c r="J17" s="3">
-        <v>2031600</v>
+        <v>1960100</v>
       </c>
       <c r="K17" s="3">
         <v>1827500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>294400</v>
+        <v>284000</v>
       </c>
       <c r="E18" s="3">
-        <v>288400</v>
+        <v>278200</v>
       </c>
       <c r="F18" s="3">
-        <v>156300</v>
+        <v>150800</v>
       </c>
       <c r="G18" s="3">
-        <v>284400</v>
+        <v>274400</v>
       </c>
       <c r="H18" s="3">
-        <v>288600</v>
+        <v>278500</v>
       </c>
       <c r="I18" s="3">
-        <v>311100</v>
+        <v>300200</v>
       </c>
       <c r="J18" s="3">
-        <v>195600</v>
+        <v>188700</v>
       </c>
       <c r="K18" s="3">
         <v>207200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="F20" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="H20" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="I20" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="J20" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K20" s="3">
         <v>-11200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>705000</v>
+        <v>675600</v>
       </c>
       <c r="E21" s="3">
-        <v>688900</v>
+        <v>660200</v>
       </c>
       <c r="F21" s="3">
-        <v>556200</v>
+        <v>532100</v>
       </c>
       <c r="G21" s="3">
-        <v>635300</v>
+        <v>609200</v>
       </c>
       <c r="H21" s="3">
-        <v>628000</v>
+        <v>602200</v>
       </c>
       <c r="I21" s="3">
-        <v>642500</v>
+        <v>616200</v>
       </c>
       <c r="J21" s="3">
-        <v>528200</v>
+        <v>506000</v>
       </c>
       <c r="K21" s="3">
         <v>538300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66400</v>
+        <v>64000</v>
       </c>
       <c r="E22" s="3">
-        <v>74500</v>
+        <v>71900</v>
       </c>
       <c r="F22" s="3">
-        <v>93700</v>
+        <v>90400</v>
       </c>
       <c r="G22" s="3">
-        <v>52800</v>
+        <v>50900</v>
       </c>
       <c r="H22" s="3">
-        <v>52700</v>
+        <v>50900</v>
       </c>
       <c r="I22" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="J22" s="3">
-        <v>31100</v>
+        <v>30000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>226600</v>
+        <v>218700</v>
       </c>
       <c r="E23" s="3">
-        <v>208500</v>
+        <v>201200</v>
       </c>
       <c r="F23" s="3">
-        <v>54100</v>
+        <v>52200</v>
       </c>
       <c r="G23" s="3">
-        <v>239100</v>
+        <v>230700</v>
       </c>
       <c r="H23" s="3">
-        <v>245300</v>
+        <v>236700</v>
       </c>
       <c r="I23" s="3">
-        <v>271200</v>
+        <v>261700</v>
       </c>
       <c r="J23" s="3">
-        <v>170600</v>
+        <v>164600</v>
       </c>
       <c r="K23" s="3">
         <v>196000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69600</v>
+        <v>67200</v>
       </c>
       <c r="E24" s="3">
-        <v>63700</v>
+        <v>61400</v>
       </c>
       <c r="F24" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>70200</v>
+        <v>67700</v>
       </c>
       <c r="H24" s="3">
-        <v>66400</v>
+        <v>64100</v>
       </c>
       <c r="I24" s="3">
-        <v>41200</v>
+        <v>39800</v>
       </c>
       <c r="J24" s="3">
-        <v>32100</v>
+        <v>31000</v>
       </c>
       <c r="K24" s="3">
         <v>-1700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>157000</v>
+        <v>151500</v>
       </c>
       <c r="E26" s="3">
-        <v>144900</v>
+        <v>139800</v>
       </c>
       <c r="F26" s="3">
-        <v>32200</v>
+        <v>31100</v>
       </c>
       <c r="G26" s="3">
-        <v>168900</v>
+        <v>163000</v>
       </c>
       <c r="H26" s="3">
-        <v>178900</v>
+        <v>172600</v>
       </c>
       <c r="I26" s="3">
-        <v>230000</v>
+        <v>221900</v>
       </c>
       <c r="J26" s="3">
-        <v>138500</v>
+        <v>133600</v>
       </c>
       <c r="K26" s="3">
         <v>197800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>156900</v>
+        <v>151400</v>
       </c>
       <c r="E27" s="3">
-        <v>144500</v>
+        <v>139400</v>
       </c>
       <c r="F27" s="3">
-        <v>31900</v>
+        <v>30800</v>
       </c>
       <c r="G27" s="3">
-        <v>166800</v>
+        <v>160900</v>
       </c>
       <c r="H27" s="3">
-        <v>174100</v>
+        <v>167900</v>
       </c>
       <c r="I27" s="3">
-        <v>226600</v>
+        <v>218600</v>
       </c>
       <c r="J27" s="3">
-        <v>131900</v>
+        <v>127200</v>
       </c>
       <c r="K27" s="3">
         <v>191200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F32" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="H32" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="I32" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J32" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="K32" s="3">
         <v>11200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>156900</v>
+        <v>151400</v>
       </c>
       <c r="E33" s="3">
-        <v>144500</v>
+        <v>139400</v>
       </c>
       <c r="F33" s="3">
-        <v>31900</v>
+        <v>30800</v>
       </c>
       <c r="G33" s="3">
-        <v>166800</v>
+        <v>160900</v>
       </c>
       <c r="H33" s="3">
-        <v>174100</v>
+        <v>167900</v>
       </c>
       <c r="I33" s="3">
-        <v>226600</v>
+        <v>218600</v>
       </c>
       <c r="J33" s="3">
-        <v>131900</v>
+        <v>127200</v>
       </c>
       <c r="K33" s="3">
         <v>214000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>156900</v>
+        <v>151400</v>
       </c>
       <c r="E35" s="3">
-        <v>144500</v>
+        <v>139400</v>
       </c>
       <c r="F35" s="3">
-        <v>31900</v>
+        <v>30800</v>
       </c>
       <c r="G35" s="3">
-        <v>166800</v>
+        <v>160900</v>
       </c>
       <c r="H35" s="3">
-        <v>174100</v>
+        <v>167900</v>
       </c>
       <c r="I35" s="3">
-        <v>226600</v>
+        <v>218600</v>
       </c>
       <c r="J35" s="3">
-        <v>131900</v>
+        <v>127200</v>
       </c>
       <c r="K35" s="3">
         <v>214000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>185200</v>
+        <v>178700</v>
       </c>
       <c r="E41" s="3">
-        <v>217000</v>
+        <v>209400</v>
       </c>
       <c r="F41" s="3">
-        <v>131800</v>
+        <v>127100</v>
       </c>
       <c r="G41" s="3">
-        <v>78000</v>
+        <v>75300</v>
       </c>
       <c r="H41" s="3">
-        <v>89400</v>
+        <v>86200</v>
       </c>
       <c r="I41" s="3">
-        <v>144500</v>
+        <v>139400</v>
       </c>
       <c r="J41" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="K41" s="3">
         <v>10100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="E42" s="3">
-        <v>90400</v>
+        <v>87200</v>
       </c>
       <c r="F42" s="3">
-        <v>208000</v>
+        <v>200700</v>
       </c>
       <c r="G42" s="3">
-        <v>124200</v>
+        <v>119800</v>
       </c>
       <c r="H42" s="3">
-        <v>163000</v>
+        <v>157200</v>
       </c>
       <c r="I42" s="3">
-        <v>189300</v>
+        <v>182700</v>
       </c>
       <c r="J42" s="3">
-        <v>127100</v>
+        <v>122600</v>
       </c>
       <c r="K42" s="3">
         <v>216200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>563800</v>
+        <v>543900</v>
       </c>
       <c r="E43" s="3">
-        <v>524800</v>
+        <v>506300</v>
       </c>
       <c r="F43" s="3">
-        <v>522400</v>
+        <v>504000</v>
       </c>
       <c r="G43" s="3">
-        <v>563300</v>
+        <v>543500</v>
       </c>
       <c r="H43" s="3">
-        <v>865300</v>
+        <v>834800</v>
       </c>
       <c r="I43" s="3">
-        <v>945500</v>
+        <v>912300</v>
       </c>
       <c r="J43" s="3">
-        <v>357100</v>
+        <v>344600</v>
       </c>
       <c r="K43" s="3">
         <v>282500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64700</v>
+        <v>62400</v>
       </c>
       <c r="E44" s="3">
-        <v>61200</v>
+        <v>59100</v>
       </c>
       <c r="F44" s="3">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="G44" s="3">
-        <v>75600</v>
+        <v>72900</v>
       </c>
       <c r="H44" s="3">
-        <v>165600</v>
+        <v>159800</v>
       </c>
       <c r="I44" s="3">
-        <v>158200</v>
+        <v>152700</v>
       </c>
       <c r="J44" s="3">
-        <v>115900</v>
+        <v>111800</v>
       </c>
       <c r="K44" s="3">
         <v>39600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132800</v>
+        <v>128100</v>
       </c>
       <c r="E45" s="3">
-        <v>57100</v>
+        <v>55100</v>
       </c>
       <c r="F45" s="3">
-        <v>53300</v>
+        <v>51500</v>
       </c>
       <c r="G45" s="3">
-        <v>41000</v>
+        <v>39600</v>
       </c>
       <c r="H45" s="3">
-        <v>31400</v>
+        <v>30300</v>
       </c>
       <c r="I45" s="3">
-        <v>43300</v>
+        <v>41700</v>
       </c>
       <c r="J45" s="3">
-        <v>200500</v>
+        <v>193400</v>
       </c>
       <c r="K45" s="3">
         <v>142700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>962100</v>
+        <v>928300</v>
       </c>
       <c r="E46" s="3">
-        <v>950500</v>
+        <v>917100</v>
       </c>
       <c r="F46" s="3">
-        <v>973500</v>
+        <v>939300</v>
       </c>
       <c r="G46" s="3">
-        <v>882100</v>
+        <v>851100</v>
       </c>
       <c r="H46" s="3">
-        <v>822100</v>
+        <v>793200</v>
       </c>
       <c r="I46" s="3">
-        <v>807900</v>
+        <v>779400</v>
       </c>
       <c r="J46" s="3">
-        <v>767600</v>
+        <v>740600</v>
       </c>
       <c r="K46" s="3">
         <v>691100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E47" s="3">
-        <v>27800</v>
+        <v>26800</v>
       </c>
       <c r="F47" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="G47" s="3">
-        <v>25100</v>
+        <v>24200</v>
       </c>
       <c r="H47" s="3">
-        <v>25200</v>
+        <v>24300</v>
       </c>
       <c r="I47" s="3">
-        <v>40800</v>
+        <v>39400</v>
       </c>
       <c r="J47" s="3">
-        <v>158400</v>
+        <v>152800</v>
       </c>
       <c r="K47" s="3">
         <v>167700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2581600</v>
+        <v>2490700</v>
       </c>
       <c r="E48" s="3">
-        <v>2433900</v>
+        <v>2348300</v>
       </c>
       <c r="F48" s="3">
-        <v>2274000</v>
+        <v>2194000</v>
       </c>
       <c r="G48" s="3">
-        <v>1911500</v>
+        <v>1844300</v>
       </c>
       <c r="H48" s="3">
-        <v>3622000</v>
+        <v>3494600</v>
       </c>
       <c r="I48" s="3">
-        <v>3328500</v>
+        <v>3211300</v>
       </c>
       <c r="J48" s="3">
-        <v>1676700</v>
+        <v>1617700</v>
       </c>
       <c r="K48" s="3">
         <v>1520400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>253500</v>
+        <v>244600</v>
       </c>
       <c r="E49" s="3">
-        <v>274800</v>
+        <v>265100</v>
       </c>
       <c r="F49" s="3">
-        <v>282800</v>
+        <v>272800</v>
       </c>
       <c r="G49" s="3">
-        <v>269800</v>
+        <v>260300</v>
       </c>
       <c r="H49" s="3">
-        <v>536100</v>
+        <v>517200</v>
       </c>
       <c r="I49" s="3">
-        <v>563200</v>
+        <v>543400</v>
       </c>
       <c r="J49" s="3">
-        <v>262800</v>
+        <v>253600</v>
       </c>
       <c r="K49" s="3">
         <v>185200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>111800</v>
+        <v>107900</v>
       </c>
       <c r="E52" s="3">
-        <v>121700</v>
+        <v>117400</v>
       </c>
       <c r="F52" s="3">
-        <v>108600</v>
+        <v>104800</v>
       </c>
       <c r="G52" s="3">
-        <v>70600</v>
+        <v>68200</v>
       </c>
       <c r="H52" s="3">
-        <v>79100</v>
+        <v>76300</v>
       </c>
       <c r="I52" s="3">
-        <v>64700</v>
+        <v>62500</v>
       </c>
       <c r="J52" s="3">
-        <v>76400</v>
+        <v>73700</v>
       </c>
       <c r="K52" s="3">
         <v>101800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3939200</v>
+        <v>3800600</v>
       </c>
       <c r="E54" s="3">
-        <v>3808800</v>
+        <v>3674800</v>
       </c>
       <c r="F54" s="3">
-        <v>3662900</v>
+        <v>3534000</v>
       </c>
       <c r="G54" s="3">
-        <v>3159200</v>
+        <v>3048000</v>
       </c>
       <c r="H54" s="3">
-        <v>3003800</v>
+        <v>2898100</v>
       </c>
       <c r="I54" s="3">
-        <v>2857600</v>
+        <v>2757000</v>
       </c>
       <c r="J54" s="3">
-        <v>2777800</v>
+        <v>2680100</v>
       </c>
       <c r="K54" s="3">
         <v>2607500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>353800</v>
+        <v>341400</v>
       </c>
       <c r="E57" s="3">
-        <v>408000</v>
+        <v>393600</v>
       </c>
       <c r="F57" s="3">
-        <v>303400</v>
+        <v>292700</v>
       </c>
       <c r="G57" s="3">
-        <v>435700</v>
+        <v>420400</v>
       </c>
       <c r="H57" s="3">
-        <v>407200</v>
+        <v>392900</v>
       </c>
       <c r="I57" s="3">
-        <v>676400</v>
+        <v>652600</v>
       </c>
       <c r="J57" s="3">
-        <v>425700</v>
+        <v>410700</v>
       </c>
       <c r="K57" s="3">
         <v>350000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>283100</v>
+        <v>273200</v>
       </c>
       <c r="E58" s="3">
-        <v>113700</v>
+        <v>109700</v>
       </c>
       <c r="F58" s="3">
-        <v>177200</v>
+        <v>170900</v>
       </c>
       <c r="G58" s="3">
-        <v>322300</v>
+        <v>310900</v>
       </c>
       <c r="H58" s="3">
-        <v>135400</v>
+        <v>130600</v>
       </c>
       <c r="I58" s="3">
-        <v>189100</v>
+        <v>182400</v>
       </c>
       <c r="J58" s="3">
-        <v>42300</v>
+        <v>40800</v>
       </c>
       <c r="K58" s="3">
         <v>100200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>470000</v>
+        <v>453400</v>
       </c>
       <c r="E59" s="3">
-        <v>514800</v>
+        <v>496700</v>
       </c>
       <c r="F59" s="3">
-        <v>542500</v>
+        <v>523400</v>
       </c>
       <c r="G59" s="3">
-        <v>222700</v>
+        <v>214900</v>
       </c>
       <c r="H59" s="3">
-        <v>439200</v>
+        <v>423700</v>
       </c>
       <c r="I59" s="3">
-        <v>454700</v>
+        <v>438700</v>
       </c>
       <c r="J59" s="3">
-        <v>312700</v>
+        <v>301700</v>
       </c>
       <c r="K59" s="3">
         <v>274500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1106900</v>
+        <v>1068000</v>
       </c>
       <c r="E60" s="3">
-        <v>1036400</v>
+        <v>999900</v>
       </c>
       <c r="F60" s="3">
-        <v>1023000</v>
+        <v>987000</v>
       </c>
       <c r="G60" s="3">
-        <v>980700</v>
+        <v>946200</v>
       </c>
       <c r="H60" s="3">
-        <v>771100</v>
+        <v>743900</v>
       </c>
       <c r="I60" s="3">
-        <v>779700</v>
+        <v>752300</v>
       </c>
       <c r="J60" s="3">
-        <v>780700</v>
+        <v>753200</v>
       </c>
       <c r="K60" s="3">
         <v>713200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>749500</v>
+        <v>723100</v>
       </c>
       <c r="E61" s="3">
-        <v>831400</v>
+        <v>802200</v>
       </c>
       <c r="F61" s="3">
-        <v>824200</v>
+        <v>795200</v>
       </c>
       <c r="G61" s="3">
-        <v>288800</v>
+        <v>278600</v>
       </c>
       <c r="H61" s="3">
-        <v>427100</v>
+        <v>412100</v>
       </c>
       <c r="I61" s="3">
-        <v>282400</v>
+        <v>272500</v>
       </c>
       <c r="J61" s="3">
-        <v>272500</v>
+        <v>262900</v>
       </c>
       <c r="K61" s="3">
         <v>201500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51400</v>
+        <v>49600</v>
       </c>
       <c r="E62" s="3">
-        <v>70800</v>
+        <v>68300</v>
       </c>
       <c r="F62" s="3">
-        <v>56900</v>
+        <v>54900</v>
       </c>
       <c r="G62" s="3">
-        <v>113400</v>
+        <v>109400</v>
       </c>
       <c r="H62" s="3">
-        <v>185600</v>
+        <v>179000</v>
       </c>
       <c r="I62" s="3">
-        <v>134700</v>
+        <v>130000</v>
       </c>
       <c r="J62" s="3">
-        <v>151400</v>
+        <v>146100</v>
       </c>
       <c r="K62" s="3">
         <v>126000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1906300</v>
+        <v>1839200</v>
       </c>
       <c r="E66" s="3">
-        <v>1937200</v>
+        <v>1869000</v>
       </c>
       <c r="F66" s="3">
-        <v>1902400</v>
+        <v>1835400</v>
       </c>
       <c r="G66" s="3">
-        <v>1394500</v>
+        <v>1345500</v>
       </c>
       <c r="H66" s="3">
-        <v>1395300</v>
+        <v>1346200</v>
       </c>
       <c r="I66" s="3">
-        <v>1208600</v>
+        <v>1166100</v>
       </c>
       <c r="J66" s="3">
-        <v>1227900</v>
+        <v>1184700</v>
       </c>
       <c r="K66" s="3">
         <v>1063200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1731600</v>
+        <v>1670600</v>
       </c>
       <c r="E72" s="3">
-        <v>1570300</v>
+        <v>1515000</v>
       </c>
       <c r="F72" s="3">
-        <v>1459200</v>
+        <v>1407800</v>
       </c>
       <c r="G72" s="3">
-        <v>1463300</v>
+        <v>1411800</v>
       </c>
       <c r="H72" s="3">
-        <v>1307200</v>
+        <v>1261200</v>
       </c>
       <c r="I72" s="3">
-        <v>1338200</v>
+        <v>1291100</v>
       </c>
       <c r="J72" s="3">
-        <v>1239200</v>
+        <v>1195600</v>
       </c>
       <c r="K72" s="3">
         <v>1220800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2032900</v>
+        <v>1961400</v>
       </c>
       <c r="E76" s="3">
-        <v>1871600</v>
+        <v>1805700</v>
       </c>
       <c r="F76" s="3">
-        <v>1760500</v>
+        <v>1698500</v>
       </c>
       <c r="G76" s="3">
-        <v>1764600</v>
+        <v>1702500</v>
       </c>
       <c r="H76" s="3">
-        <v>1608500</v>
+        <v>1551900</v>
       </c>
       <c r="I76" s="3">
-        <v>1649000</v>
+        <v>1590900</v>
       </c>
       <c r="J76" s="3">
-        <v>1549900</v>
+        <v>1495400</v>
       </c>
       <c r="K76" s="3">
         <v>1544300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>156900</v>
+        <v>151400</v>
       </c>
       <c r="E81" s="3">
-        <v>144500</v>
+        <v>139400</v>
       </c>
       <c r="F81" s="3">
-        <v>31900</v>
+        <v>30800</v>
       </c>
       <c r="G81" s="3">
-        <v>166800</v>
+        <v>160900</v>
       </c>
       <c r="H81" s="3">
-        <v>174100</v>
+        <v>167900</v>
       </c>
       <c r="I81" s="3">
-        <v>226600</v>
+        <v>218600</v>
       </c>
       <c r="J81" s="3">
-        <v>131900</v>
+        <v>127200</v>
       </c>
       <c r="K81" s="3">
         <v>214000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>416200</v>
+        <v>401600</v>
       </c>
       <c r="E83" s="3">
-        <v>409900</v>
+        <v>395500</v>
       </c>
       <c r="F83" s="3">
-        <v>412600</v>
+        <v>398100</v>
       </c>
       <c r="G83" s="3">
-        <v>346900</v>
+        <v>334700</v>
       </c>
       <c r="H83" s="3">
-        <v>333300</v>
+        <v>321500</v>
       </c>
       <c r="I83" s="3">
-        <v>337800</v>
+        <v>325900</v>
       </c>
       <c r="J83" s="3">
-        <v>329800</v>
+        <v>318200</v>
       </c>
       <c r="K83" s="3">
         <v>341900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>486400</v>
+        <v>469300</v>
       </c>
       <c r="E89" s="3">
-        <v>652800</v>
+        <v>629900</v>
       </c>
       <c r="F89" s="3">
-        <v>511000</v>
+        <v>493000</v>
       </c>
       <c r="G89" s="3">
-        <v>340500</v>
+        <v>328500</v>
       </c>
       <c r="H89" s="3">
-        <v>360300</v>
+        <v>347700</v>
       </c>
       <c r="I89" s="3">
-        <v>330700</v>
+        <v>319100</v>
       </c>
       <c r="J89" s="3">
-        <v>399800</v>
+        <v>385800</v>
       </c>
       <c r="K89" s="3">
         <v>390100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-479200</v>
+        <v>-462300</v>
       </c>
       <c r="E91" s="3">
-        <v>-495900</v>
+        <v>-478500</v>
       </c>
       <c r="F91" s="3">
-        <v>-460200</v>
+        <v>-444000</v>
       </c>
       <c r="G91" s="3">
-        <v>-452500</v>
+        <v>-436600</v>
       </c>
       <c r="H91" s="3">
-        <v>-462800</v>
+        <v>-446500</v>
       </c>
       <c r="I91" s="3">
-        <v>-505900</v>
+        <v>-488100</v>
       </c>
       <c r="J91" s="3">
-        <v>-351500</v>
+        <v>-339100</v>
       </c>
       <c r="K91" s="3">
         <v>-314900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-554800</v>
+        <v>-535300</v>
       </c>
       <c r="E94" s="3">
-        <v>-494900</v>
+        <v>-477500</v>
       </c>
       <c r="F94" s="3">
-        <v>-355700</v>
+        <v>-343200</v>
       </c>
       <c r="G94" s="3">
-        <v>-448800</v>
+        <v>-433000</v>
       </c>
       <c r="H94" s="3">
-        <v>-394800</v>
+        <v>-380900</v>
       </c>
       <c r="I94" s="3">
-        <v>-396000</v>
+        <v>-382100</v>
       </c>
       <c r="J94" s="3">
-        <v>-490200</v>
+        <v>-472900</v>
       </c>
       <c r="K94" s="3">
         <v>-321000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-36800</v>
+        <v>-35500</v>
       </c>
       <c r="E100" s="3">
-        <v>-141500</v>
+        <v>-136500</v>
       </c>
       <c r="F100" s="3">
-        <v>41500</v>
+        <v>40100</v>
       </c>
       <c r="G100" s="3">
-        <v>42800</v>
+        <v>41300</v>
       </c>
       <c r="H100" s="3">
-        <v>103300</v>
+        <v>99700</v>
       </c>
       <c r="I100" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J100" s="3">
-        <v>24600</v>
+        <v>23700</v>
       </c>
       <c r="K100" s="3">
         <v>42500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-105200</v>
+        <v>-101500</v>
       </c>
       <c r="E102" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="F102" s="3">
-        <v>196800</v>
+        <v>189900</v>
       </c>
       <c r="G102" s="3">
-        <v>-65600</v>
+        <v>-63300</v>
       </c>
       <c r="H102" s="3">
-        <v>68800</v>
+        <v>66400</v>
       </c>
       <c r="I102" s="3">
-        <v>-61000</v>
+        <v>-58900</v>
       </c>
       <c r="J102" s="3">
-        <v>-65600</v>
+        <v>-63300</v>
       </c>
       <c r="K102" s="3">
         <v>111900</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2461500</v>
+        <v>2303300</v>
       </c>
       <c r="E8" s="3">
-        <v>2488300</v>
+        <v>2328400</v>
       </c>
       <c r="F8" s="3">
-        <v>2478000</v>
+        <v>2318700</v>
       </c>
       <c r="G8" s="3">
-        <v>2404900</v>
+        <v>2250400</v>
       </c>
       <c r="H8" s="3">
-        <v>2283300</v>
+        <v>2136500</v>
       </c>
       <c r="I8" s="3">
-        <v>2358600</v>
+        <v>2207100</v>
       </c>
       <c r="J8" s="3">
-        <v>2148800</v>
+        <v>2010700</v>
       </c>
       <c r="K8" s="3">
         <v>2034700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>520500</v>
+        <v>487000</v>
       </c>
       <c r="E9" s="3">
-        <v>498500</v>
+        <v>466500</v>
       </c>
       <c r="F9" s="3">
-        <v>535900</v>
+        <v>501400</v>
       </c>
       <c r="G9" s="3">
-        <v>468900</v>
+        <v>438800</v>
       </c>
       <c r="H9" s="3">
-        <v>764100</v>
+        <v>715000</v>
       </c>
       <c r="I9" s="3">
-        <v>524800</v>
+        <v>491100</v>
       </c>
       <c r="J9" s="3">
-        <v>449300</v>
+        <v>420400</v>
       </c>
       <c r="K9" s="3">
         <v>383800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1941000</v>
+        <v>1816200</v>
       </c>
       <c r="E10" s="3">
-        <v>1989800</v>
+        <v>1861900</v>
       </c>
       <c r="F10" s="3">
-        <v>1942100</v>
+        <v>1817300</v>
       </c>
       <c r="G10" s="3">
-        <v>1936000</v>
+        <v>1811600</v>
       </c>
       <c r="H10" s="3">
-        <v>1519200</v>
+        <v>1421500</v>
       </c>
       <c r="I10" s="3">
-        <v>1833800</v>
+        <v>1716000</v>
       </c>
       <c r="J10" s="3">
-        <v>1699500</v>
+        <v>1590300</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="E14" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="F14" s="3">
-        <v>47700</v>
+        <v>44600</v>
       </c>
       <c r="G14" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="H14" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="J14" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="K14" s="3">
         <v>13700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>387300</v>
+        <v>362400</v>
       </c>
       <c r="E15" s="3">
-        <v>384000</v>
+        <v>359300</v>
       </c>
       <c r="F15" s="3">
-        <v>374300</v>
+        <v>350200</v>
       </c>
       <c r="G15" s="3">
-        <v>319200</v>
+        <v>298700</v>
       </c>
       <c r="H15" s="3">
-        <v>318800</v>
+        <v>298300</v>
       </c>
       <c r="I15" s="3">
-        <v>317700</v>
+        <v>297300</v>
       </c>
       <c r="J15" s="3">
-        <v>306700</v>
+        <v>287000</v>
       </c>
       <c r="K15" s="3">
         <v>328300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2177500</v>
+        <v>2037500</v>
       </c>
       <c r="E17" s="3">
-        <v>2210100</v>
+        <v>2068000</v>
       </c>
       <c r="F17" s="3">
-        <v>2327200</v>
+        <v>2177600</v>
       </c>
       <c r="G17" s="3">
-        <v>2130500</v>
+        <v>1993600</v>
       </c>
       <c r="H17" s="3">
-        <v>2004800</v>
+        <v>1876000</v>
       </c>
       <c r="I17" s="3">
-        <v>2058500</v>
+        <v>1926200</v>
       </c>
       <c r="J17" s="3">
-        <v>1960100</v>
+        <v>1834100</v>
       </c>
       <c r="K17" s="3">
         <v>1827500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>284000</v>
+        <v>265700</v>
       </c>
       <c r="E18" s="3">
-        <v>278200</v>
+        <v>260400</v>
       </c>
       <c r="F18" s="3">
-        <v>150800</v>
+        <v>141100</v>
       </c>
       <c r="G18" s="3">
-        <v>274400</v>
+        <v>256800</v>
       </c>
       <c r="H18" s="3">
-        <v>278500</v>
+        <v>260600</v>
       </c>
       <c r="I18" s="3">
-        <v>300200</v>
+        <v>280900</v>
       </c>
       <c r="J18" s="3">
-        <v>188700</v>
+        <v>176600</v>
       </c>
       <c r="K18" s="3">
         <v>207200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="F20" s="3">
-        <v>-8200</v>
+        <v>-7700</v>
       </c>
       <c r="G20" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="H20" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J20" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K20" s="3">
         <v>-11200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>675600</v>
+        <v>639400</v>
       </c>
       <c r="E21" s="3">
-        <v>660200</v>
+        <v>624800</v>
       </c>
       <c r="F21" s="3">
-        <v>532100</v>
+        <v>505100</v>
       </c>
       <c r="G21" s="3">
-        <v>609200</v>
+        <v>576000</v>
       </c>
       <c r="H21" s="3">
-        <v>602200</v>
+        <v>569300</v>
       </c>
       <c r="I21" s="3">
-        <v>616200</v>
+        <v>582400</v>
       </c>
       <c r="J21" s="3">
-        <v>506000</v>
+        <v>479200</v>
       </c>
       <c r="K21" s="3">
         <v>538300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64000</v>
+        <v>59900</v>
       </c>
       <c r="E22" s="3">
-        <v>71900</v>
+        <v>67300</v>
       </c>
       <c r="F22" s="3">
-        <v>90400</v>
+        <v>84600</v>
       </c>
       <c r="G22" s="3">
-        <v>50900</v>
+        <v>47700</v>
       </c>
       <c r="H22" s="3">
-        <v>50900</v>
+        <v>47600</v>
       </c>
       <c r="I22" s="3">
-        <v>35600</v>
+        <v>33300</v>
       </c>
       <c r="J22" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>218700</v>
+        <v>204600</v>
       </c>
       <c r="E23" s="3">
-        <v>201200</v>
+        <v>188300</v>
       </c>
       <c r="F23" s="3">
-        <v>52200</v>
+        <v>48800</v>
       </c>
       <c r="G23" s="3">
-        <v>230700</v>
+        <v>215900</v>
       </c>
       <c r="H23" s="3">
-        <v>236700</v>
+        <v>221500</v>
       </c>
       <c r="I23" s="3">
-        <v>261700</v>
+        <v>244800</v>
       </c>
       <c r="J23" s="3">
-        <v>164600</v>
+        <v>154000</v>
       </c>
       <c r="K23" s="3">
         <v>196000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67200</v>
+        <v>62900</v>
       </c>
       <c r="E24" s="3">
-        <v>61400</v>
+        <v>57500</v>
       </c>
       <c r="F24" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="G24" s="3">
-        <v>67700</v>
+        <v>63400</v>
       </c>
       <c r="H24" s="3">
-        <v>64100</v>
+        <v>60000</v>
       </c>
       <c r="I24" s="3">
-        <v>39800</v>
+        <v>37200</v>
       </c>
       <c r="J24" s="3">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="K24" s="3">
         <v>-1700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>151500</v>
+        <v>141700</v>
       </c>
       <c r="E26" s="3">
-        <v>139800</v>
+        <v>130800</v>
       </c>
       <c r="F26" s="3">
-        <v>31100</v>
+        <v>29100</v>
       </c>
       <c r="G26" s="3">
-        <v>163000</v>
+        <v>152500</v>
       </c>
       <c r="H26" s="3">
-        <v>172600</v>
+        <v>161500</v>
       </c>
       <c r="I26" s="3">
-        <v>221900</v>
+        <v>207600</v>
       </c>
       <c r="J26" s="3">
-        <v>133600</v>
+        <v>125000</v>
       </c>
       <c r="K26" s="3">
         <v>197800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>151400</v>
+        <v>141700</v>
       </c>
       <c r="E27" s="3">
-        <v>139400</v>
+        <v>130500</v>
       </c>
       <c r="F27" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="G27" s="3">
-        <v>160900</v>
+        <v>150600</v>
       </c>
       <c r="H27" s="3">
-        <v>167900</v>
+        <v>157100</v>
       </c>
       <c r="I27" s="3">
-        <v>218600</v>
+        <v>204500</v>
       </c>
       <c r="J27" s="3">
-        <v>127200</v>
+        <v>119100</v>
       </c>
       <c r="K27" s="3">
         <v>191200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="F32" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="H32" s="3">
-        <v>-9100</v>
+        <v>-8500</v>
       </c>
       <c r="I32" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J32" s="3">
-        <v>-5900</v>
+        <v>-5500</v>
       </c>
       <c r="K32" s="3">
         <v>11200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>151400</v>
+        <v>141700</v>
       </c>
       <c r="E33" s="3">
-        <v>139400</v>
+        <v>130500</v>
       </c>
       <c r="F33" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="G33" s="3">
-        <v>160900</v>
+        <v>150600</v>
       </c>
       <c r="H33" s="3">
-        <v>167900</v>
+        <v>157100</v>
       </c>
       <c r="I33" s="3">
-        <v>218600</v>
+        <v>204500</v>
       </c>
       <c r="J33" s="3">
-        <v>127200</v>
+        <v>119100</v>
       </c>
       <c r="K33" s="3">
         <v>214000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>151400</v>
+        <v>141700</v>
       </c>
       <c r="E35" s="3">
-        <v>139400</v>
+        <v>130500</v>
       </c>
       <c r="F35" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="G35" s="3">
-        <v>160900</v>
+        <v>150600</v>
       </c>
       <c r="H35" s="3">
-        <v>167900</v>
+        <v>157100</v>
       </c>
       <c r="I35" s="3">
-        <v>218600</v>
+        <v>204500</v>
       </c>
       <c r="J35" s="3">
-        <v>127200</v>
+        <v>119100</v>
       </c>
       <c r="K35" s="3">
         <v>214000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>178700</v>
+        <v>167200</v>
       </c>
       <c r="E41" s="3">
-        <v>209400</v>
+        <v>195900</v>
       </c>
       <c r="F41" s="3">
-        <v>127100</v>
+        <v>118900</v>
       </c>
       <c r="G41" s="3">
-        <v>75300</v>
+        <v>70500</v>
       </c>
       <c r="H41" s="3">
-        <v>86200</v>
+        <v>80700</v>
       </c>
       <c r="I41" s="3">
-        <v>139400</v>
+        <v>130400</v>
       </c>
       <c r="J41" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="K41" s="3">
         <v>10100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15100</v>
+        <v>14200</v>
       </c>
       <c r="E42" s="3">
-        <v>87200</v>
+        <v>81600</v>
       </c>
       <c r="F42" s="3">
-        <v>200700</v>
+        <v>187800</v>
       </c>
       <c r="G42" s="3">
-        <v>119800</v>
+        <v>112100</v>
       </c>
       <c r="H42" s="3">
-        <v>157200</v>
+        <v>147100</v>
       </c>
       <c r="I42" s="3">
-        <v>182700</v>
+        <v>170900</v>
       </c>
       <c r="J42" s="3">
-        <v>122600</v>
+        <v>114700</v>
       </c>
       <c r="K42" s="3">
         <v>216200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>543900</v>
+        <v>509000</v>
       </c>
       <c r="E43" s="3">
-        <v>506300</v>
+        <v>473800</v>
       </c>
       <c r="F43" s="3">
-        <v>504000</v>
+        <v>471600</v>
       </c>
       <c r="G43" s="3">
-        <v>543500</v>
+        <v>508500</v>
       </c>
       <c r="H43" s="3">
-        <v>834800</v>
+        <v>781200</v>
       </c>
       <c r="I43" s="3">
-        <v>912300</v>
+        <v>853600</v>
       </c>
       <c r="J43" s="3">
-        <v>344600</v>
+        <v>322400</v>
       </c>
       <c r="K43" s="3">
         <v>282500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62400</v>
+        <v>58400</v>
       </c>
       <c r="E44" s="3">
-        <v>59100</v>
+        <v>55300</v>
       </c>
       <c r="F44" s="3">
-        <v>56000</v>
+        <v>52400</v>
       </c>
       <c r="G44" s="3">
-        <v>72900</v>
+        <v>68300</v>
       </c>
       <c r="H44" s="3">
-        <v>159800</v>
+        <v>149500</v>
       </c>
       <c r="I44" s="3">
-        <v>152700</v>
+        <v>142900</v>
       </c>
       <c r="J44" s="3">
-        <v>111800</v>
+        <v>104600</v>
       </c>
       <c r="K44" s="3">
         <v>39600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128100</v>
+        <v>119900</v>
       </c>
       <c r="E45" s="3">
-        <v>55100</v>
+        <v>51600</v>
       </c>
       <c r="F45" s="3">
-        <v>51500</v>
+        <v>48200</v>
       </c>
       <c r="G45" s="3">
-        <v>39600</v>
+        <v>37000</v>
       </c>
       <c r="H45" s="3">
-        <v>30300</v>
+        <v>28400</v>
       </c>
       <c r="I45" s="3">
-        <v>41700</v>
+        <v>39100</v>
       </c>
       <c r="J45" s="3">
-        <v>193400</v>
+        <v>181000</v>
       </c>
       <c r="K45" s="3">
         <v>142700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>928300</v>
+        <v>868600</v>
       </c>
       <c r="E46" s="3">
-        <v>917100</v>
+        <v>858100</v>
       </c>
       <c r="F46" s="3">
-        <v>939300</v>
+        <v>878900</v>
       </c>
       <c r="G46" s="3">
-        <v>851100</v>
+        <v>796400</v>
       </c>
       <c r="H46" s="3">
-        <v>793200</v>
+        <v>742200</v>
       </c>
       <c r="I46" s="3">
-        <v>779400</v>
+        <v>729300</v>
       </c>
       <c r="J46" s="3">
-        <v>740600</v>
+        <v>693000</v>
       </c>
       <c r="K46" s="3">
         <v>691100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="E47" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="F47" s="3">
-        <v>23100</v>
+        <v>21700</v>
       </c>
       <c r="G47" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="H47" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="I47" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="J47" s="3">
-        <v>152800</v>
+        <v>143000</v>
       </c>
       <c r="K47" s="3">
         <v>167700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2490700</v>
+        <v>2330600</v>
       </c>
       <c r="E48" s="3">
-        <v>2348300</v>
+        <v>2197400</v>
       </c>
       <c r="F48" s="3">
-        <v>2194000</v>
+        <v>2053000</v>
       </c>
       <c r="G48" s="3">
-        <v>1844300</v>
+        <v>1725700</v>
       </c>
       <c r="H48" s="3">
-        <v>3494600</v>
+        <v>3270000</v>
       </c>
       <c r="I48" s="3">
-        <v>3211300</v>
+        <v>3004900</v>
       </c>
       <c r="J48" s="3">
-        <v>1617700</v>
+        <v>1513700</v>
       </c>
       <c r="K48" s="3">
         <v>1520400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>244600</v>
+        <v>228800</v>
       </c>
       <c r="E49" s="3">
-        <v>265100</v>
+        <v>248100</v>
       </c>
       <c r="F49" s="3">
-        <v>272800</v>
+        <v>255300</v>
       </c>
       <c r="G49" s="3">
-        <v>260300</v>
+        <v>243500</v>
       </c>
       <c r="H49" s="3">
-        <v>517200</v>
+        <v>484000</v>
       </c>
       <c r="I49" s="3">
-        <v>543400</v>
+        <v>508500</v>
       </c>
       <c r="J49" s="3">
-        <v>253600</v>
+        <v>237300</v>
       </c>
       <c r="K49" s="3">
         <v>185200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107900</v>
+        <v>101000</v>
       </c>
       <c r="E52" s="3">
-        <v>117400</v>
+        <v>109900</v>
       </c>
       <c r="F52" s="3">
-        <v>104800</v>
+        <v>98000</v>
       </c>
       <c r="G52" s="3">
-        <v>68200</v>
+        <v>63800</v>
       </c>
       <c r="H52" s="3">
-        <v>76300</v>
+        <v>71400</v>
       </c>
       <c r="I52" s="3">
-        <v>62500</v>
+        <v>58400</v>
       </c>
       <c r="J52" s="3">
-        <v>73700</v>
+        <v>69000</v>
       </c>
       <c r="K52" s="3">
         <v>101800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3800600</v>
+        <v>3556300</v>
       </c>
       <c r="E54" s="3">
-        <v>3674800</v>
+        <v>3438600</v>
       </c>
       <c r="F54" s="3">
-        <v>3534000</v>
+        <v>3306900</v>
       </c>
       <c r="G54" s="3">
-        <v>3048000</v>
+        <v>2852100</v>
       </c>
       <c r="H54" s="3">
-        <v>2898100</v>
+        <v>2711900</v>
       </c>
       <c r="I54" s="3">
-        <v>2757000</v>
+        <v>2579800</v>
       </c>
       <c r="J54" s="3">
-        <v>2680100</v>
+        <v>2507800</v>
       </c>
       <c r="K54" s="3">
         <v>2607500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>341400</v>
+        <v>319400</v>
       </c>
       <c r="E57" s="3">
-        <v>393600</v>
+        <v>368300</v>
       </c>
       <c r="F57" s="3">
-        <v>292700</v>
+        <v>273900</v>
       </c>
       <c r="G57" s="3">
-        <v>420400</v>
+        <v>393400</v>
       </c>
       <c r="H57" s="3">
-        <v>392900</v>
+        <v>367600</v>
       </c>
       <c r="I57" s="3">
-        <v>652600</v>
+        <v>610600</v>
       </c>
       <c r="J57" s="3">
-        <v>410700</v>
+        <v>384300</v>
       </c>
       <c r="K57" s="3">
         <v>350000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>273200</v>
+        <v>255600</v>
       </c>
       <c r="E58" s="3">
-        <v>109700</v>
+        <v>102600</v>
       </c>
       <c r="F58" s="3">
-        <v>170900</v>
+        <v>159900</v>
       </c>
       <c r="G58" s="3">
-        <v>310900</v>
+        <v>291000</v>
       </c>
       <c r="H58" s="3">
-        <v>130600</v>
+        <v>122200</v>
       </c>
       <c r="I58" s="3">
-        <v>182400</v>
+        <v>170700</v>
       </c>
       <c r="J58" s="3">
-        <v>40800</v>
+        <v>38200</v>
       </c>
       <c r="K58" s="3">
         <v>100200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>453400</v>
+        <v>424300</v>
       </c>
       <c r="E59" s="3">
-        <v>496700</v>
+        <v>464700</v>
       </c>
       <c r="F59" s="3">
-        <v>523400</v>
+        <v>489700</v>
       </c>
       <c r="G59" s="3">
-        <v>214900</v>
+        <v>201100</v>
       </c>
       <c r="H59" s="3">
-        <v>423700</v>
+        <v>396500</v>
       </c>
       <c r="I59" s="3">
-        <v>438700</v>
+        <v>410500</v>
       </c>
       <c r="J59" s="3">
-        <v>301700</v>
+        <v>282300</v>
       </c>
       <c r="K59" s="3">
         <v>274500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1068000</v>
+        <v>999300</v>
       </c>
       <c r="E60" s="3">
-        <v>999900</v>
+        <v>935700</v>
       </c>
       <c r="F60" s="3">
-        <v>987000</v>
+        <v>923500</v>
       </c>
       <c r="G60" s="3">
-        <v>946200</v>
+        <v>885400</v>
       </c>
       <c r="H60" s="3">
-        <v>743900</v>
+        <v>696100</v>
       </c>
       <c r="I60" s="3">
-        <v>752300</v>
+        <v>703900</v>
       </c>
       <c r="J60" s="3">
-        <v>753200</v>
+        <v>704800</v>
       </c>
       <c r="K60" s="3">
         <v>713200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>723100</v>
+        <v>676700</v>
       </c>
       <c r="E61" s="3">
-        <v>802200</v>
+        <v>750600</v>
       </c>
       <c r="F61" s="3">
-        <v>795200</v>
+        <v>744100</v>
       </c>
       <c r="G61" s="3">
-        <v>278600</v>
+        <v>260700</v>
       </c>
       <c r="H61" s="3">
-        <v>412100</v>
+        <v>385600</v>
       </c>
       <c r="I61" s="3">
-        <v>272500</v>
+        <v>255000</v>
       </c>
       <c r="J61" s="3">
-        <v>262900</v>
+        <v>246000</v>
       </c>
       <c r="K61" s="3">
         <v>201500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49600</v>
+        <v>46400</v>
       </c>
       <c r="E62" s="3">
-        <v>68300</v>
+        <v>63900</v>
       </c>
       <c r="F62" s="3">
-        <v>54900</v>
+        <v>51400</v>
       </c>
       <c r="G62" s="3">
-        <v>109400</v>
+        <v>102400</v>
       </c>
       <c r="H62" s="3">
-        <v>179000</v>
+        <v>167500</v>
       </c>
       <c r="I62" s="3">
-        <v>130000</v>
+        <v>121600</v>
       </c>
       <c r="J62" s="3">
-        <v>146100</v>
+        <v>136700</v>
       </c>
       <c r="K62" s="3">
         <v>126000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1839200</v>
+        <v>1721000</v>
       </c>
       <c r="E66" s="3">
-        <v>1869000</v>
+        <v>1748900</v>
       </c>
       <c r="F66" s="3">
-        <v>1835400</v>
+        <v>1717500</v>
       </c>
       <c r="G66" s="3">
-        <v>1345500</v>
+        <v>1259000</v>
       </c>
       <c r="H66" s="3">
-        <v>1346200</v>
+        <v>1259700</v>
       </c>
       <c r="I66" s="3">
-        <v>1166100</v>
+        <v>1091100</v>
       </c>
       <c r="J66" s="3">
-        <v>1184700</v>
+        <v>1108500</v>
       </c>
       <c r="K66" s="3">
         <v>1063200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1670600</v>
+        <v>1563300</v>
       </c>
       <c r="E72" s="3">
-        <v>1515000</v>
+        <v>1417600</v>
       </c>
       <c r="F72" s="3">
-        <v>1407800</v>
+        <v>1317300</v>
       </c>
       <c r="G72" s="3">
-        <v>1411800</v>
+        <v>1321100</v>
       </c>
       <c r="H72" s="3">
-        <v>1261200</v>
+        <v>1180100</v>
       </c>
       <c r="I72" s="3">
-        <v>1291100</v>
+        <v>1208100</v>
       </c>
       <c r="J72" s="3">
-        <v>1195600</v>
+        <v>1118700</v>
       </c>
       <c r="K72" s="3">
         <v>1220800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1961400</v>
+        <v>1835300</v>
       </c>
       <c r="E76" s="3">
-        <v>1805700</v>
+        <v>1689700</v>
       </c>
       <c r="F76" s="3">
-        <v>1698500</v>
+        <v>1589400</v>
       </c>
       <c r="G76" s="3">
-        <v>1702500</v>
+        <v>1593100</v>
       </c>
       <c r="H76" s="3">
-        <v>1551900</v>
+        <v>1452200</v>
       </c>
       <c r="I76" s="3">
-        <v>1590900</v>
+        <v>1488700</v>
       </c>
       <c r="J76" s="3">
-        <v>1495400</v>
+        <v>1399300</v>
       </c>
       <c r="K76" s="3">
         <v>1544300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>151400</v>
+        <v>141700</v>
       </c>
       <c r="E81" s="3">
-        <v>139400</v>
+        <v>130500</v>
       </c>
       <c r="F81" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="G81" s="3">
-        <v>160900</v>
+        <v>150600</v>
       </c>
       <c r="H81" s="3">
-        <v>167900</v>
+        <v>157100</v>
       </c>
       <c r="I81" s="3">
-        <v>218600</v>
+        <v>204500</v>
       </c>
       <c r="J81" s="3">
-        <v>127200</v>
+        <v>119100</v>
       </c>
       <c r="K81" s="3">
         <v>214000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>401600</v>
+        <v>375700</v>
       </c>
       <c r="E83" s="3">
-        <v>395500</v>
+        <v>370100</v>
       </c>
       <c r="F83" s="3">
-        <v>398100</v>
+        <v>372500</v>
       </c>
       <c r="G83" s="3">
-        <v>334700</v>
+        <v>313200</v>
       </c>
       <c r="H83" s="3">
-        <v>321500</v>
+        <v>300900</v>
       </c>
       <c r="I83" s="3">
-        <v>325900</v>
+        <v>305000</v>
       </c>
       <c r="J83" s="3">
-        <v>318200</v>
+        <v>297700</v>
       </c>
       <c r="K83" s="3">
         <v>341900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>469300</v>
+        <v>439100</v>
       </c>
       <c r="E89" s="3">
-        <v>629900</v>
+        <v>589400</v>
       </c>
       <c r="F89" s="3">
-        <v>493000</v>
+        <v>461300</v>
       </c>
       <c r="G89" s="3">
-        <v>328500</v>
+        <v>307400</v>
       </c>
       <c r="H89" s="3">
-        <v>347700</v>
+        <v>325300</v>
       </c>
       <c r="I89" s="3">
-        <v>319100</v>
+        <v>298500</v>
       </c>
       <c r="J89" s="3">
-        <v>385800</v>
+        <v>361000</v>
       </c>
       <c r="K89" s="3">
         <v>390100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-462300</v>
+        <v>-432600</v>
       </c>
       <c r="E91" s="3">
-        <v>-478500</v>
+        <v>-447700</v>
       </c>
       <c r="F91" s="3">
-        <v>-444000</v>
+        <v>-415400</v>
       </c>
       <c r="G91" s="3">
-        <v>-436600</v>
+        <v>-408600</v>
       </c>
       <c r="H91" s="3">
-        <v>-446500</v>
+        <v>-417800</v>
       </c>
       <c r="I91" s="3">
-        <v>-488100</v>
+        <v>-456800</v>
       </c>
       <c r="J91" s="3">
-        <v>-339100</v>
+        <v>-317300</v>
       </c>
       <c r="K91" s="3">
         <v>-314900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-535300</v>
+        <v>-500900</v>
       </c>
       <c r="E94" s="3">
-        <v>-477500</v>
+        <v>-446800</v>
       </c>
       <c r="F94" s="3">
-        <v>-343200</v>
+        <v>-321100</v>
       </c>
       <c r="G94" s="3">
-        <v>-433000</v>
+        <v>-405200</v>
       </c>
       <c r="H94" s="3">
-        <v>-380900</v>
+        <v>-356500</v>
       </c>
       <c r="I94" s="3">
-        <v>-382100</v>
+        <v>-357500</v>
       </c>
       <c r="J94" s="3">
-        <v>-472900</v>
+        <v>-442500</v>
       </c>
       <c r="K94" s="3">
         <v>-321000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-35500</v>
+        <v>-33200</v>
       </c>
       <c r="E100" s="3">
-        <v>-136500</v>
+        <v>-127700</v>
       </c>
       <c r="F100" s="3">
-        <v>40100</v>
+        <v>37500</v>
       </c>
       <c r="G100" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="H100" s="3">
-        <v>99700</v>
+        <v>93200</v>
       </c>
       <c r="I100" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="J100" s="3">
-        <v>23700</v>
+        <v>22200</v>
       </c>
       <c r="K100" s="3">
         <v>42500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-101500</v>
+        <v>-95000</v>
       </c>
       <c r="E102" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="F102" s="3">
-        <v>189900</v>
+        <v>177700</v>
       </c>
       <c r="G102" s="3">
-        <v>-63300</v>
+        <v>-59200</v>
       </c>
       <c r="H102" s="3">
-        <v>66400</v>
+        <v>62100</v>
       </c>
       <c r="I102" s="3">
-        <v>-58900</v>
+        <v>-55100</v>
       </c>
       <c r="J102" s="3">
-        <v>-63300</v>
+        <v>-59300</v>
       </c>
       <c r="K102" s="3">
         <v>111900</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2303300</v>
+        <v>2211300</v>
       </c>
       <c r="E8" s="3">
-        <v>2328400</v>
+        <v>2235400</v>
       </c>
       <c r="F8" s="3">
-        <v>2318700</v>
+        <v>2226200</v>
       </c>
       <c r="G8" s="3">
-        <v>2250400</v>
+        <v>2160600</v>
       </c>
       <c r="H8" s="3">
-        <v>2136500</v>
+        <v>2051300</v>
       </c>
       <c r="I8" s="3">
-        <v>2207100</v>
+        <v>2119000</v>
       </c>
       <c r="J8" s="3">
-        <v>2010700</v>
+        <v>1930400</v>
       </c>
       <c r="K8" s="3">
         <v>2034700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>487000</v>
+        <v>467600</v>
       </c>
       <c r="E9" s="3">
-        <v>466500</v>
+        <v>447800</v>
       </c>
       <c r="F9" s="3">
-        <v>501400</v>
+        <v>481400</v>
       </c>
       <c r="G9" s="3">
-        <v>438800</v>
+        <v>421300</v>
       </c>
       <c r="H9" s="3">
-        <v>715000</v>
+        <v>686500</v>
       </c>
       <c r="I9" s="3">
-        <v>491100</v>
+        <v>471500</v>
       </c>
       <c r="J9" s="3">
-        <v>420400</v>
+        <v>403600</v>
       </c>
       <c r="K9" s="3">
         <v>383800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1816200</v>
+        <v>1743700</v>
       </c>
       <c r="E10" s="3">
-        <v>1861900</v>
+        <v>1787600</v>
       </c>
       <c r="F10" s="3">
-        <v>1817300</v>
+        <v>1744800</v>
       </c>
       <c r="G10" s="3">
-        <v>1811600</v>
+        <v>1739300</v>
       </c>
       <c r="H10" s="3">
-        <v>1421500</v>
+        <v>1364800</v>
       </c>
       <c r="I10" s="3">
-        <v>1716000</v>
+        <v>1647500</v>
       </c>
       <c r="J10" s="3">
-        <v>1590300</v>
+        <v>1526800</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="E14" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="F14" s="3">
-        <v>44600</v>
+        <v>42800</v>
       </c>
       <c r="G14" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I14" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="J14" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="K14" s="3">
         <v>13700</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>362400</v>
+        <v>348000</v>
       </c>
       <c r="E15" s="3">
-        <v>359300</v>
+        <v>345000</v>
       </c>
       <c r="F15" s="3">
-        <v>350200</v>
+        <v>336200</v>
       </c>
       <c r="G15" s="3">
-        <v>298700</v>
+        <v>286700</v>
       </c>
       <c r="H15" s="3">
-        <v>298300</v>
+        <v>286400</v>
       </c>
       <c r="I15" s="3">
-        <v>297300</v>
+        <v>285400</v>
       </c>
       <c r="J15" s="3">
-        <v>287000</v>
+        <v>275600</v>
       </c>
       <c r="K15" s="3">
         <v>328300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2037500</v>
+        <v>1956200</v>
       </c>
       <c r="E17" s="3">
-        <v>2068000</v>
+        <v>1985500</v>
       </c>
       <c r="F17" s="3">
-        <v>2177600</v>
+        <v>2090700</v>
       </c>
       <c r="G17" s="3">
-        <v>1993600</v>
+        <v>1914000</v>
       </c>
       <c r="H17" s="3">
-        <v>1876000</v>
+        <v>1801100</v>
       </c>
       <c r="I17" s="3">
-        <v>1926200</v>
+        <v>1849300</v>
       </c>
       <c r="J17" s="3">
-        <v>1834100</v>
+        <v>1760900</v>
       </c>
       <c r="K17" s="3">
         <v>1827500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>265700</v>
+        <v>255100</v>
       </c>
       <c r="E18" s="3">
-        <v>260400</v>
+        <v>250000</v>
       </c>
       <c r="F18" s="3">
-        <v>141100</v>
+        <v>135500</v>
       </c>
       <c r="G18" s="3">
-        <v>256800</v>
+        <v>246500</v>
       </c>
       <c r="H18" s="3">
-        <v>260600</v>
+        <v>250200</v>
       </c>
       <c r="I18" s="3">
-        <v>280900</v>
+        <v>269700</v>
       </c>
       <c r="J18" s="3">
-        <v>176600</v>
+        <v>169500</v>
       </c>
       <c r="K18" s="3">
         <v>207200</v>
@@ -1125,22 +1125,22 @@
         <v>-1200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="F20" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="G20" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H20" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J20" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K20" s="3">
         <v>-11200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>639400</v>
+        <v>616400</v>
       </c>
       <c r="E21" s="3">
-        <v>624800</v>
+        <v>602400</v>
       </c>
       <c r="F21" s="3">
-        <v>505100</v>
+        <v>487400</v>
       </c>
       <c r="G21" s="3">
-        <v>576000</v>
+        <v>555200</v>
       </c>
       <c r="H21" s="3">
-        <v>569300</v>
+        <v>548600</v>
       </c>
       <c r="I21" s="3">
-        <v>582400</v>
+        <v>561200</v>
       </c>
       <c r="J21" s="3">
-        <v>479200</v>
+        <v>462100</v>
       </c>
       <c r="K21" s="3">
         <v>538300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59900</v>
+        <v>57500</v>
       </c>
       <c r="E22" s="3">
-        <v>67300</v>
+        <v>64600</v>
       </c>
       <c r="F22" s="3">
-        <v>84600</v>
+        <v>81200</v>
       </c>
       <c r="G22" s="3">
-        <v>47700</v>
+        <v>45800</v>
       </c>
       <c r="H22" s="3">
-        <v>47600</v>
+        <v>45700</v>
       </c>
       <c r="I22" s="3">
-        <v>33300</v>
+        <v>32000</v>
       </c>
       <c r="J22" s="3">
-        <v>28100</v>
+        <v>26900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>204600</v>
+        <v>196400</v>
       </c>
       <c r="E23" s="3">
-        <v>188300</v>
+        <v>180800</v>
       </c>
       <c r="F23" s="3">
-        <v>48800</v>
+        <v>46900</v>
       </c>
       <c r="G23" s="3">
-        <v>215900</v>
+        <v>207200</v>
       </c>
       <c r="H23" s="3">
-        <v>221500</v>
+        <v>212600</v>
       </c>
       <c r="I23" s="3">
-        <v>244800</v>
+        <v>235100</v>
       </c>
       <c r="J23" s="3">
-        <v>154000</v>
+        <v>147900</v>
       </c>
       <c r="K23" s="3">
         <v>196000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62900</v>
+        <v>60400</v>
       </c>
       <c r="E24" s="3">
-        <v>57500</v>
+        <v>55200</v>
       </c>
       <c r="F24" s="3">
-        <v>19700</v>
+        <v>18900</v>
       </c>
       <c r="G24" s="3">
-        <v>63400</v>
+        <v>60800</v>
       </c>
       <c r="H24" s="3">
-        <v>60000</v>
+        <v>57600</v>
       </c>
       <c r="I24" s="3">
-        <v>37200</v>
+        <v>35700</v>
       </c>
       <c r="J24" s="3">
-        <v>29000</v>
+        <v>27800</v>
       </c>
       <c r="K24" s="3">
         <v>-1700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141700</v>
+        <v>136100</v>
       </c>
       <c r="E26" s="3">
-        <v>130800</v>
+        <v>125600</v>
       </c>
       <c r="F26" s="3">
-        <v>29100</v>
+        <v>27900</v>
       </c>
       <c r="G26" s="3">
-        <v>152500</v>
+        <v>146400</v>
       </c>
       <c r="H26" s="3">
-        <v>161500</v>
+        <v>155100</v>
       </c>
       <c r="I26" s="3">
-        <v>207600</v>
+        <v>199300</v>
       </c>
       <c r="J26" s="3">
-        <v>125000</v>
+        <v>120000</v>
       </c>
       <c r="K26" s="3">
         <v>197800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>141700</v>
+        <v>136000</v>
       </c>
       <c r="E27" s="3">
-        <v>130500</v>
+        <v>125300</v>
       </c>
       <c r="F27" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="G27" s="3">
-        <v>150600</v>
+        <v>144600</v>
       </c>
       <c r="H27" s="3">
-        <v>157100</v>
+        <v>150900</v>
       </c>
       <c r="I27" s="3">
-        <v>204500</v>
+        <v>196400</v>
       </c>
       <c r="J27" s="3">
-        <v>119100</v>
+        <v>114300</v>
       </c>
       <c r="K27" s="3">
         <v>191200</v>
@@ -1593,22 +1593,22 @@
         <v>1200</v>
       </c>
       <c r="E32" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F32" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="G32" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="H32" s="3">
-        <v>-8500</v>
+        <v>-8200</v>
       </c>
       <c r="I32" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J32" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="K32" s="3">
         <v>11200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141700</v>
+        <v>136000</v>
       </c>
       <c r="E33" s="3">
-        <v>130500</v>
+        <v>125300</v>
       </c>
       <c r="F33" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="G33" s="3">
-        <v>150600</v>
+        <v>144600</v>
       </c>
       <c r="H33" s="3">
-        <v>157100</v>
+        <v>150900</v>
       </c>
       <c r="I33" s="3">
-        <v>204500</v>
+        <v>196400</v>
       </c>
       <c r="J33" s="3">
-        <v>119100</v>
+        <v>114300</v>
       </c>
       <c r="K33" s="3">
         <v>214000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141700</v>
+        <v>136000</v>
       </c>
       <c r="E35" s="3">
-        <v>130500</v>
+        <v>125300</v>
       </c>
       <c r="F35" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="G35" s="3">
-        <v>150600</v>
+        <v>144600</v>
       </c>
       <c r="H35" s="3">
-        <v>157100</v>
+        <v>150900</v>
       </c>
       <c r="I35" s="3">
-        <v>204500</v>
+        <v>196400</v>
       </c>
       <c r="J35" s="3">
-        <v>119100</v>
+        <v>114300</v>
       </c>
       <c r="K35" s="3">
         <v>214000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>167200</v>
+        <v>160500</v>
       </c>
       <c r="E41" s="3">
-        <v>195900</v>
+        <v>188100</v>
       </c>
       <c r="F41" s="3">
-        <v>118900</v>
+        <v>114200</v>
       </c>
       <c r="G41" s="3">
-        <v>70500</v>
+        <v>67600</v>
       </c>
       <c r="H41" s="3">
-        <v>80700</v>
+        <v>77500</v>
       </c>
       <c r="I41" s="3">
-        <v>130400</v>
+        <v>125200</v>
       </c>
       <c r="J41" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="K41" s="3">
         <v>10100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="E42" s="3">
-        <v>81600</v>
+        <v>78400</v>
       </c>
       <c r="F42" s="3">
-        <v>187800</v>
+        <v>180300</v>
       </c>
       <c r="G42" s="3">
-        <v>112100</v>
+        <v>107600</v>
       </c>
       <c r="H42" s="3">
-        <v>147100</v>
+        <v>141200</v>
       </c>
       <c r="I42" s="3">
-        <v>170900</v>
+        <v>164100</v>
       </c>
       <c r="J42" s="3">
-        <v>114700</v>
+        <v>110200</v>
       </c>
       <c r="K42" s="3">
         <v>216200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>509000</v>
+        <v>488700</v>
       </c>
       <c r="E43" s="3">
-        <v>473800</v>
+        <v>454900</v>
       </c>
       <c r="F43" s="3">
-        <v>471600</v>
+        <v>452800</v>
       </c>
       <c r="G43" s="3">
-        <v>508500</v>
+        <v>488200</v>
       </c>
       <c r="H43" s="3">
-        <v>781200</v>
+        <v>750000</v>
       </c>
       <c r="I43" s="3">
-        <v>853600</v>
+        <v>819600</v>
       </c>
       <c r="J43" s="3">
-        <v>322400</v>
+        <v>309500</v>
       </c>
       <c r="K43" s="3">
         <v>282500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58400</v>
+        <v>56100</v>
       </c>
       <c r="E44" s="3">
-        <v>55300</v>
+        <v>53100</v>
       </c>
       <c r="F44" s="3">
-        <v>52400</v>
+        <v>50300</v>
       </c>
       <c r="G44" s="3">
-        <v>68300</v>
+        <v>65500</v>
       </c>
       <c r="H44" s="3">
-        <v>149500</v>
+        <v>143600</v>
       </c>
       <c r="I44" s="3">
-        <v>142900</v>
+        <v>137200</v>
       </c>
       <c r="J44" s="3">
-        <v>104600</v>
+        <v>100400</v>
       </c>
       <c r="K44" s="3">
         <v>39600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>119900</v>
+        <v>115100</v>
       </c>
       <c r="E45" s="3">
-        <v>51600</v>
+        <v>49500</v>
       </c>
       <c r="F45" s="3">
-        <v>48200</v>
+        <v>46200</v>
       </c>
       <c r="G45" s="3">
-        <v>37000</v>
+        <v>35500</v>
       </c>
       <c r="H45" s="3">
-        <v>28400</v>
+        <v>27300</v>
       </c>
       <c r="I45" s="3">
-        <v>39100</v>
+        <v>37500</v>
       </c>
       <c r="J45" s="3">
-        <v>181000</v>
+        <v>173800</v>
       </c>
       <c r="K45" s="3">
         <v>142700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>868600</v>
+        <v>833900</v>
       </c>
       <c r="E46" s="3">
-        <v>858100</v>
+        <v>823900</v>
       </c>
       <c r="F46" s="3">
-        <v>878900</v>
+        <v>843800</v>
       </c>
       <c r="G46" s="3">
-        <v>796400</v>
+        <v>764600</v>
       </c>
       <c r="H46" s="3">
-        <v>742200</v>
+        <v>712600</v>
       </c>
       <c r="I46" s="3">
-        <v>729300</v>
+        <v>700200</v>
       </c>
       <c r="J46" s="3">
-        <v>693000</v>
+        <v>665300</v>
       </c>
       <c r="K46" s="3">
         <v>691100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27300</v>
+        <v>26200</v>
       </c>
       <c r="E47" s="3">
-        <v>25100</v>
+        <v>24100</v>
       </c>
       <c r="F47" s="3">
-        <v>21700</v>
+        <v>20800</v>
       </c>
       <c r="G47" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="H47" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="I47" s="3">
-        <v>36800</v>
+        <v>35400</v>
       </c>
       <c r="J47" s="3">
-        <v>143000</v>
+        <v>137300</v>
       </c>
       <c r="K47" s="3">
         <v>167700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2330600</v>
+        <v>2237600</v>
       </c>
       <c r="E48" s="3">
-        <v>2197400</v>
+        <v>2109700</v>
       </c>
       <c r="F48" s="3">
-        <v>2053000</v>
+        <v>1971000</v>
       </c>
       <c r="G48" s="3">
-        <v>1725700</v>
+        <v>1656900</v>
       </c>
       <c r="H48" s="3">
-        <v>3270000</v>
+        <v>3139500</v>
       </c>
       <c r="I48" s="3">
-        <v>3004900</v>
+        <v>2885000</v>
       </c>
       <c r="J48" s="3">
-        <v>1513700</v>
+        <v>1453300</v>
       </c>
       <c r="K48" s="3">
         <v>1520400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>228800</v>
+        <v>219700</v>
       </c>
       <c r="E49" s="3">
-        <v>248100</v>
+        <v>238200</v>
       </c>
       <c r="F49" s="3">
-        <v>255300</v>
+        <v>245100</v>
       </c>
       <c r="G49" s="3">
-        <v>243500</v>
+        <v>233800</v>
       </c>
       <c r="H49" s="3">
-        <v>484000</v>
+        <v>464700</v>
       </c>
       <c r="I49" s="3">
-        <v>508500</v>
+        <v>488200</v>
       </c>
       <c r="J49" s="3">
-        <v>237300</v>
+        <v>227800</v>
       </c>
       <c r="K49" s="3">
         <v>185200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101000</v>
+        <v>96900</v>
       </c>
       <c r="E52" s="3">
-        <v>109900</v>
+        <v>105500</v>
       </c>
       <c r="F52" s="3">
-        <v>98000</v>
+        <v>94100</v>
       </c>
       <c r="G52" s="3">
-        <v>63800</v>
+        <v>61200</v>
       </c>
       <c r="H52" s="3">
-        <v>71400</v>
+        <v>68500</v>
       </c>
       <c r="I52" s="3">
-        <v>58400</v>
+        <v>56100</v>
       </c>
       <c r="J52" s="3">
-        <v>69000</v>
+        <v>66200</v>
       </c>
       <c r="K52" s="3">
         <v>101800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3556300</v>
+        <v>3414400</v>
       </c>
       <c r="E54" s="3">
-        <v>3438600</v>
+        <v>3301300</v>
       </c>
       <c r="F54" s="3">
-        <v>3306900</v>
+        <v>3174900</v>
       </c>
       <c r="G54" s="3">
-        <v>2852100</v>
+        <v>2738300</v>
       </c>
       <c r="H54" s="3">
-        <v>2711900</v>
+        <v>2603600</v>
       </c>
       <c r="I54" s="3">
-        <v>2579800</v>
+        <v>2476900</v>
       </c>
       <c r="J54" s="3">
-        <v>2507800</v>
+        <v>2407700</v>
       </c>
       <c r="K54" s="3">
         <v>2607500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>319400</v>
+        <v>306700</v>
       </c>
       <c r="E57" s="3">
-        <v>368300</v>
+        <v>353600</v>
       </c>
       <c r="F57" s="3">
-        <v>273900</v>
+        <v>262900</v>
       </c>
       <c r="G57" s="3">
-        <v>393400</v>
+        <v>377700</v>
       </c>
       <c r="H57" s="3">
-        <v>367600</v>
+        <v>352900</v>
       </c>
       <c r="I57" s="3">
-        <v>610600</v>
+        <v>586200</v>
       </c>
       <c r="J57" s="3">
-        <v>384300</v>
+        <v>369000</v>
       </c>
       <c r="K57" s="3">
         <v>350000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>255600</v>
+        <v>245400</v>
       </c>
       <c r="E58" s="3">
-        <v>102600</v>
+        <v>98500</v>
       </c>
       <c r="F58" s="3">
-        <v>159900</v>
+        <v>153600</v>
       </c>
       <c r="G58" s="3">
-        <v>291000</v>
+        <v>279300</v>
       </c>
       <c r="H58" s="3">
-        <v>122200</v>
+        <v>117400</v>
       </c>
       <c r="I58" s="3">
-        <v>170700</v>
+        <v>163900</v>
       </c>
       <c r="J58" s="3">
-        <v>38200</v>
+        <v>36700</v>
       </c>
       <c r="K58" s="3">
         <v>100200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>424300</v>
+        <v>407300</v>
       </c>
       <c r="E59" s="3">
-        <v>464700</v>
+        <v>446200</v>
       </c>
       <c r="F59" s="3">
-        <v>489700</v>
+        <v>470200</v>
       </c>
       <c r="G59" s="3">
-        <v>201100</v>
+        <v>193100</v>
       </c>
       <c r="H59" s="3">
-        <v>396500</v>
+        <v>380700</v>
       </c>
       <c r="I59" s="3">
-        <v>410500</v>
+        <v>394100</v>
       </c>
       <c r="J59" s="3">
-        <v>282300</v>
+        <v>271100</v>
       </c>
       <c r="K59" s="3">
         <v>274500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>999300</v>
+        <v>959500</v>
       </c>
       <c r="E60" s="3">
-        <v>935700</v>
+        <v>898300</v>
       </c>
       <c r="F60" s="3">
-        <v>923500</v>
+        <v>886700</v>
       </c>
       <c r="G60" s="3">
-        <v>885400</v>
+        <v>850100</v>
       </c>
       <c r="H60" s="3">
-        <v>696100</v>
+        <v>668300</v>
       </c>
       <c r="I60" s="3">
-        <v>703900</v>
+        <v>675800</v>
       </c>
       <c r="J60" s="3">
-        <v>704800</v>
+        <v>676700</v>
       </c>
       <c r="K60" s="3">
         <v>713200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>676700</v>
+        <v>649700</v>
       </c>
       <c r="E61" s="3">
-        <v>750600</v>
+        <v>720700</v>
       </c>
       <c r="F61" s="3">
-        <v>744100</v>
+        <v>714400</v>
       </c>
       <c r="G61" s="3">
-        <v>260700</v>
+        <v>250300</v>
       </c>
       <c r="H61" s="3">
-        <v>385600</v>
+        <v>370200</v>
       </c>
       <c r="I61" s="3">
-        <v>255000</v>
+        <v>244800</v>
       </c>
       <c r="J61" s="3">
-        <v>246000</v>
+        <v>236200</v>
       </c>
       <c r="K61" s="3">
         <v>201500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46400</v>
+        <v>44500</v>
       </c>
       <c r="E62" s="3">
-        <v>63900</v>
+        <v>61400</v>
       </c>
       <c r="F62" s="3">
-        <v>51400</v>
+        <v>49300</v>
       </c>
       <c r="G62" s="3">
-        <v>102400</v>
+        <v>98300</v>
       </c>
       <c r="H62" s="3">
-        <v>167500</v>
+        <v>160800</v>
       </c>
       <c r="I62" s="3">
-        <v>121600</v>
+        <v>116800</v>
       </c>
       <c r="J62" s="3">
-        <v>136700</v>
+        <v>131300</v>
       </c>
       <c r="K62" s="3">
         <v>126000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1721000</v>
+        <v>1652400</v>
       </c>
       <c r="E66" s="3">
-        <v>1748900</v>
+        <v>1679100</v>
       </c>
       <c r="F66" s="3">
-        <v>1717500</v>
+        <v>1648900</v>
       </c>
       <c r="G66" s="3">
-        <v>1259000</v>
+        <v>1208700</v>
       </c>
       <c r="H66" s="3">
-        <v>1259700</v>
+        <v>1209400</v>
       </c>
       <c r="I66" s="3">
-        <v>1091100</v>
+        <v>1047600</v>
       </c>
       <c r="J66" s="3">
-        <v>1108500</v>
+        <v>1064300</v>
       </c>
       <c r="K66" s="3">
         <v>1063200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1563300</v>
+        <v>1500900</v>
       </c>
       <c r="E72" s="3">
-        <v>1417600</v>
+        <v>1361100</v>
       </c>
       <c r="F72" s="3">
-        <v>1317300</v>
+        <v>1264800</v>
       </c>
       <c r="G72" s="3">
-        <v>1321100</v>
+        <v>1268300</v>
       </c>
       <c r="H72" s="3">
-        <v>1180100</v>
+        <v>1133000</v>
       </c>
       <c r="I72" s="3">
-        <v>1208100</v>
+        <v>1159900</v>
       </c>
       <c r="J72" s="3">
-        <v>1118700</v>
+        <v>1074100</v>
       </c>
       <c r="K72" s="3">
         <v>1220800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1835300</v>
+        <v>1762000</v>
       </c>
       <c r="E76" s="3">
-        <v>1689700</v>
+        <v>1622200</v>
       </c>
       <c r="F76" s="3">
-        <v>1589400</v>
+        <v>1525900</v>
       </c>
       <c r="G76" s="3">
-        <v>1593100</v>
+        <v>1529500</v>
       </c>
       <c r="H76" s="3">
-        <v>1452200</v>
+        <v>1394200</v>
       </c>
       <c r="I76" s="3">
-        <v>1488700</v>
+        <v>1429300</v>
       </c>
       <c r="J76" s="3">
-        <v>1399300</v>
+        <v>1343400</v>
       </c>
       <c r="K76" s="3">
         <v>1544300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141700</v>
+        <v>136000</v>
       </c>
       <c r="E81" s="3">
-        <v>130500</v>
+        <v>125300</v>
       </c>
       <c r="F81" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="G81" s="3">
-        <v>150600</v>
+        <v>144600</v>
       </c>
       <c r="H81" s="3">
-        <v>157100</v>
+        <v>150900</v>
       </c>
       <c r="I81" s="3">
-        <v>204500</v>
+        <v>196400</v>
       </c>
       <c r="J81" s="3">
-        <v>119100</v>
+        <v>114300</v>
       </c>
       <c r="K81" s="3">
         <v>214000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>375700</v>
+        <v>360700</v>
       </c>
       <c r="E83" s="3">
-        <v>370100</v>
+        <v>355300</v>
       </c>
       <c r="F83" s="3">
-        <v>372500</v>
+        <v>357600</v>
       </c>
       <c r="G83" s="3">
-        <v>313200</v>
+        <v>300700</v>
       </c>
       <c r="H83" s="3">
-        <v>300900</v>
+        <v>288900</v>
       </c>
       <c r="I83" s="3">
-        <v>305000</v>
+        <v>292800</v>
       </c>
       <c r="J83" s="3">
-        <v>297700</v>
+        <v>285900</v>
       </c>
       <c r="K83" s="3">
         <v>341900</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>439100</v>
+        <v>421600</v>
       </c>
       <c r="E89" s="3">
-        <v>589400</v>
+        <v>565900</v>
       </c>
       <c r="F89" s="3">
-        <v>461300</v>
+        <v>442900</v>
       </c>
       <c r="G89" s="3">
-        <v>307400</v>
+        <v>295100</v>
       </c>
       <c r="H89" s="3">
-        <v>325300</v>
+        <v>312300</v>
       </c>
       <c r="I89" s="3">
-        <v>298500</v>
+        <v>286600</v>
       </c>
       <c r="J89" s="3">
-        <v>361000</v>
+        <v>346600</v>
       </c>
       <c r="K89" s="3">
         <v>390100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-432600</v>
+        <v>-415400</v>
       </c>
       <c r="E91" s="3">
-        <v>-447700</v>
+        <v>-429800</v>
       </c>
       <c r="F91" s="3">
-        <v>-415400</v>
+        <v>-398900</v>
       </c>
       <c r="G91" s="3">
-        <v>-408600</v>
+        <v>-392200</v>
       </c>
       <c r="H91" s="3">
-        <v>-417800</v>
+        <v>-401100</v>
       </c>
       <c r="I91" s="3">
-        <v>-456800</v>
+        <v>-438500</v>
       </c>
       <c r="J91" s="3">
-        <v>-317300</v>
+        <v>-304700</v>
       </c>
       <c r="K91" s="3">
         <v>-314900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500900</v>
+        <v>-480900</v>
       </c>
       <c r="E94" s="3">
-        <v>-446800</v>
+        <v>-429000</v>
       </c>
       <c r="F94" s="3">
-        <v>-321100</v>
+        <v>-308300</v>
       </c>
       <c r="G94" s="3">
-        <v>-405200</v>
+        <v>-389000</v>
       </c>
       <c r="H94" s="3">
-        <v>-356500</v>
+        <v>-342200</v>
       </c>
       <c r="I94" s="3">
-        <v>-357500</v>
+        <v>-343300</v>
       </c>
       <c r="J94" s="3">
-        <v>-442500</v>
+        <v>-424900</v>
       </c>
       <c r="K94" s="3">
         <v>-321000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33200</v>
+        <v>-31900</v>
       </c>
       <c r="E100" s="3">
-        <v>-127700</v>
+        <v>-122600</v>
       </c>
       <c r="F100" s="3">
-        <v>37500</v>
+        <v>36000</v>
       </c>
       <c r="G100" s="3">
-        <v>38600</v>
+        <v>37100</v>
       </c>
       <c r="H100" s="3">
-        <v>93200</v>
+        <v>89500</v>
       </c>
       <c r="I100" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J100" s="3">
-        <v>22200</v>
+        <v>21300</v>
       </c>
       <c r="K100" s="3">
         <v>42500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-95000</v>
+        <v>-91200</v>
       </c>
       <c r="E102" s="3">
-        <v>14900</v>
+        <v>14300</v>
       </c>
       <c r="F102" s="3">
-        <v>177700</v>
+        <v>170600</v>
       </c>
       <c r="G102" s="3">
-        <v>-59200</v>
+        <v>-56800</v>
       </c>
       <c r="H102" s="3">
-        <v>62100</v>
+        <v>59600</v>
       </c>
       <c r="I102" s="3">
-        <v>-55100</v>
+        <v>-52900</v>
       </c>
       <c r="J102" s="3">
-        <v>-59300</v>
+        <v>-56900</v>
       </c>
       <c r="K102" s="3">
         <v>111900</v>

--- a/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLKGY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2211300</v>
+        <v>2285900</v>
       </c>
       <c r="E8" s="3">
-        <v>2235400</v>
+        <v>2265600</v>
       </c>
       <c r="F8" s="3">
-        <v>2226200</v>
+        <v>2290300</v>
       </c>
       <c r="G8" s="3">
-        <v>2160600</v>
+        <v>2280800</v>
       </c>
       <c r="H8" s="3">
-        <v>2051300</v>
+        <v>2213600</v>
       </c>
       <c r="I8" s="3">
-        <v>2119000</v>
+        <v>2101600</v>
       </c>
       <c r="J8" s="3">
+        <v>2171000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1930400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2034700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2083200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1837000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2267200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>467600</v>
+        <v>555800</v>
       </c>
       <c r="E9" s="3">
-        <v>447800</v>
+        <v>479100</v>
       </c>
       <c r="F9" s="3">
-        <v>481400</v>
+        <v>458800</v>
       </c>
       <c r="G9" s="3">
-        <v>421300</v>
+        <v>493200</v>
       </c>
       <c r="H9" s="3">
-        <v>686500</v>
+        <v>431600</v>
       </c>
       <c r="I9" s="3">
-        <v>471500</v>
+        <v>703300</v>
       </c>
       <c r="J9" s="3">
+        <v>483100</v>
+      </c>
+      <c r="K9" s="3">
         <v>403600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>383800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>407500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>343400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>375900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1743700</v>
+        <v>1730100</v>
       </c>
       <c r="E10" s="3">
+        <v>1786600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1831500</v>
+      </c>
+      <c r="G10" s="3">
         <v>1787600</v>
       </c>
-      <c r="F10" s="3">
-        <v>1744800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1739300</v>
-      </c>
       <c r="H10" s="3">
-        <v>1364800</v>
+        <v>1782000</v>
       </c>
       <c r="I10" s="3">
-        <v>1647500</v>
+        <v>1398300</v>
       </c>
       <c r="J10" s="3">
+        <v>1687900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1526800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1650900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1675600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1493600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1891400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12800</v>
+        <v>715800</v>
       </c>
       <c r="E14" s="3">
-        <v>10300</v>
+        <v>13100</v>
       </c>
       <c r="F14" s="3">
-        <v>42800</v>
+        <v>10600</v>
       </c>
       <c r="G14" s="3">
-        <v>14000</v>
+        <v>43900</v>
       </c>
       <c r="H14" s="3">
-        <v>2400</v>
+        <v>14300</v>
       </c>
       <c r="I14" s="3">
-        <v>7400</v>
+        <v>2500</v>
       </c>
       <c r="J14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>703500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55900</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>348000</v>
+        <v>378600</v>
       </c>
       <c r="E15" s="3">
-        <v>345000</v>
+        <v>356500</v>
       </c>
       <c r="F15" s="3">
-        <v>336200</v>
+        <v>353400</v>
       </c>
       <c r="G15" s="3">
-        <v>286700</v>
+        <v>344500</v>
       </c>
       <c r="H15" s="3">
-        <v>286400</v>
+        <v>293800</v>
       </c>
       <c r="I15" s="3">
-        <v>285400</v>
+        <v>293500</v>
       </c>
       <c r="J15" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K15" s="3">
         <v>275600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>328300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>350100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>632900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>364300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1956200</v>
+        <v>2930600</v>
       </c>
       <c r="E17" s="3">
-        <v>1985500</v>
+        <v>2004200</v>
       </c>
       <c r="F17" s="3">
-        <v>2090700</v>
+        <v>2034200</v>
       </c>
       <c r="G17" s="3">
-        <v>1914000</v>
+        <v>2142100</v>
       </c>
       <c r="H17" s="3">
-        <v>1801100</v>
+        <v>1961000</v>
       </c>
       <c r="I17" s="3">
-        <v>1849300</v>
+        <v>1845300</v>
       </c>
       <c r="J17" s="3">
+        <v>1894700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1760900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1827500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1811800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2473900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2102200</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>255100</v>
+        <v>-644700</v>
       </c>
       <c r="E18" s="3">
-        <v>250000</v>
+        <v>261400</v>
       </c>
       <c r="F18" s="3">
-        <v>135500</v>
+        <v>256100</v>
       </c>
       <c r="G18" s="3">
-        <v>246500</v>
+        <v>138800</v>
       </c>
       <c r="H18" s="3">
-        <v>250200</v>
+        <v>252600</v>
       </c>
       <c r="I18" s="3">
-        <v>269700</v>
+        <v>256300</v>
       </c>
       <c r="J18" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K18" s="3">
         <v>169500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>207200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>271400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-636900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>165000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4600</v>
-      </c>
       <c r="F20" s="3">
-        <v>-7400</v>
+        <v>-4700</v>
       </c>
       <c r="G20" s="3">
-        <v>6500</v>
+        <v>-7600</v>
       </c>
       <c r="H20" s="3">
-        <v>8200</v>
+        <v>6600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2600</v>
+        <v>8400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-59600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>616400</v>
+        <v>456300</v>
       </c>
       <c r="E21" s="3">
-        <v>602400</v>
+        <v>629800</v>
       </c>
       <c r="F21" s="3">
-        <v>487400</v>
+        <v>615400</v>
       </c>
       <c r="G21" s="3">
-        <v>555200</v>
+        <v>497600</v>
       </c>
       <c r="H21" s="3">
-        <v>548600</v>
+        <v>567300</v>
       </c>
       <c r="I21" s="3">
-        <v>561200</v>
+        <v>560600</v>
       </c>
       <c r="J21" s="3">
+        <v>573600</v>
+      </c>
+      <c r="K21" s="3">
         <v>462100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>538300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>659400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>456700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>526200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57500</v>
+        <v>77400</v>
       </c>
       <c r="E22" s="3">
-        <v>64600</v>
+        <v>58900</v>
       </c>
       <c r="F22" s="3">
-        <v>81200</v>
+        <v>66200</v>
       </c>
       <c r="G22" s="3">
-        <v>45800</v>
+        <v>83200</v>
       </c>
       <c r="H22" s="3">
-        <v>45700</v>
+        <v>46900</v>
       </c>
       <c r="I22" s="3">
-        <v>32000</v>
+        <v>46800</v>
       </c>
       <c r="J22" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K22" s="3">
         <v>26900</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>37700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52400</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>196400</v>
+        <v>-715500</v>
       </c>
       <c r="E23" s="3">
-        <v>180800</v>
+        <v>201300</v>
       </c>
       <c r="F23" s="3">
-        <v>46900</v>
+        <v>185200</v>
       </c>
       <c r="G23" s="3">
-        <v>207200</v>
+        <v>48000</v>
       </c>
       <c r="H23" s="3">
-        <v>212600</v>
+        <v>212300</v>
       </c>
       <c r="I23" s="3">
-        <v>235100</v>
+        <v>217800</v>
       </c>
       <c r="J23" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K23" s="3">
         <v>147900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>196000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>262800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-633800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60400</v>
+        <v>-187100</v>
       </c>
       <c r="E24" s="3">
-        <v>55200</v>
+        <v>61800</v>
       </c>
       <c r="F24" s="3">
-        <v>18900</v>
+        <v>56500</v>
       </c>
       <c r="G24" s="3">
-        <v>60800</v>
+        <v>19400</v>
       </c>
       <c r="H24" s="3">
-        <v>57600</v>
+        <v>62300</v>
       </c>
       <c r="I24" s="3">
-        <v>35700</v>
+        <v>59000</v>
       </c>
       <c r="J24" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K24" s="3">
         <v>27800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>136100</v>
+        <v>-528400</v>
       </c>
       <c r="E26" s="3">
-        <v>125600</v>
+        <v>139400</v>
       </c>
       <c r="F26" s="3">
-        <v>27900</v>
+        <v>128700</v>
       </c>
       <c r="G26" s="3">
-        <v>146400</v>
+        <v>28600</v>
       </c>
       <c r="H26" s="3">
-        <v>155100</v>
+        <v>150000</v>
       </c>
       <c r="I26" s="3">
-        <v>199300</v>
+        <v>158900</v>
       </c>
       <c r="J26" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K26" s="3">
         <v>120000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>197800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>239000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-659100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>136000</v>
+        <v>-528500</v>
       </c>
       <c r="E27" s="3">
-        <v>125300</v>
+        <v>139400</v>
       </c>
       <c r="F27" s="3">
-        <v>27700</v>
+        <v>128300</v>
       </c>
       <c r="G27" s="3">
-        <v>144600</v>
+        <v>28300</v>
       </c>
       <c r="H27" s="3">
-        <v>150900</v>
+        <v>148100</v>
       </c>
       <c r="I27" s="3">
-        <v>196400</v>
+        <v>154600</v>
       </c>
       <c r="J27" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K27" s="3">
         <v>114300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>191200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>231000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-666100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>22800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-18400</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>4600</v>
-      </c>
       <c r="F32" s="3">
-        <v>7400</v>
+        <v>4700</v>
       </c>
       <c r="G32" s="3">
-        <v>-6500</v>
+        <v>7600</v>
       </c>
       <c r="H32" s="3">
-        <v>-8200</v>
+        <v>-6600</v>
       </c>
       <c r="I32" s="3">
-        <v>2600</v>
+        <v>-8400</v>
       </c>
       <c r="J32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>59600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>136000</v>
+        <v>-528500</v>
       </c>
       <c r="E33" s="3">
-        <v>125300</v>
+        <v>139400</v>
       </c>
       <c r="F33" s="3">
-        <v>27700</v>
+        <v>128300</v>
       </c>
       <c r="G33" s="3">
-        <v>144600</v>
+        <v>28300</v>
       </c>
       <c r="H33" s="3">
-        <v>150900</v>
+        <v>148100</v>
       </c>
       <c r="I33" s="3">
-        <v>196400</v>
+        <v>154600</v>
       </c>
       <c r="J33" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K33" s="3">
         <v>114300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>214000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>254500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-672000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>136000</v>
+        <v>-528500</v>
       </c>
       <c r="E35" s="3">
-        <v>125300</v>
+        <v>139400</v>
       </c>
       <c r="F35" s="3">
-        <v>27700</v>
+        <v>128300</v>
       </c>
       <c r="G35" s="3">
-        <v>144600</v>
+        <v>28300</v>
       </c>
       <c r="H35" s="3">
-        <v>150900</v>
+        <v>148100</v>
       </c>
       <c r="I35" s="3">
-        <v>196400</v>
+        <v>154600</v>
       </c>
       <c r="J35" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K35" s="3">
         <v>114300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>214000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>254500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-672000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160500</v>
+        <v>112300</v>
       </c>
       <c r="E41" s="3">
-        <v>188100</v>
+        <v>164500</v>
       </c>
       <c r="F41" s="3">
-        <v>114200</v>
+        <v>192700</v>
       </c>
       <c r="G41" s="3">
-        <v>67600</v>
+        <v>117000</v>
       </c>
       <c r="H41" s="3">
-        <v>77500</v>
+        <v>69300</v>
       </c>
       <c r="I41" s="3">
-        <v>125200</v>
+        <v>79400</v>
       </c>
       <c r="J41" s="3">
+        <v>128300</v>
+      </c>
+      <c r="K41" s="3">
         <v>21600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13600</v>
+        <v>79600</v>
       </c>
       <c r="E42" s="3">
-        <v>78400</v>
+        <v>13900</v>
       </c>
       <c r="F42" s="3">
-        <v>180300</v>
+        <v>80300</v>
       </c>
       <c r="G42" s="3">
-        <v>107600</v>
+        <v>184700</v>
       </c>
       <c r="H42" s="3">
-        <v>141200</v>
+        <v>110300</v>
       </c>
       <c r="I42" s="3">
-        <v>164100</v>
+        <v>144700</v>
       </c>
       <c r="J42" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K42" s="3">
         <v>110200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>216200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>109800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>478900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>181600</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>488700</v>
+        <v>594800</v>
       </c>
       <c r="E43" s="3">
-        <v>454900</v>
+        <v>500600</v>
       </c>
       <c r="F43" s="3">
-        <v>452800</v>
+        <v>466000</v>
       </c>
       <c r="G43" s="3">
-        <v>488200</v>
+        <v>463900</v>
       </c>
       <c r="H43" s="3">
-        <v>750000</v>
+        <v>500200</v>
       </c>
       <c r="I43" s="3">
-        <v>819600</v>
+        <v>768400</v>
       </c>
       <c r="J43" s="3">
+        <v>839700</v>
+      </c>
+      <c r="K43" s="3">
         <v>309500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>282500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>293400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>856200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>328900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="E44" s="3">
-        <v>53100</v>
+        <v>57400</v>
       </c>
       <c r="F44" s="3">
-        <v>50300</v>
+        <v>54400</v>
       </c>
       <c r="G44" s="3">
-        <v>65500</v>
+        <v>51500</v>
       </c>
       <c r="H44" s="3">
-        <v>143600</v>
+        <v>67100</v>
       </c>
       <c r="I44" s="3">
-        <v>137200</v>
+        <v>147100</v>
       </c>
       <c r="J44" s="3">
+        <v>140500</v>
+      </c>
+      <c r="K44" s="3">
         <v>100400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>68100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115100</v>
+        <v>73000</v>
       </c>
       <c r="E45" s="3">
-        <v>49500</v>
+        <v>117900</v>
       </c>
       <c r="F45" s="3">
-        <v>46200</v>
+        <v>50700</v>
       </c>
       <c r="G45" s="3">
-        <v>35500</v>
+        <v>47400</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>36400</v>
       </c>
       <c r="I45" s="3">
-        <v>37500</v>
+        <v>27900</v>
       </c>
       <c r="J45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K45" s="3">
         <v>173800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>142700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>97900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>833900</v>
+        <v>917600</v>
       </c>
       <c r="E46" s="3">
-        <v>823900</v>
+        <v>854400</v>
       </c>
       <c r="F46" s="3">
-        <v>843800</v>
+        <v>844100</v>
       </c>
       <c r="G46" s="3">
-        <v>764600</v>
+        <v>864500</v>
       </c>
       <c r="H46" s="3">
-        <v>712600</v>
+        <v>783400</v>
       </c>
       <c r="I46" s="3">
-        <v>700200</v>
+        <v>730100</v>
       </c>
       <c r="J46" s="3">
+        <v>717400</v>
+      </c>
+      <c r="K46" s="3">
         <v>665300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>691100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>557000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>639800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>699500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26200</v>
+        <v>33600</v>
       </c>
       <c r="E47" s="3">
-        <v>24100</v>
+        <v>26900</v>
       </c>
       <c r="F47" s="3">
-        <v>20800</v>
+        <v>24700</v>
       </c>
       <c r="G47" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="H47" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="I47" s="3">
-        <v>35400</v>
+        <v>22400</v>
       </c>
       <c r="J47" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K47" s="3">
         <v>137300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>167700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>202100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>164400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>174900</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2237600</v>
+        <v>1671200</v>
       </c>
       <c r="E48" s="3">
-        <v>2109700</v>
+        <v>2292600</v>
       </c>
       <c r="F48" s="3">
-        <v>1971000</v>
+        <v>2161500</v>
       </c>
       <c r="G48" s="3">
-        <v>1656900</v>
+        <v>2019400</v>
       </c>
       <c r="H48" s="3">
-        <v>3139500</v>
+        <v>1697500</v>
       </c>
       <c r="I48" s="3">
-        <v>2885000</v>
+        <v>3216500</v>
       </c>
       <c r="J48" s="3">
+        <v>2955800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1453300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1520400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1672700</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2478100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>219700</v>
+        <v>238100</v>
       </c>
       <c r="E49" s="3">
-        <v>238200</v>
+        <v>225100</v>
       </c>
       <c r="F49" s="3">
-        <v>245100</v>
+        <v>244000</v>
       </c>
       <c r="G49" s="3">
-        <v>233800</v>
+        <v>251100</v>
       </c>
       <c r="H49" s="3">
-        <v>464700</v>
+        <v>239600</v>
       </c>
       <c r="I49" s="3">
-        <v>488200</v>
+        <v>476100</v>
       </c>
       <c r="J49" s="3">
+        <v>500200</v>
+      </c>
+      <c r="K49" s="3">
         <v>227800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>185200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>188600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>441400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>243700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96900</v>
+        <v>299000</v>
       </c>
       <c r="E52" s="3">
-        <v>105500</v>
+        <v>99300</v>
       </c>
       <c r="F52" s="3">
-        <v>94100</v>
+        <v>108100</v>
       </c>
       <c r="G52" s="3">
-        <v>61200</v>
+        <v>96400</v>
       </c>
       <c r="H52" s="3">
-        <v>68500</v>
+        <v>62700</v>
       </c>
       <c r="I52" s="3">
-        <v>56100</v>
+        <v>70200</v>
       </c>
       <c r="J52" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K52" s="3">
         <v>66200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3414400</v>
+        <v>3159500</v>
       </c>
       <c r="E54" s="3">
-        <v>3301300</v>
+        <v>3498200</v>
       </c>
       <c r="F54" s="3">
-        <v>3174900</v>
+        <v>3382400</v>
       </c>
       <c r="G54" s="3">
-        <v>2738300</v>
+        <v>3252800</v>
       </c>
       <c r="H54" s="3">
-        <v>2603600</v>
+        <v>2805500</v>
       </c>
       <c r="I54" s="3">
-        <v>2476900</v>
+        <v>2667600</v>
       </c>
       <c r="J54" s="3">
+        <v>2537700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2407700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2607500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2623600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2370200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3603000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>306700</v>
+        <v>329100</v>
       </c>
       <c r="E57" s="3">
-        <v>353600</v>
+        <v>314200</v>
       </c>
       <c r="F57" s="3">
-        <v>262900</v>
+        <v>362300</v>
       </c>
       <c r="G57" s="3">
-        <v>377700</v>
+        <v>269400</v>
       </c>
       <c r="H57" s="3">
-        <v>352900</v>
+        <v>386900</v>
       </c>
       <c r="I57" s="3">
-        <v>586200</v>
+        <v>361600</v>
       </c>
       <c r="J57" s="3">
+        <v>600600</v>
+      </c>
+      <c r="K57" s="3">
         <v>369000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>350000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>340800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>265600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>194600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>245400</v>
+        <v>192300</v>
       </c>
       <c r="E58" s="3">
-        <v>98500</v>
+        <v>251400</v>
       </c>
       <c r="F58" s="3">
-        <v>153600</v>
+        <v>100900</v>
       </c>
       <c r="G58" s="3">
-        <v>279300</v>
+        <v>157300</v>
       </c>
       <c r="H58" s="3">
-        <v>117400</v>
+        <v>286200</v>
       </c>
       <c r="I58" s="3">
-        <v>163900</v>
+        <v>120200</v>
       </c>
       <c r="J58" s="3">
+        <v>167900</v>
+      </c>
+      <c r="K58" s="3">
         <v>36700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>314600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>88600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>407300</v>
+        <v>427800</v>
       </c>
       <c r="E59" s="3">
-        <v>446200</v>
+        <v>417300</v>
       </c>
       <c r="F59" s="3">
-        <v>470200</v>
+        <v>457100</v>
       </c>
       <c r="G59" s="3">
-        <v>193100</v>
+        <v>481700</v>
       </c>
       <c r="H59" s="3">
-        <v>380700</v>
+        <v>197800</v>
       </c>
       <c r="I59" s="3">
-        <v>394100</v>
+        <v>390000</v>
       </c>
       <c r="J59" s="3">
+        <v>403800</v>
+      </c>
+      <c r="K59" s="3">
         <v>271100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>274500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>310300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>434200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>382300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>959500</v>
+        <v>949200</v>
       </c>
       <c r="E60" s="3">
-        <v>898300</v>
+        <v>983000</v>
       </c>
       <c r="F60" s="3">
-        <v>886700</v>
+        <v>920400</v>
       </c>
       <c r="G60" s="3">
-        <v>850100</v>
+        <v>908500</v>
       </c>
       <c r="H60" s="3">
-        <v>668300</v>
+        <v>870900</v>
       </c>
       <c r="I60" s="3">
-        <v>675800</v>
+        <v>684700</v>
       </c>
       <c r="J60" s="3">
+        <v>692400</v>
+      </c>
+      <c r="K60" s="3">
         <v>676700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>713200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>672500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>748400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>665500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>649700</v>
+        <v>880500</v>
       </c>
       <c r="E61" s="3">
-        <v>720700</v>
+        <v>665600</v>
       </c>
       <c r="F61" s="3">
-        <v>714400</v>
+        <v>738400</v>
       </c>
       <c r="G61" s="3">
-        <v>250300</v>
+        <v>732000</v>
       </c>
       <c r="H61" s="3">
-        <v>370200</v>
+        <v>256500</v>
       </c>
       <c r="I61" s="3">
-        <v>244800</v>
+        <v>379300</v>
       </c>
       <c r="J61" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K61" s="3">
         <v>236200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>201500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>251300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>222300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>404200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44500</v>
+        <v>49500</v>
       </c>
       <c r="E62" s="3">
-        <v>61400</v>
+        <v>45600</v>
       </c>
       <c r="F62" s="3">
-        <v>49300</v>
+        <v>62900</v>
       </c>
       <c r="G62" s="3">
-        <v>98300</v>
+        <v>50600</v>
       </c>
       <c r="H62" s="3">
-        <v>160800</v>
+        <v>100700</v>
       </c>
       <c r="I62" s="3">
-        <v>116800</v>
+        <v>164800</v>
       </c>
       <c r="J62" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K62" s="3">
         <v>131300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>126000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>158500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>657500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>467500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1652400</v>
+        <v>1878000</v>
       </c>
       <c r="E66" s="3">
-        <v>1679100</v>
+        <v>1692900</v>
       </c>
       <c r="F66" s="3">
-        <v>1648900</v>
+        <v>1720300</v>
       </c>
       <c r="G66" s="3">
-        <v>1208700</v>
+        <v>1689400</v>
       </c>
       <c r="H66" s="3">
-        <v>1209400</v>
+        <v>1238400</v>
       </c>
       <c r="I66" s="3">
-        <v>1047600</v>
+        <v>1239100</v>
       </c>
       <c r="J66" s="3">
+        <v>1073300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1064300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1063200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1107500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1355500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1566900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1500900</v>
+        <v>1013900</v>
       </c>
       <c r="E72" s="3">
-        <v>1361100</v>
+        <v>1537700</v>
       </c>
       <c r="F72" s="3">
-        <v>1264800</v>
+        <v>1394500</v>
       </c>
       <c r="G72" s="3">
-        <v>1268300</v>
+        <v>1295800</v>
       </c>
       <c r="H72" s="3">
-        <v>1133000</v>
+        <v>1299500</v>
       </c>
       <c r="I72" s="3">
-        <v>1159900</v>
+        <v>1160900</v>
       </c>
       <c r="J72" s="3">
+        <v>1188400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1074100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1220800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1220700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>885100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1732000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1762000</v>
+        <v>1281500</v>
       </c>
       <c r="E76" s="3">
-        <v>1622200</v>
+        <v>1805300</v>
       </c>
       <c r="F76" s="3">
-        <v>1525900</v>
+        <v>1662100</v>
       </c>
       <c r="G76" s="3">
-        <v>1529500</v>
+        <v>1563400</v>
       </c>
       <c r="H76" s="3">
-        <v>1394200</v>
+        <v>1567100</v>
       </c>
       <c r="I76" s="3">
-        <v>1429300</v>
+        <v>1428500</v>
       </c>
       <c r="J76" s="3">
+        <v>1464400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1343400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1544300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1516100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1014700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2036100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>136000</v>
+        <v>-528500</v>
       </c>
       <c r="E81" s="3">
-        <v>125300</v>
+        <v>139400</v>
       </c>
       <c r="F81" s="3">
-        <v>27700</v>
+        <v>128300</v>
       </c>
       <c r="G81" s="3">
-        <v>144600</v>
+        <v>28300</v>
       </c>
       <c r="H81" s="3">
-        <v>150900</v>
+        <v>148100</v>
       </c>
       <c r="I81" s="3">
-        <v>196400</v>
+        <v>154600</v>
       </c>
       <c r="J81" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K81" s="3">
         <v>114300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>214000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>254500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-672000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>360700</v>
+        <v>1094400</v>
       </c>
       <c r="E83" s="3">
-        <v>355300</v>
+        <v>369600</v>
       </c>
       <c r="F83" s="3">
-        <v>357600</v>
+        <v>364000</v>
       </c>
       <c r="G83" s="3">
-        <v>300700</v>
+        <v>366400</v>
       </c>
       <c r="H83" s="3">
-        <v>288900</v>
+        <v>308100</v>
       </c>
       <c r="I83" s="3">
-        <v>292800</v>
+        <v>295900</v>
       </c>
       <c r="J83" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K83" s="3">
         <v>285900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>341900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>395300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1045400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>420700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>421600</v>
+        <v>271600</v>
       </c>
       <c r="E89" s="3">
-        <v>565900</v>
+        <v>432000</v>
       </c>
       <c r="F89" s="3">
-        <v>442900</v>
+        <v>579800</v>
       </c>
       <c r="G89" s="3">
-        <v>295100</v>
+        <v>453800</v>
       </c>
       <c r="H89" s="3">
-        <v>312300</v>
+        <v>302400</v>
       </c>
       <c r="I89" s="3">
-        <v>286600</v>
+        <v>320000</v>
       </c>
       <c r="J89" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K89" s="3">
         <v>346600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>390100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>423800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>427000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>403800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-415400</v>
+        <v>-350800</v>
       </c>
       <c r="E91" s="3">
-        <v>-429800</v>
+        <v>-425600</v>
       </c>
       <c r="F91" s="3">
-        <v>-398900</v>
+        <v>-440400</v>
       </c>
       <c r="G91" s="3">
-        <v>-392200</v>
+        <v>-408700</v>
       </c>
       <c r="H91" s="3">
-        <v>-401100</v>
+        <v>-401900</v>
       </c>
       <c r="I91" s="3">
-        <v>-438500</v>
+        <v>-411000</v>
       </c>
       <c r="J91" s="3">
+        <v>-449300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-304700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-314900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-424100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-321600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-320400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-480900</v>
+        <v>-308800</v>
       </c>
       <c r="E94" s="3">
-        <v>-429000</v>
+        <v>-492700</v>
       </c>
       <c r="F94" s="3">
-        <v>-308300</v>
+        <v>-439500</v>
       </c>
       <c r="G94" s="3">
-        <v>-389000</v>
+        <v>-315900</v>
       </c>
       <c r="H94" s="3">
-        <v>-342200</v>
+        <v>-398600</v>
       </c>
       <c r="I94" s="3">
-        <v>-343300</v>
+        <v>-350600</v>
       </c>
       <c r="J94" s="3">
+        <v>-351700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-424900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-321000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-288500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-315400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-336300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31900</v>
+        <v>49300</v>
       </c>
       <c r="E100" s="3">
-        <v>-122600</v>
+        <v>-32700</v>
       </c>
       <c r="F100" s="3">
-        <v>36000</v>
+        <v>-125600</v>
       </c>
       <c r="G100" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="H100" s="3">
-        <v>89500</v>
+        <v>38000</v>
       </c>
       <c r="I100" s="3">
-        <v>3600</v>
+        <v>91700</v>
       </c>
       <c r="J100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K100" s="3">
         <v>21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-172000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-108700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3970,67 +4218,73 @@
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-91200</v>
+        <v>12200</v>
       </c>
       <c r="E102" s="3">
-        <v>14300</v>
+        <v>-93400</v>
       </c>
       <c r="F102" s="3">
-        <v>170600</v>
+        <v>14600</v>
       </c>
       <c r="G102" s="3">
-        <v>-56800</v>
+        <v>174800</v>
       </c>
       <c r="H102" s="3">
-        <v>59600</v>
+        <v>-58200</v>
       </c>
       <c r="I102" s="3">
-        <v>-52900</v>
+        <v>61100</v>
       </c>
       <c r="J102" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-56900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>111900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>69600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
